--- a/策划案/日本語を勉強/N2冲刺/単語/N2単語精简.xlsx
+++ b/策划案/日本語を勉強/N2冲刺/単語/N2単語精简.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOCUMENT\doc\DesignerDoc\策划案\日本語を勉強\N2冲刺\単語\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327D25D0-18E5-443E-BD93-C5FFB417C81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6E40E5-0D48-4C3D-9D17-A939FDD043DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19131,14 +19131,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -19425,7480 +19425,7475 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57AD627-C15A-4970-8A9A-604B3FE7ABEA}">
   <dimension ref="A1:C694"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A673" workbookViewId="0">
-      <selection activeCell="F681" sqref="F681"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="20.375" customWidth="1"/>
-    <col min="3" max="3" width="48.75" customWidth="1"/>
+    <col min="3" max="3" width="52.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>5018</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>3113</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>3114</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>3115</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>3116</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>3117</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>3118</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>3119</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>3120</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>3121</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>3122</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>3123</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>3124</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>3125</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>3126</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>3127</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>3128</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>3129</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>3130</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>3131</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>3132</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>3133</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>3134</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>3135</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>3136</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>3137</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>3138</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>3139</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>3140</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>3141</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>3142</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>3143</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>3144</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>3139</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="17" t="s">
         <v>3145</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>3146</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>3147</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="17" t="s">
         <v>3148</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>3149</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>3150</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="17" t="s">
         <v>3151</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>3152</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>3153</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="17" t="s">
         <v>3154</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>3155</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>3156</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="17" t="s">
         <v>3157</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>3158</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>3159</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="17" t="s">
         <v>3160</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="17" t="s">
         <v>3161</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="17" t="s">
         <v>3162</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="17" t="s">
         <v>3163</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="17" t="s">
         <v>3164</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="17" t="s">
         <v>3165</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="17" t="s">
         <v>3166</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="17" t="s">
         <v>3167</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>3168</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="17" t="s">
         <v>3169</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>3170</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="17" t="s">
         <v>3171</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="17" t="s">
         <v>3172</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="17" t="s">
         <v>3173</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="17" t="s">
         <v>5017</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="17" t="s">
         <v>3174</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>3175</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="17" t="s">
         <v>3176</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="17" t="s">
         <v>3177</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="17" t="s">
         <v>3178</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="17" t="s">
         <v>3179</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="17" t="s">
         <v>3180</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="17" t="s">
         <v>3181</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="17" t="s">
         <v>3182</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="17" t="s">
         <v>3183</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="17" t="s">
         <v>3184</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="17" t="s">
         <v>3185</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="17" t="s">
         <v>3186</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="17" t="s">
         <v>3187</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="17" t="s">
         <v>3188</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="17" t="s">
         <v>3189</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="17" t="s">
         <v>3190</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="17" t="s">
         <v>3191</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="17" t="s">
         <v>3192</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="17" t="s">
         <v>3193</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="17" t="s">
         <v>3194</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="17" t="s">
         <v>3195</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="17" t="s">
         <v>3196</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="17" t="s">
         <v>3197</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="17" t="s">
         <v>3198</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="17" t="s">
         <v>3199</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="17" t="s">
         <v>3200</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="17" t="s">
         <v>3201</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="17" t="s">
         <v>3202</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="17" t="s">
         <v>3203</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="17" t="s">
         <v>3204</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="17" t="s">
         <v>3205</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="17" t="s">
         <v>3206</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="17" t="s">
         <v>3207</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="17" t="s">
         <v>3208</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="17" t="s">
         <v>3209</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="17" t="s">
         <v>3210</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="17" t="s">
         <v>3211</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="17" t="s">
         <v>3212</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="17" t="s">
         <v>3213</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="17" t="s">
         <v>3214</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="17" t="s">
         <v>3215</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="17" t="s">
         <v>3216</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="17" t="s">
         <v>3217</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="17" t="s">
         <v>3218</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="17" t="s">
         <v>3219</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="17" t="s">
         <v>3220</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="17" t="s">
         <v>3221</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="17" t="s">
         <v>3222</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="17" t="s">
         <v>3223</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="17" t="s">
         <v>3224</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="17" t="s">
         <v>3225</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="17" t="s">
         <v>3226</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="17" t="s">
         <v>3227</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="18" t="s">
         <v>5019</v>
       </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
     </row>
     <row r="43" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="16" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="17" t="s">
         <v>3228</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="17" t="s">
         <v>3273</v>
       </c>
-      <c r="C44" s="18"/>
+      <c r="C44" s="17"/>
     </row>
     <row r="45" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="17" t="s">
         <v>3229</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="17" t="s">
         <v>3274</v>
       </c>
-      <c r="C45" s="18"/>
+      <c r="C45" s="17"/>
     </row>
     <row r="46" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="17" t="s">
         <v>3230</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="17" t="s">
         <v>3275</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="17" t="s">
         <v>3276</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="17" t="s">
         <v>3231</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="17" t="s">
         <v>3277</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="17" t="s">
         <v>3278</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="17" t="s">
         <v>3232</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="17" t="s">
         <v>3279</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="17" t="s">
         <v>3280</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="17" t="s">
         <v>3233</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="17" t="s">
         <v>3281</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="17" t="s">
         <v>3282</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="17" t="s">
         <v>3234</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="17" t="s">
         <v>3283</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="17" t="s">
         <v>3284</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="17" t="s">
         <v>3235</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="17" t="s">
         <v>3285</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="17" t="s">
         <v>3286</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="18" t="s">
+      <c r="A52" s="17" t="s">
         <v>3236</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="17" t="s">
         <v>3287</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="17" t="s">
         <v>3288</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="18" t="s">
+      <c r="A53" s="17" t="s">
         <v>3237</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="17" t="s">
         <v>3289</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="17" t="s">
         <v>3290</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="18" t="s">
+      <c r="A54" s="17" t="s">
         <v>3238</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="17" t="s">
         <v>3291</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="17" t="s">
         <v>3292</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="18" t="s">
+      <c r="A55" s="17" t="s">
         <v>3239</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="17" t="s">
         <v>3293</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="17" t="s">
         <v>3294</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="18" t="s">
+      <c r="A56" s="17" t="s">
         <v>3240</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="17" t="s">
         <v>3295</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C56" s="17" t="s">
         <v>3296</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="18" t="s">
+      <c r="A57" s="17" t="s">
         <v>3241</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="17" t="s">
         <v>3297</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C57" s="17" t="s">
         <v>3298</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="18" t="s">
+      <c r="A58" s="17" t="s">
         <v>3242</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="17" t="s">
         <v>3299</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C58" s="17" t="s">
         <v>3300</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="18" t="s">
+      <c r="A59" s="17" t="s">
         <v>3243</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="17" t="s">
         <v>3301</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C59" s="17" t="s">
         <v>3302</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="18" t="s">
+      <c r="A60" s="17" t="s">
         <v>3244</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="17" t="s">
         <v>3303</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="17" t="s">
         <v>3304</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="18" t="s">
+      <c r="A61" s="17" t="s">
         <v>3245</v>
       </c>
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="17" t="s">
         <v>3305</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="C61" s="17" t="s">
         <v>3306</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A62" s="18" t="s">
+      <c r="A62" s="17" t="s">
         <v>3246</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="17" t="s">
         <v>3307</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="17" t="s">
         <v>3308</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="18" t="s">
+      <c r="A63" s="17" t="s">
         <v>3247</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="17" t="s">
         <v>3309</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C63" s="17" t="s">
         <v>3310</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="18" t="s">
+      <c r="A64" s="17" t="s">
         <v>3248</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="17" t="s">
         <v>3311</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="C64" s="17" t="s">
         <v>3312</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A65" s="18" t="s">
+      <c r="A65" s="17" t="s">
         <v>3249</v>
       </c>
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="17" t="s">
         <v>3313</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="C65" s="17" t="s">
         <v>3314</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A66" s="18" t="s">
+      <c r="A66" s="17" t="s">
         <v>3250</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="17" t="s">
         <v>3315</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C66" s="17" t="s">
         <v>3316</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="18" t="s">
+      <c r="A67" s="17" t="s">
         <v>3251</v>
       </c>
-      <c r="B67" s="18" t="s">
+      <c r="B67" s="17" t="s">
         <v>3317</v>
       </c>
-      <c r="C67" s="18"/>
+      <c r="C67" s="17"/>
     </row>
     <row r="68" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A68" s="18" t="s">
+      <c r="A68" s="17" t="s">
         <v>3252</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="17" t="s">
         <v>3318</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C68" s="17" t="s">
         <v>3319</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="18" t="s">
+      <c r="A69" s="17" t="s">
         <v>3253</v>
       </c>
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="17" t="s">
         <v>3320</v>
       </c>
-      <c r="C69" s="18" t="s">
+      <c r="C69" s="17" t="s">
         <v>3321</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="18" t="s">
+      <c r="A70" s="17" t="s">
         <v>3254</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="17" t="s">
         <v>3322</v>
       </c>
-      <c r="C70" s="18" t="s">
+      <c r="C70" s="17" t="s">
         <v>3323</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="18" t="s">
+      <c r="A71" s="17" t="s">
         <v>3255</v>
       </c>
-      <c r="B71" s="18" t="s">
+      <c r="B71" s="17" t="s">
         <v>3324</v>
       </c>
-      <c r="C71" s="18" t="s">
+      <c r="C71" s="17" t="s">
         <v>3325</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="18" t="s">
+      <c r="A72" s="17" t="s">
         <v>3256</v>
       </c>
-      <c r="B72" s="18" t="s">
+      <c r="B72" s="17" t="s">
         <v>3326</v>
       </c>
-      <c r="C72" s="18" t="s">
+      <c r="C72" s="17" t="s">
         <v>3327</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A73" s="18" t="s">
+      <c r="A73" s="17" t="s">
         <v>3257</v>
       </c>
-      <c r="B73" s="18" t="s">
+      <c r="B73" s="17" t="s">
         <v>3328</v>
       </c>
-      <c r="C73" s="18" t="s">
+      <c r="C73" s="17" t="s">
         <v>3329</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="18" t="s">
+      <c r="A74" s="17" t="s">
         <v>3258</v>
       </c>
-      <c r="B74" s="18" t="s">
+      <c r="B74" s="17" t="s">
         <v>3330</v>
       </c>
-      <c r="C74" s="18" t="s">
+      <c r="C74" s="17" t="s">
         <v>3331</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="18" t="s">
+      <c r="A75" s="17" t="s">
         <v>3259</v>
       </c>
-      <c r="B75" s="18" t="s">
+      <c r="B75" s="17" t="s">
         <v>3332</v>
       </c>
-      <c r="C75" s="18" t="s">
+      <c r="C75" s="17" t="s">
         <v>3333</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A76" s="18" t="s">
+      <c r="A76" s="17" t="s">
         <v>3260</v>
       </c>
-      <c r="B76" s="18" t="s">
+      <c r="B76" s="17" t="s">
         <v>3334</v>
       </c>
-      <c r="C76" s="18" t="s">
+      <c r="C76" s="17" t="s">
         <v>3335</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="18" t="s">
+      <c r="A77" s="17" t="s">
         <v>3261</v>
       </c>
-      <c r="B77" s="18" t="s">
+      <c r="B77" s="17" t="s">
         <v>3336</v>
       </c>
-      <c r="C77" s="18" t="s">
+      <c r="C77" s="17" t="s">
         <v>3337</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="18" t="s">
+      <c r="A78" s="17" t="s">
         <v>3262</v>
       </c>
-      <c r="B78" s="18" t="s">
+      <c r="B78" s="17" t="s">
         <v>3338</v>
       </c>
-      <c r="C78" s="18" t="s">
+      <c r="C78" s="17" t="s">
         <v>3339</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A79" s="18" t="s">
+      <c r="A79" s="17" t="s">
         <v>3263</v>
       </c>
-      <c r="B79" s="18" t="s">
+      <c r="B79" s="17" t="s">
         <v>3340</v>
       </c>
-      <c r="C79" s="18" t="s">
+      <c r="C79" s="17" t="s">
         <v>3341</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A80" s="18" t="s">
+      <c r="A80" s="17" t="s">
         <v>3264</v>
       </c>
-      <c r="B80" s="18" t="s">
+      <c r="B80" s="17" t="s">
         <v>3342</v>
       </c>
-      <c r="C80" s="18" t="s">
+      <c r="C80" s="17" t="s">
         <v>3343</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="18" t="s">
+      <c r="A81" s="17" t="s">
         <v>3265</v>
       </c>
-      <c r="B81" s="18" t="s">
+      <c r="B81" s="17" t="s">
         <v>3344</v>
       </c>
-      <c r="C81" s="18" t="s">
+      <c r="C81" s="17" t="s">
         <v>3345</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="18" t="s">
+      <c r="A82" s="17" t="s">
         <v>3266</v>
       </c>
-      <c r="B82" s="18" t="s">
+      <c r="B82" s="17" t="s">
         <v>3346</v>
       </c>
-      <c r="C82" s="18" t="s">
+      <c r="C82" s="17" t="s">
         <v>3347</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="18" t="s">
+      <c r="A83" s="17" t="s">
         <v>3267</v>
       </c>
-      <c r="B83" s="18" t="s">
+      <c r="B83" s="17" t="s">
         <v>3348</v>
       </c>
-      <c r="C83" s="18" t="s">
+      <c r="C83" s="17" t="s">
         <v>3349</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="18" t="s">
+      <c r="A84" s="17" t="s">
         <v>3268</v>
       </c>
-      <c r="B84" s="18" t="s">
+      <c r="B84" s="17" t="s">
         <v>3350</v>
       </c>
-      <c r="C84" s="18" t="s">
+      <c r="C84" s="17" t="s">
         <v>3351</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="18" t="s">
+      <c r="A85" s="17" t="s">
         <v>3269</v>
       </c>
-      <c r="B85" s="18" t="s">
+      <c r="B85" s="17" t="s">
         <v>3352</v>
       </c>
-      <c r="C85" s="18" t="s">
+      <c r="C85" s="17" t="s">
         <v>3353</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="18" t="s">
+      <c r="A86" s="17" t="s">
         <v>3270</v>
       </c>
-      <c r="B86" s="18" t="s">
+      <c r="B86" s="17" t="s">
         <v>3354</v>
       </c>
-      <c r="C86" s="18" t="s">
+      <c r="C86" s="17" t="s">
         <v>3355</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="18" t="s">
+      <c r="A87" s="17" t="s">
         <v>3271</v>
       </c>
-      <c r="B87" s="18" t="s">
+      <c r="B87" s="17" t="s">
         <v>3356</v>
       </c>
-      <c r="C87" s="18" t="s">
+      <c r="C87" s="17" t="s">
         <v>3357</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="18" t="s">
+      <c r="A88" s="17" t="s">
         <v>3272</v>
       </c>
-      <c r="B88" s="18" t="s">
+      <c r="B88" s="17" t="s">
         <v>3358</v>
       </c>
-      <c r="C88" s="18" t="s">
+      <c r="C88" s="17" t="s">
         <v>3359</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A89" s="16" t="s">
+      <c r="A89" s="18" t="s">
         <v>5020</v>
       </c>
-      <c r="B89" s="16"/>
-      <c r="C89" s="16"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="18"/>
     </row>
     <row r="90" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A90" s="17" t="s">
+      <c r="A90" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B90" s="17" t="s">
+      <c r="B90" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C90" s="17" t="s">
+      <c r="C90" s="16" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A91" s="18" t="s">
+      <c r="A91" s="17" t="s">
         <v>3360</v>
       </c>
-      <c r="B91" s="18" t="s">
+      <c r="B91" s="17" t="s">
         <v>3407</v>
       </c>
-      <c r="C91" s="18" t="s">
+      <c r="C91" s="17" t="s">
         <v>3408</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A92" s="18" t="s">
+      <c r="A92" s="17" t="s">
         <v>3361</v>
       </c>
-      <c r="B92" s="18" t="s">
+      <c r="B92" s="17" t="s">
         <v>3409</v>
       </c>
-      <c r="C92" s="18" t="s">
+      <c r="C92" s="17" t="s">
         <v>3410</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="18" t="s">
+      <c r="A93" s="17" t="s">
         <v>3362</v>
       </c>
-      <c r="B93" s="18" t="s">
+      <c r="B93" s="17" t="s">
         <v>3411</v>
       </c>
-      <c r="C93" s="18" t="s">
+      <c r="C93" s="17" t="s">
         <v>3412</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A94" s="18" t="s">
+      <c r="A94" s="17" t="s">
         <v>3363</v>
       </c>
-      <c r="B94" s="18" t="s">
+      <c r="B94" s="17" t="s">
         <v>3413</v>
       </c>
-      <c r="C94" s="18" t="s">
+      <c r="C94" s="17" t="s">
         <v>3414</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A95" s="18" t="s">
+      <c r="A95" s="17" t="s">
         <v>3364</v>
       </c>
-      <c r="B95" s="18" t="s">
+      <c r="B95" s="17" t="s">
         <v>3415</v>
       </c>
-      <c r="C95" s="18"/>
+      <c r="C95" s="17"/>
     </row>
     <row r="96" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A96" s="18" t="s">
+      <c r="A96" s="17" t="s">
         <v>3365</v>
       </c>
-      <c r="B96" s="18" t="s">
+      <c r="B96" s="17" t="s">
         <v>3416</v>
       </c>
-      <c r="C96" s="18" t="s">
+      <c r="C96" s="17" t="s">
         <v>3417</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A97" s="18" t="s">
+      <c r="A97" s="17" t="s">
         <v>3366</v>
       </c>
-      <c r="B97" s="18" t="s">
+      <c r="B97" s="17" t="s">
         <v>3418</v>
       </c>
-      <c r="C97" s="18" t="s">
+      <c r="C97" s="17" t="s">
         <v>3419</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A98" s="18" t="s">
+      <c r="A98" s="17" t="s">
         <v>3367</v>
       </c>
-      <c r="B98" s="18" t="s">
+      <c r="B98" s="17" t="s">
         <v>3420</v>
       </c>
-      <c r="C98" s="18" t="s">
+      <c r="C98" s="17" t="s">
         <v>3421</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A99" s="18" t="s">
+      <c r="A99" s="17" t="s">
         <v>3368</v>
       </c>
-      <c r="B99" s="18" t="s">
+      <c r="B99" s="17" t="s">
         <v>3422</v>
       </c>
-      <c r="C99" s="18" t="s">
+      <c r="C99" s="17" t="s">
         <v>3423</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="18" t="s">
+      <c r="A100" s="17" t="s">
         <v>3369</v>
       </c>
-      <c r="B100" s="18" t="s">
+      <c r="B100" s="17" t="s">
         <v>3424</v>
       </c>
-      <c r="C100" s="18" t="s">
+      <c r="C100" s="17" t="s">
         <v>3425</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="18" t="s">
+      <c r="A101" s="17" t="s">
         <v>3370</v>
       </c>
-      <c r="B101" s="18" t="s">
+      <c r="B101" s="17" t="s">
         <v>3426</v>
       </c>
-      <c r="C101" s="18" t="s">
+      <c r="C101" s="17" t="s">
         <v>3427</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="18" t="s">
+      <c r="A102" s="17" t="s">
         <v>3371</v>
       </c>
-      <c r="B102" s="18" t="s">
+      <c r="B102" s="17" t="s">
         <v>3428</v>
       </c>
-      <c r="C102" s="18" t="s">
+      <c r="C102" s="17" t="s">
         <v>3429</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A103" s="18" t="s">
+      <c r="A103" s="17" t="s">
         <v>3372</v>
       </c>
-      <c r="B103" s="18" t="s">
+      <c r="B103" s="17" t="s">
         <v>3430</v>
       </c>
-      <c r="C103" s="18" t="s">
+      <c r="C103" s="17" t="s">
         <v>3431</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A104" s="18" t="s">
+      <c r="A104" s="17" t="s">
         <v>3373</v>
       </c>
-      <c r="B104" s="18" t="s">
+      <c r="B104" s="17" t="s">
         <v>3432</v>
       </c>
-      <c r="C104" s="18" t="s">
+      <c r="C104" s="17" t="s">
         <v>3433</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A105" s="18" t="s">
+      <c r="A105" s="17" t="s">
         <v>3374</v>
       </c>
-      <c r="B105" s="18" t="s">
+      <c r="B105" s="17" t="s">
         <v>3434</v>
       </c>
-      <c r="C105" s="18" t="s">
+      <c r="C105" s="17" t="s">
         <v>3435</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="18" t="s">
+      <c r="A106" s="17" t="s">
         <v>3375</v>
       </c>
-      <c r="B106" s="18" t="s">
+      <c r="B106" s="17" t="s">
         <v>3436</v>
       </c>
-      <c r="C106" s="18" t="s">
+      <c r="C106" s="17" t="s">
         <v>3437</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A107" s="18" t="s">
+      <c r="A107" s="17" t="s">
         <v>3376</v>
       </c>
-      <c r="B107" s="18" t="s">
+      <c r="B107" s="17" t="s">
         <v>3438</v>
       </c>
-      <c r="C107" s="18" t="s">
+      <c r="C107" s="17" t="s">
         <v>3439</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A108" s="18" t="s">
+      <c r="A108" s="17" t="s">
         <v>3377</v>
       </c>
-      <c r="B108" s="18" t="s">
+      <c r="B108" s="17" t="s">
         <v>3440</v>
       </c>
-      <c r="C108" s="18" t="s">
+      <c r="C108" s="17" t="s">
         <v>3441</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="18" t="s">
+      <c r="A109" s="17" t="s">
         <v>3378</v>
       </c>
-      <c r="B109" s="18" t="s">
+      <c r="B109" s="17" t="s">
         <v>3442</v>
       </c>
-      <c r="C109" s="18" t="s">
+      <c r="C109" s="17" t="s">
         <v>3443</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A110" s="18" t="s">
+      <c r="A110" s="17" t="s">
         <v>3379</v>
       </c>
-      <c r="B110" s="18" t="s">
+      <c r="B110" s="17" t="s">
         <v>3444</v>
       </c>
-      <c r="C110" s="18" t="s">
+      <c r="C110" s="17" t="s">
         <v>3445</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A111" s="18" t="s">
+      <c r="A111" s="17" t="s">
         <v>3380</v>
       </c>
-      <c r="B111" s="18" t="s">
+      <c r="B111" s="17" t="s">
         <v>3446</v>
       </c>
-      <c r="C111" s="18" t="s">
+      <c r="C111" s="17" t="s">
         <v>3447</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A112" s="18" t="s">
+      <c r="A112" s="17" t="s">
         <v>3381</v>
       </c>
-      <c r="B112" s="18" t="s">
+      <c r="B112" s="17" t="s">
         <v>3448</v>
       </c>
-      <c r="C112" s="18" t="s">
+      <c r="C112" s="17" t="s">
         <v>3449</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A113" s="18" t="s">
+      <c r="A113" s="17" t="s">
         <v>3382</v>
       </c>
-      <c r="B113" s="18" t="s">
+      <c r="B113" s="17" t="s">
         <v>3450</v>
       </c>
-      <c r="C113" s="18" t="s">
+      <c r="C113" s="17" t="s">
         <v>3451</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A114" s="18" t="s">
+      <c r="A114" s="17" t="s">
         <v>3383</v>
       </c>
-      <c r="B114" s="18" t="s">
+      <c r="B114" s="17" t="s">
         <v>3452</v>
       </c>
-      <c r="C114" s="18" t="s">
+      <c r="C114" s="17" t="s">
         <v>3453</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A115" s="18" t="s">
+      <c r="A115" s="17" t="s">
         <v>3384</v>
       </c>
-      <c r="B115" s="18" t="s">
+      <c r="B115" s="17" t="s">
         <v>3454</v>
       </c>
-      <c r="C115" s="18" t="s">
+      <c r="C115" s="17" t="s">
         <v>3455</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A116" s="18" t="s">
+      <c r="A116" s="17" t="s">
         <v>3385</v>
       </c>
-      <c r="B116" s="18" t="s">
+      <c r="B116" s="17" t="s">
         <v>3456</v>
       </c>
-      <c r="C116" s="18" t="s">
+      <c r="C116" s="17" t="s">
         <v>3457</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A117" s="18" t="s">
+      <c r="A117" s="17" t="s">
         <v>3386</v>
       </c>
-      <c r="B117" s="18" t="s">
+      <c r="B117" s="17" t="s">
         <v>3458</v>
       </c>
-      <c r="C117" s="18" t="s">
+      <c r="C117" s="17" t="s">
         <v>3459</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A118" s="18" t="s">
+      <c r="A118" s="17" t="s">
         <v>3387</v>
       </c>
-      <c r="B118" s="18" t="s">
+      <c r="B118" s="17" t="s">
         <v>3460</v>
       </c>
-      <c r="C118" s="18" t="s">
+      <c r="C118" s="17" t="s">
         <v>3461</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="18" t="s">
+      <c r="A119" s="17" t="s">
         <v>3388</v>
       </c>
-      <c r="B119" s="18" t="s">
+      <c r="B119" s="17" t="s">
         <v>3462</v>
       </c>
-      <c r="C119" s="18" t="s">
+      <c r="C119" s="17" t="s">
         <v>3463</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A120" s="18" t="s">
+      <c r="A120" s="17" t="s">
         <v>3389</v>
       </c>
-      <c r="B120" s="18" t="s">
+      <c r="B120" s="17" t="s">
         <v>3464</v>
       </c>
-      <c r="C120" s="18" t="s">
+      <c r="C120" s="17" t="s">
         <v>3465</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A121" s="18" t="s">
+      <c r="A121" s="17" t="s">
         <v>3390</v>
       </c>
-      <c r="B121" s="18" t="s">
+      <c r="B121" s="17" t="s">
         <v>3466</v>
       </c>
-      <c r="C121" s="18" t="s">
+      <c r="C121" s="17" t="s">
         <v>3467</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A122" s="18" t="s">
+      <c r="A122" s="17" t="s">
         <v>3391</v>
       </c>
-      <c r="B122" s="18" t="s">
+      <c r="B122" s="17" t="s">
         <v>3468</v>
       </c>
-      <c r="C122" s="18" t="s">
+      <c r="C122" s="17" t="s">
         <v>3469</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A123" s="18" t="s">
+      <c r="A123" s="17" t="s">
         <v>3392</v>
       </c>
-      <c r="B123" s="18" t="s">
+      <c r="B123" s="17" t="s">
         <v>3470</v>
       </c>
-      <c r="C123" s="18" t="s">
+      <c r="C123" s="17" t="s">
         <v>3471</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A124" s="18" t="s">
+      <c r="A124" s="17" t="s">
         <v>3393</v>
       </c>
-      <c r="B124" s="18" t="s">
+      <c r="B124" s="17" t="s">
         <v>3472</v>
       </c>
-      <c r="C124" s="18" t="s">
+      <c r="C124" s="17" t="s">
         <v>3473</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A125" s="18" t="s">
+      <c r="A125" s="17" t="s">
         <v>3394</v>
       </c>
-      <c r="B125" s="18" t="s">
+      <c r="B125" s="17" t="s">
         <v>3474</v>
       </c>
-      <c r="C125" s="18"/>
+      <c r="C125" s="17"/>
     </row>
     <row r="126" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A126" s="18" t="s">
+      <c r="A126" s="17" t="s">
         <v>3395</v>
       </c>
-      <c r="B126" s="18" t="s">
+      <c r="B126" s="17" t="s">
         <v>3475</v>
       </c>
-      <c r="C126" s="18" t="s">
+      <c r="C126" s="17" t="s">
         <v>3476</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A127" s="18" t="s">
+      <c r="A127" s="17" t="s">
         <v>3396</v>
       </c>
-      <c r="B127" s="18" t="s">
+      <c r="B127" s="17" t="s">
         <v>3477</v>
       </c>
-      <c r="C127" s="18" t="s">
+      <c r="C127" s="17" t="s">
         <v>3478</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A128" s="18" t="s">
+      <c r="A128" s="17" t="s">
         <v>3397</v>
       </c>
-      <c r="B128" s="18" t="s">
+      <c r="B128" s="17" t="s">
         <v>3479</v>
       </c>
-      <c r="C128" s="18" t="s">
+      <c r="C128" s="17" t="s">
         <v>3480</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A129" s="18" t="s">
+      <c r="A129" s="17" t="s">
         <v>3398</v>
       </c>
-      <c r="B129" s="18" t="s">
+      <c r="B129" s="17" t="s">
         <v>3481</v>
       </c>
-      <c r="C129" s="18" t="s">
+      <c r="C129" s="17" t="s">
         <v>3482</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A130" s="18" t="s">
+      <c r="A130" s="17" t="s">
         <v>3399</v>
       </c>
-      <c r="B130" s="18" t="s">
+      <c r="B130" s="17" t="s">
         <v>3483</v>
       </c>
-      <c r="C130" s="18" t="s">
+      <c r="C130" s="17" t="s">
         <v>3484</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A131" s="18" t="s">
+      <c r="A131" s="17" t="s">
         <v>3400</v>
       </c>
-      <c r="B131" s="18" t="s">
+      <c r="B131" s="17" t="s">
         <v>3485</v>
       </c>
-      <c r="C131" s="18" t="s">
+      <c r="C131" s="17" t="s">
         <v>3486</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A132" s="18" t="s">
+      <c r="A132" s="17" t="s">
         <v>3401</v>
       </c>
-      <c r="B132" s="18" t="s">
+      <c r="B132" s="17" t="s">
         <v>3487</v>
       </c>
-      <c r="C132" s="18" t="s">
+      <c r="C132" s="17" t="s">
         <v>3488</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A133" s="18" t="s">
+      <c r="A133" s="17" t="s">
         <v>3402</v>
       </c>
-      <c r="B133" s="18" t="s">
+      <c r="B133" s="17" t="s">
         <v>3489</v>
       </c>
-      <c r="C133" s="18" t="s">
+      <c r="C133" s="17" t="s">
         <v>3490</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A134" s="18" t="s">
+      <c r="A134" s="17" t="s">
         <v>3403</v>
       </c>
-      <c r="B134" s="18" t="s">
+      <c r="B134" s="17" t="s">
         <v>3491</v>
       </c>
-      <c r="C134" s="18" t="s">
+      <c r="C134" s="17" t="s">
         <v>3492</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A135" s="18" t="s">
+      <c r="A135" s="17" t="s">
         <v>3404</v>
       </c>
-      <c r="B135" s="18" t="s">
+      <c r="B135" s="17" t="s">
         <v>3493</v>
       </c>
-      <c r="C135" s="18" t="s">
+      <c r="C135" s="17" t="s">
         <v>3494</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A136" s="18" t="s">
+      <c r="A136" s="17" t="s">
         <v>3405</v>
       </c>
-      <c r="B136" s="18" t="s">
+      <c r="B136" s="17" t="s">
         <v>3495</v>
       </c>
-      <c r="C136" s="18" t="s">
+      <c r="C136" s="17" t="s">
         <v>3496</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A137" s="18" t="s">
+      <c r="A137" s="17" t="s">
         <v>3406</v>
       </c>
-      <c r="B137" s="18" t="s">
+      <c r="B137" s="17" t="s">
         <v>3497</v>
       </c>
-      <c r="C137" s="18" t="s">
+      <c r="C137" s="17" t="s">
         <v>3498</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A138" s="16" t="s">
+      <c r="A138" s="18" t="s">
         <v>5021</v>
       </c>
-      <c r="B138" s="16"/>
-      <c r="C138" s="16"/>
+      <c r="B138" s="18"/>
+      <c r="C138" s="18"/>
     </row>
     <row r="139" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A139" s="17" t="s">
+      <c r="A139" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B139" s="17" t="s">
+      <c r="B139" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C139" s="17" t="s">
+      <c r="C139" s="16" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A140" s="18" t="s">
+      <c r="A140" s="17" t="s">
         <v>3499</v>
       </c>
-      <c r="B140" s="18" t="s">
+      <c r="B140" s="17" t="s">
         <v>3526</v>
       </c>
-      <c r="C140" s="18"/>
+      <c r="C140" s="17"/>
     </row>
     <row r="141" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A141" s="18" t="s">
+      <c r="A141" s="17" t="s">
         <v>3500</v>
       </c>
-      <c r="B141" s="18" t="s">
+      <c r="B141" s="17" t="s">
         <v>3527</v>
       </c>
-      <c r="C141" s="18" t="s">
+      <c r="C141" s="17" t="s">
         <v>3528</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A142" s="18" t="s">
+      <c r="A142" s="17" t="s">
         <v>3501</v>
       </c>
-      <c r="B142" s="18" t="s">
+      <c r="B142" s="17" t="s">
         <v>3529</v>
       </c>
-      <c r="C142" s="18"/>
+      <c r="C142" s="17"/>
     </row>
     <row r="143" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A143" s="18" t="s">
+      <c r="A143" s="17" t="s">
         <v>3502</v>
       </c>
-      <c r="B143" s="18" t="s">
+      <c r="B143" s="17" t="s">
         <v>3530</v>
       </c>
-      <c r="C143" s="18"/>
+      <c r="C143" s="17"/>
     </row>
     <row r="144" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A144" s="18" t="s">
+      <c r="A144" s="17" t="s">
         <v>3503</v>
       </c>
-      <c r="B144" s="18" t="s">
+      <c r="B144" s="17" t="s">
         <v>3531</v>
       </c>
-      <c r="C144" s="18"/>
+      <c r="C144" s="17"/>
     </row>
     <row r="145" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A145" s="18" t="s">
+      <c r="A145" s="17" t="s">
         <v>3504</v>
       </c>
-      <c r="B145" s="18" t="s">
+      <c r="B145" s="17" t="s">
         <v>3532</v>
       </c>
-      <c r="C145" s="18"/>
+      <c r="C145" s="17"/>
     </row>
     <row r="146" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A146" s="18" t="s">
+      <c r="A146" s="17" t="s">
         <v>3505</v>
       </c>
-      <c r="B146" s="18" t="s">
+      <c r="B146" s="17" t="s">
         <v>3533</v>
       </c>
-      <c r="C146" s="18"/>
+      <c r="C146" s="17"/>
     </row>
     <row r="147" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A147" s="18" t="s">
+      <c r="A147" s="17" t="s">
         <v>3506</v>
       </c>
-      <c r="B147" s="18" t="s">
+      <c r="B147" s="17" t="s">
         <v>3534</v>
       </c>
-      <c r="C147" s="18"/>
+      <c r="C147" s="17"/>
     </row>
     <row r="148" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A148" s="18" t="s">
+      <c r="A148" s="17" t="s">
         <v>3507</v>
       </c>
-      <c r="B148" s="18" t="s">
+      <c r="B148" s="17" t="s">
         <v>3535</v>
       </c>
-      <c r="C148" s="18"/>
+      <c r="C148" s="17"/>
     </row>
     <row r="149" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A149" s="18" t="s">
+      <c r="A149" s="17" t="s">
         <v>3508</v>
       </c>
-      <c r="B149" s="18" t="s">
+      <c r="B149" s="17" t="s">
         <v>3536</v>
       </c>
-      <c r="C149" s="18"/>
+      <c r="C149" s="17"/>
     </row>
     <row r="150" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A150" s="18" t="s">
+      <c r="A150" s="17" t="s">
         <v>3509</v>
       </c>
-      <c r="B150" s="18" t="s">
+      <c r="B150" s="17" t="s">
         <v>3537</v>
       </c>
-      <c r="C150" s="18"/>
+      <c r="C150" s="17"/>
     </row>
     <row r="151" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A151" s="18" t="s">
+      <c r="A151" s="17" t="s">
         <v>3510</v>
       </c>
-      <c r="B151" s="18" t="s">
+      <c r="B151" s="17" t="s">
         <v>3538</v>
       </c>
-      <c r="C151" s="18" t="s">
+      <c r="C151" s="17" t="s">
         <v>3539</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A152" s="18" t="s">
+      <c r="A152" s="17" t="s">
         <v>3511</v>
       </c>
-      <c r="B152" s="18" t="s">
+      <c r="B152" s="17" t="s">
         <v>3540</v>
       </c>
-      <c r="C152" s="18"/>
+      <c r="C152" s="17"/>
     </row>
     <row r="153" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A153" s="18" t="s">
+      <c r="A153" s="17" t="s">
         <v>3512</v>
       </c>
-      <c r="B153" s="18" t="s">
+      <c r="B153" s="17" t="s">
         <v>3541</v>
       </c>
-      <c r="C153" s="18" t="s">
+      <c r="C153" s="17" t="s">
         <v>3542</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A154" s="18" t="s">
+      <c r="A154" s="17" t="s">
         <v>3513</v>
       </c>
-      <c r="B154" s="18" t="s">
+      <c r="B154" s="17" t="s">
         <v>3543</v>
       </c>
-      <c r="C154" s="18" t="s">
+      <c r="C154" s="17" t="s">
         <v>3544</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A155" s="18" t="s">
+      <c r="A155" s="17" t="s">
         <v>3514</v>
       </c>
-      <c r="B155" s="18" t="s">
+      <c r="B155" s="17" t="s">
         <v>3545</v>
       </c>
-      <c r="C155" s="18" t="s">
+      <c r="C155" s="17" t="s">
         <v>3546</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A156" s="18" t="s">
+      <c r="A156" s="17" t="s">
         <v>3515</v>
       </c>
-      <c r="B156" s="18" t="s">
+      <c r="B156" s="17" t="s">
         <v>3547</v>
       </c>
-      <c r="C156" s="18" t="s">
+      <c r="C156" s="17" t="s">
         <v>3548</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A157" s="18" t="s">
+      <c r="A157" s="17" t="s">
         <v>3516</v>
       </c>
-      <c r="B157" s="18" t="s">
+      <c r="B157" s="17" t="s">
         <v>3549</v>
       </c>
-      <c r="C157" s="18" t="s">
+      <c r="C157" s="17" t="s">
         <v>3550</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A158" s="18" t="s">
+      <c r="A158" s="17" t="s">
         <v>3517</v>
       </c>
-      <c r="B158" s="18" t="s">
+      <c r="B158" s="17" t="s">
         <v>3551</v>
       </c>
-      <c r="C158" s="18" t="s">
+      <c r="C158" s="17" t="s">
         <v>3552</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A159" s="18" t="s">
+      <c r="A159" s="17" t="s">
         <v>3518</v>
       </c>
-      <c r="B159" s="18" t="s">
+      <c r="B159" s="17" t="s">
         <v>3553</v>
       </c>
-      <c r="C159" s="18"/>
+      <c r="C159" s="17"/>
     </row>
     <row r="160" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A160" s="18" t="s">
+      <c r="A160" s="17" t="s">
         <v>3519</v>
       </c>
-      <c r="B160" s="18" t="s">
+      <c r="B160" s="17" t="s">
         <v>3554</v>
       </c>
-      <c r="C160" s="18"/>
+      <c r="C160" s="17"/>
     </row>
     <row r="161" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A161" s="18" t="s">
+      <c r="A161" s="17" t="s">
         <v>3520</v>
       </c>
-      <c r="B161" s="18" t="s">
+      <c r="B161" s="17" t="s">
         <v>3555</v>
       </c>
-      <c r="C161" s="18" t="s">
+      <c r="C161" s="17" t="s">
         <v>3556</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A162" s="18" t="s">
+      <c r="A162" s="17" t="s">
         <v>3521</v>
       </c>
-      <c r="B162" s="18" t="s">
+      <c r="B162" s="17" t="s">
         <v>3557</v>
       </c>
-      <c r="C162" s="18" t="s">
+      <c r="C162" s="17" t="s">
         <v>3558</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A163" s="18" t="s">
+      <c r="A163" s="17" t="s">
         <v>3522</v>
       </c>
-      <c r="B163" s="18" t="s">
+      <c r="B163" s="17" t="s">
         <v>3559</v>
       </c>
-      <c r="C163" s="18" t="s">
+      <c r="C163" s="17" t="s">
         <v>3560</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A164" s="18" t="s">
+      <c r="A164" s="17" t="s">
         <v>3523</v>
       </c>
-      <c r="B164" s="18" t="s">
+      <c r="B164" s="17" t="s">
         <v>3561</v>
       </c>
-      <c r="C164" s="18" t="s">
+      <c r="C164" s="17" t="s">
         <v>3562</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A165" s="18" t="s">
+      <c r="A165" s="17" t="s">
         <v>3524</v>
       </c>
-      <c r="B165" s="18" t="s">
+      <c r="B165" s="17" t="s">
         <v>3563</v>
       </c>
-      <c r="C165" s="18" t="s">
+      <c r="C165" s="17" t="s">
         <v>3564</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A166" s="18" t="s">
+      <c r="A166" s="17" t="s">
         <v>3525</v>
       </c>
-      <c r="B166" s="18" t="s">
+      <c r="B166" s="17" t="s">
         <v>3565</v>
       </c>
-      <c r="C166" s="18" t="s">
+      <c r="C166" s="17" t="s">
         <v>3566</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A167" s="16" t="s">
+      <c r="A167" s="18" t="s">
         <v>5022</v>
       </c>
-      <c r="B167" s="16"/>
-      <c r="C167" s="16"/>
+      <c r="B167" s="18"/>
+      <c r="C167" s="18"/>
     </row>
     <row r="168" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A168" s="17" t="s">
+      <c r="A168" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B168" s="17" t="s">
+      <c r="B168" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C168" s="17" t="s">
+      <c r="C168" s="16" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A169" s="18" t="s">
+      <c r="A169" s="17" t="s">
         <v>3567</v>
       </c>
-      <c r="B169" s="18" t="s">
+      <c r="B169" s="17" t="s">
         <v>3605</v>
       </c>
-      <c r="C169" s="18" t="s">
+      <c r="C169" s="17" t="s">
         <v>3606</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A170" s="18" t="s">
+      <c r="A170" s="17" t="s">
         <v>3568</v>
       </c>
-      <c r="B170" s="18" t="s">
+      <c r="B170" s="17" t="s">
         <v>3607</v>
       </c>
-      <c r="C170" s="18" t="s">
+      <c r="C170" s="17" t="s">
         <v>3608</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A171" s="18" t="s">
+      <c r="A171" s="17" t="s">
         <v>3569</v>
       </c>
-      <c r="B171" s="18" t="s">
+      <c r="B171" s="17" t="s">
         <v>3609</v>
       </c>
-      <c r="C171" s="18" t="s">
+      <c r="C171" s="17" t="s">
         <v>3610</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A172" s="18" t="s">
+      <c r="A172" s="17" t="s">
         <v>3570</v>
       </c>
-      <c r="B172" s="18" t="s">
+      <c r="B172" s="17" t="s">
         <v>3611</v>
       </c>
-      <c r="C172" s="18" t="s">
+      <c r="C172" s="17" t="s">
         <v>3612</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A173" s="18" t="s">
+      <c r="A173" s="17" t="s">
         <v>3571</v>
       </c>
-      <c r="B173" s="18" t="s">
+      <c r="B173" s="17" t="s">
         <v>3613</v>
       </c>
-      <c r="C173" s="18" t="s">
+      <c r="C173" s="17" t="s">
         <v>3614</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A174" s="18" t="s">
+      <c r="A174" s="17" t="s">
         <v>3572</v>
       </c>
-      <c r="B174" s="18" t="s">
+      <c r="B174" s="17" t="s">
         <v>3615</v>
       </c>
-      <c r="C174" s="18" t="s">
+      <c r="C174" s="17" t="s">
         <v>3616</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A175" s="18" t="s">
+      <c r="A175" s="17" t="s">
         <v>3573</v>
       </c>
-      <c r="B175" s="18" t="s">
+      <c r="B175" s="17" t="s">
         <v>3617</v>
       </c>
-      <c r="C175" s="18" t="s">
+      <c r="C175" s="17" t="s">
         <v>3618</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A176" s="18" t="s">
+      <c r="A176" s="17" t="s">
         <v>3574</v>
       </c>
-      <c r="B176" s="18" t="s">
+      <c r="B176" s="17" t="s">
         <v>3619</v>
       </c>
-      <c r="C176" s="18" t="s">
+      <c r="C176" s="17" t="s">
         <v>3620</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A177" s="18" t="s">
+      <c r="A177" s="17" t="s">
         <v>3575</v>
       </c>
-      <c r="B177" s="18" t="s">
+      <c r="B177" s="17" t="s">
         <v>3621</v>
       </c>
-      <c r="C177" s="18" t="s">
+      <c r="C177" s="17" t="s">
         <v>3622</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A178" s="18" t="s">
+      <c r="A178" s="17" t="s">
         <v>3576</v>
       </c>
-      <c r="B178" s="18" t="s">
+      <c r="B178" s="17" t="s">
         <v>3623</v>
       </c>
-      <c r="C178" s="18" t="s">
+      <c r="C178" s="17" t="s">
         <v>3624</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A179" s="18" t="s">
+      <c r="A179" s="17" t="s">
         <v>3577</v>
       </c>
-      <c r="B179" s="18" t="s">
+      <c r="B179" s="17" t="s">
         <v>3625</v>
       </c>
-      <c r="C179" s="18" t="s">
+      <c r="C179" s="17" t="s">
         <v>3626</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A180" s="18" t="s">
+      <c r="A180" s="17" t="s">
         <v>3578</v>
       </c>
-      <c r="B180" s="18" t="s">
+      <c r="B180" s="17" t="s">
         <v>3627</v>
       </c>
-      <c r="C180" s="18" t="s">
+      <c r="C180" s="17" t="s">
         <v>3628</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A181" s="18" t="s">
+      <c r="A181" s="17" t="s">
         <v>3579</v>
       </c>
-      <c r="B181" s="18" t="s">
+      <c r="B181" s="17" t="s">
         <v>3629</v>
       </c>
-      <c r="C181" s="18" t="s">
+      <c r="C181" s="17" t="s">
         <v>3630</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A182" s="18" t="s">
+      <c r="A182" s="17" t="s">
         <v>3580</v>
       </c>
-      <c r="B182" s="18" t="s">
+      <c r="B182" s="17" t="s">
         <v>3631</v>
       </c>
-      <c r="C182" s="18" t="s">
+      <c r="C182" s="17" t="s">
         <v>3632</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A183" s="18" t="s">
+      <c r="A183" s="17" t="s">
         <v>3581</v>
       </c>
-      <c r="B183" s="18" t="s">
+      <c r="B183" s="17" t="s">
         <v>3633</v>
       </c>
-      <c r="C183" s="18" t="s">
+      <c r="C183" s="17" t="s">
         <v>3634</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A184" s="18" t="s">
+      <c r="A184" s="17" t="s">
         <v>3582</v>
       </c>
-      <c r="B184" s="18" t="s">
+      <c r="B184" s="17" t="s">
         <v>3635</v>
       </c>
-      <c r="C184" s="18" t="s">
+      <c r="C184" s="17" t="s">
         <v>3636</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A185" s="18" t="s">
+      <c r="A185" s="17" t="s">
         <v>3583</v>
       </c>
-      <c r="B185" s="18" t="s">
+      <c r="B185" s="17" t="s">
         <v>3637</v>
       </c>
-      <c r="C185" s="18" t="s">
+      <c r="C185" s="17" t="s">
         <v>3638</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A186" s="18" t="s">
+      <c r="A186" s="17" t="s">
         <v>3584</v>
       </c>
-      <c r="B186" s="18" t="s">
+      <c r="B186" s="17" t="s">
         <v>3639</v>
       </c>
-      <c r="C186" s="18" t="s">
+      <c r="C186" s="17" t="s">
         <v>3640</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A187" s="18" t="s">
+      <c r="A187" s="17" t="s">
         <v>3585</v>
       </c>
-      <c r="B187" s="18" t="s">
+      <c r="B187" s="17" t="s">
         <v>3641</v>
       </c>
-      <c r="C187" s="18" t="s">
+      <c r="C187" s="17" t="s">
         <v>3642</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A188" s="18" t="s">
+      <c r="A188" s="17" t="s">
         <v>3586</v>
       </c>
-      <c r="B188" s="18" t="s">
+      <c r="B188" s="17" t="s">
         <v>3643</v>
       </c>
-      <c r="C188" s="18" t="s">
+      <c r="C188" s="17" t="s">
         <v>3644</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A189" s="18" t="s">
+      <c r="A189" s="17" t="s">
         <v>3587</v>
       </c>
-      <c r="B189" s="18" t="s">
+      <c r="B189" s="17" t="s">
         <v>3645</v>
       </c>
-      <c r="C189" s="18" t="s">
+      <c r="C189" s="17" t="s">
         <v>3646</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A190" s="18" t="s">
+      <c r="A190" s="17" t="s">
         <v>3588</v>
       </c>
-      <c r="B190" s="18" t="s">
+      <c r="B190" s="17" t="s">
         <v>3647</v>
       </c>
-      <c r="C190" s="18" t="s">
+      <c r="C190" s="17" t="s">
         <v>3648</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A191" s="18" t="s">
+      <c r="A191" s="17" t="s">
         <v>3589</v>
       </c>
-      <c r="B191" s="18" t="s">
+      <c r="B191" s="17" t="s">
         <v>3649</v>
       </c>
-      <c r="C191" s="18" t="s">
+      <c r="C191" s="17" t="s">
         <v>3650</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A192" s="18" t="s">
+      <c r="A192" s="17" t="s">
         <v>3590</v>
       </c>
-      <c r="B192" s="18" t="s">
+      <c r="B192" s="17" t="s">
         <v>3651</v>
       </c>
-      <c r="C192" s="18" t="s">
+      <c r="C192" s="17" t="s">
         <v>3652</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A193" s="18" t="s">
+      <c r="A193" s="17" t="s">
         <v>3591</v>
       </c>
-      <c r="B193" s="18" t="s">
+      <c r="B193" s="17" t="s">
         <v>3653</v>
       </c>
-      <c r="C193" s="18" t="s">
+      <c r="C193" s="17" t="s">
         <v>3654</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A194" s="18" t="s">
+      <c r="A194" s="17" t="s">
         <v>3592</v>
       </c>
-      <c r="B194" s="18" t="s">
+      <c r="B194" s="17" t="s">
         <v>3655</v>
       </c>
-      <c r="C194" s="18" t="s">
+      <c r="C194" s="17" t="s">
         <v>3656</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A195" s="18" t="s">
+      <c r="A195" s="17" t="s">
         <v>3593</v>
       </c>
-      <c r="B195" s="18" t="s">
+      <c r="B195" s="17" t="s">
         <v>3657</v>
       </c>
-      <c r="C195" s="18" t="s">
+      <c r="C195" s="17" t="s">
         <v>3658</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A196" s="18" t="s">
+      <c r="A196" s="17" t="s">
         <v>3594</v>
       </c>
-      <c r="B196" s="18" t="s">
+      <c r="B196" s="17" t="s">
         <v>3659</v>
       </c>
-      <c r="C196" s="18" t="s">
+      <c r="C196" s="17" t="s">
         <v>3660</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A197" s="18" t="s">
+      <c r="A197" s="17" t="s">
         <v>3595</v>
       </c>
-      <c r="B197" s="18" t="s">
+      <c r="B197" s="17" t="s">
         <v>3661</v>
       </c>
-      <c r="C197" s="18" t="s">
+      <c r="C197" s="17" t="s">
         <v>3662</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A198" s="18" t="s">
+      <c r="A198" s="17" t="s">
         <v>3596</v>
       </c>
-      <c r="B198" s="18" t="s">
+      <c r="B198" s="17" t="s">
         <v>3663</v>
       </c>
-      <c r="C198" s="18" t="s">
+      <c r="C198" s="17" t="s">
         <v>3664</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A199" s="18" t="s">
+      <c r="A199" s="17" t="s">
         <v>3597</v>
       </c>
-      <c r="B199" s="18" t="s">
+      <c r="B199" s="17" t="s">
         <v>3665</v>
       </c>
-      <c r="C199" s="18" t="s">
+      <c r="C199" s="17" t="s">
         <v>3666</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A200" s="18" t="s">
+      <c r="A200" s="17" t="s">
         <v>3598</v>
       </c>
-      <c r="B200" s="18" t="s">
+      <c r="B200" s="17" t="s">
         <v>3667</v>
       </c>
-      <c r="C200" s="18" t="s">
+      <c r="C200" s="17" t="s">
         <v>3668</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A201" s="18" t="s">
+      <c r="A201" s="17" t="s">
         <v>3599</v>
       </c>
-      <c r="B201" s="18" t="s">
+      <c r="B201" s="17" t="s">
         <v>3669</v>
       </c>
-      <c r="C201" s="18" t="s">
+      <c r="C201" s="17" t="s">
         <v>3670</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A202" s="18" t="s">
+      <c r="A202" s="17" t="s">
         <v>3600</v>
       </c>
-      <c r="B202" s="18" t="s">
+      <c r="B202" s="17" t="s">
         <v>3671</v>
       </c>
-      <c r="C202" s="18"/>
+      <c r="C202" s="17"/>
     </row>
     <row r="203" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A203" s="18" t="s">
+      <c r="A203" s="17" t="s">
         <v>3601</v>
       </c>
-      <c r="B203" s="18" t="s">
+      <c r="B203" s="17" t="s">
         <v>3672</v>
       </c>
-      <c r="C203" s="18"/>
+      <c r="C203" s="17"/>
     </row>
     <row r="204" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A204" s="18" t="s">
+      <c r="A204" s="17" t="s">
         <v>3602</v>
       </c>
-      <c r="B204" s="18" t="s">
+      <c r="B204" s="17" t="s">
         <v>3673</v>
       </c>
-      <c r="C204" s="18" t="s">
+      <c r="C204" s="17" t="s">
         <v>3674</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A205" s="18" t="s">
+      <c r="A205" s="17" t="s">
         <v>3603</v>
       </c>
-      <c r="B205" s="18" t="s">
+      <c r="B205" s="17" t="s">
         <v>3675</v>
       </c>
-      <c r="C205" s="18" t="s">
+      <c r="C205" s="17" t="s">
         <v>3676</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A206" s="18" t="s">
+      <c r="A206" s="17" t="s">
         <v>3604</v>
       </c>
-      <c r="B206" s="18" t="s">
+      <c r="B206" s="17" t="s">
         <v>3677</v>
       </c>
-      <c r="C206" s="18" t="s">
+      <c r="C206" s="17" t="s">
         <v>3678</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A207" s="16" t="s">
+      <c r="A207" s="18" t="s">
         <v>5023</v>
       </c>
-      <c r="B207" s="16"/>
-      <c r="C207" s="16"/>
+      <c r="B207" s="18"/>
+      <c r="C207" s="18"/>
     </row>
     <row r="208" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A208" s="17" t="s">
+      <c r="A208" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B208" s="17" t="s">
+      <c r="B208" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C208" s="17" t="s">
+      <c r="C208" s="16" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A209" s="18" t="s">
+      <c r="A209" s="17" t="s">
         <v>3679</v>
       </c>
-      <c r="B209" s="18" t="s">
+      <c r="B209" s="17" t="s">
         <v>3737</v>
       </c>
-      <c r="C209" s="18" t="s">
+      <c r="C209" s="17" t="s">
         <v>3738</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A210" s="18" t="s">
+      <c r="A210" s="17" t="s">
         <v>3680</v>
       </c>
-      <c r="B210" s="18" t="s">
+      <c r="B210" s="17" t="s">
         <v>3739</v>
       </c>
-      <c r="C210" s="18" t="s">
+      <c r="C210" s="17" t="s">
         <v>3740</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A211" s="18" t="s">
+      <c r="A211" s="17" t="s">
         <v>3681</v>
       </c>
-      <c r="B211" s="18" t="s">
+      <c r="B211" s="17" t="s">
         <v>3741</v>
       </c>
-      <c r="C211" s="18" t="s">
+      <c r="C211" s="17" t="s">
         <v>3742</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A212" s="18" t="s">
+      <c r="A212" s="17" t="s">
         <v>3682</v>
       </c>
-      <c r="B212" s="18" t="s">
+      <c r="B212" s="17" t="s">
         <v>3743</v>
       </c>
-      <c r="C212" s="18" t="s">
+      <c r="C212" s="17" t="s">
         <v>3744</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A213" s="18" t="s">
+      <c r="A213" s="17" t="s">
         <v>3683</v>
       </c>
-      <c r="B213" s="18" t="s">
+      <c r="B213" s="17" t="s">
         <v>3745</v>
       </c>
-      <c r="C213" s="18" t="s">
+      <c r="C213" s="17" t="s">
         <v>3746</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A214" s="18" t="s">
+      <c r="A214" s="17" t="s">
         <v>3684</v>
       </c>
-      <c r="B214" s="18" t="s">
+      <c r="B214" s="17" t="s">
         <v>3747</v>
       </c>
-      <c r="C214" s="18" t="s">
+      <c r="C214" s="17" t="s">
         <v>3748</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A215" s="18" t="s">
+      <c r="A215" s="17" t="s">
         <v>3685</v>
       </c>
-      <c r="B215" s="18" t="s">
+      <c r="B215" s="17" t="s">
         <v>3749</v>
       </c>
-      <c r="C215" s="18" t="s">
+      <c r="C215" s="17" t="s">
         <v>3750</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A216" s="18" t="s">
+      <c r="A216" s="17" t="s">
         <v>3686</v>
       </c>
-      <c r="B216" s="18" t="s">
+      <c r="B216" s="17" t="s">
         <v>3751</v>
       </c>
-      <c r="C216" s="18" t="s">
+      <c r="C216" s="17" t="s">
         <v>3752</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A217" s="18" t="s">
+      <c r="A217" s="17" t="s">
         <v>3687</v>
       </c>
-      <c r="B217" s="18" t="s">
+      <c r="B217" s="17" t="s">
         <v>3753</v>
       </c>
-      <c r="C217" s="18" t="s">
+      <c r="C217" s="17" t="s">
         <v>3754</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A218" s="18" t="s">
+      <c r="A218" s="17" t="s">
         <v>3688</v>
       </c>
-      <c r="B218" s="18" t="s">
+      <c r="B218" s="17" t="s">
         <v>3755</v>
       </c>
-      <c r="C218" s="18" t="s">
+      <c r="C218" s="17" t="s">
         <v>3756</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A219" s="18" t="s">
+      <c r="A219" s="17" t="s">
         <v>3689</v>
       </c>
-      <c r="B219" s="18" t="s">
+      <c r="B219" s="17" t="s">
         <v>3757</v>
       </c>
-      <c r="C219" s="18" t="s">
+      <c r="C219" s="17" t="s">
         <v>3758</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A220" s="18" t="s">
+      <c r="A220" s="17" t="s">
         <v>3690</v>
       </c>
-      <c r="B220" s="18" t="s">
+      <c r="B220" s="17" t="s">
         <v>3759</v>
       </c>
-      <c r="C220" s="18" t="s">
+      <c r="C220" s="17" t="s">
         <v>3760</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A221" s="18" t="s">
+      <c r="A221" s="17" t="s">
         <v>3691</v>
       </c>
-      <c r="B221" s="18" t="s">
+      <c r="B221" s="17" t="s">
         <v>3761</v>
       </c>
-      <c r="C221" s="18" t="s">
+      <c r="C221" s="17" t="s">
         <v>3762</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A222" s="18" t="s">
+      <c r="A222" s="17" t="s">
         <v>3692</v>
       </c>
-      <c r="B222" s="18" t="s">
+      <c r="B222" s="17" t="s">
         <v>3763</v>
       </c>
-      <c r="C222" s="18"/>
+      <c r="C222" s="17"/>
     </row>
     <row r="223" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A223" s="18" t="s">
+      <c r="A223" s="17" t="s">
         <v>3693</v>
       </c>
-      <c r="B223" s="18" t="s">
+      <c r="B223" s="17" t="s">
         <v>3764</v>
       </c>
-      <c r="C223" s="18" t="s">
+      <c r="C223" s="17" t="s">
         <v>3765</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A224" s="18" t="s">
+      <c r="A224" s="17" t="s">
         <v>3694</v>
       </c>
-      <c r="B224" s="18" t="s">
+      <c r="B224" s="17" t="s">
         <v>3766</v>
       </c>
-      <c r="C224" s="18" t="s">
+      <c r="C224" s="17" t="s">
         <v>3767</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A225" s="18" t="s">
+      <c r="A225" s="17" t="s">
         <v>3695</v>
       </c>
-      <c r="B225" s="18" t="s">
+      <c r="B225" s="17" t="s">
         <v>3768</v>
       </c>
-      <c r="C225" s="18" t="s">
+      <c r="C225" s="17" t="s">
         <v>3769</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A226" s="18" t="s">
+      <c r="A226" s="17" t="s">
         <v>3696</v>
       </c>
-      <c r="B226" s="18" t="s">
+      <c r="B226" s="17" t="s">
         <v>3770</v>
       </c>
-      <c r="C226" s="18"/>
+      <c r="C226" s="17"/>
     </row>
     <row r="227" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A227" s="18" t="s">
+      <c r="A227" s="17" t="s">
         <v>3697</v>
       </c>
-      <c r="B227" s="18" t="s">
+      <c r="B227" s="17" t="s">
         <v>3771</v>
       </c>
-      <c r="C227" s="18" t="s">
+      <c r="C227" s="17" t="s">
         <v>3772</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A228" s="18" t="s">
+      <c r="A228" s="17" t="s">
         <v>3698</v>
       </c>
-      <c r="B228" s="18" t="s">
+      <c r="B228" s="17" t="s">
         <v>3773</v>
       </c>
-      <c r="C228" s="18" t="s">
+      <c r="C228" s="17" t="s">
         <v>3774</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A229" s="18" t="s">
+      <c r="A229" s="17" t="s">
         <v>3699</v>
       </c>
-      <c r="B229" s="18" t="s">
+      <c r="B229" s="17" t="s">
         <v>3775</v>
       </c>
-      <c r="C229" s="18" t="s">
+      <c r="C229" s="17" t="s">
         <v>3776</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A230" s="18" t="s">
+      <c r="A230" s="17" t="s">
         <v>3700</v>
       </c>
-      <c r="B230" s="18" t="s">
+      <c r="B230" s="17" t="s">
         <v>3777</v>
       </c>
-      <c r="C230" s="18" t="s">
+      <c r="C230" s="17" t="s">
         <v>3778</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A231" s="18" t="s">
+      <c r="A231" s="17" t="s">
         <v>3701</v>
       </c>
-      <c r="B231" s="18" t="s">
+      <c r="B231" s="17" t="s">
         <v>3779</v>
       </c>
-      <c r="C231" s="18" t="s">
+      <c r="C231" s="17" t="s">
         <v>3780</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A232" s="18" t="s">
+      <c r="A232" s="17" t="s">
         <v>3702</v>
       </c>
-      <c r="B232" s="18" t="s">
+      <c r="B232" s="17" t="s">
         <v>3781</v>
       </c>
-      <c r="C232" s="18" t="s">
+      <c r="C232" s="17" t="s">
         <v>3782</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A233" s="18" t="s">
+      <c r="A233" s="17" t="s">
         <v>3703</v>
       </c>
-      <c r="B233" s="18" t="s">
+      <c r="B233" s="17" t="s">
         <v>3783</v>
       </c>
-      <c r="C233" s="18" t="s">
+      <c r="C233" s="17" t="s">
         <v>3784</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A234" s="18" t="s">
+      <c r="A234" s="17" t="s">
         <v>3704</v>
       </c>
-      <c r="B234" s="18" t="s">
+      <c r="B234" s="17" t="s">
         <v>3785</v>
       </c>
-      <c r="C234" s="18" t="s">
+      <c r="C234" s="17" t="s">
         <v>3786</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A235" s="18" t="s">
+      <c r="A235" s="17" t="s">
         <v>3705</v>
       </c>
-      <c r="B235" s="18" t="s">
+      <c r="B235" s="17" t="s">
         <v>3787</v>
       </c>
-      <c r="C235" s="18" t="s">
+      <c r="C235" s="17" t="s">
         <v>3788</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A236" s="18" t="s">
+      <c r="A236" s="17" t="s">
         <v>3706</v>
       </c>
-      <c r="B236" s="18" t="s">
+      <c r="B236" s="17" t="s">
         <v>3789</v>
       </c>
-      <c r="C236" s="18" t="s">
+      <c r="C236" s="17" t="s">
         <v>3790</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A237" s="18" t="s">
+      <c r="A237" s="17" t="s">
         <v>3707</v>
       </c>
-      <c r="B237" s="18" t="s">
+      <c r="B237" s="17" t="s">
         <v>3791</v>
       </c>
-      <c r="C237" s="18" t="s">
+      <c r="C237" s="17" t="s">
         <v>3792</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A238" s="18" t="s">
+      <c r="A238" s="17" t="s">
         <v>3708</v>
       </c>
-      <c r="B238" s="18" t="s">
+      <c r="B238" s="17" t="s">
         <v>3793</v>
       </c>
-      <c r="C238" s="18" t="s">
+      <c r="C238" s="17" t="s">
         <v>3794</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A239" s="18" t="s">
+      <c r="A239" s="17" t="s">
         <v>3709</v>
       </c>
-      <c r="B239" s="18" t="s">
+      <c r="B239" s="17" t="s">
         <v>3795</v>
       </c>
-      <c r="C239" s="18" t="s">
+      <c r="C239" s="17" t="s">
         <v>3796</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A240" s="18" t="s">
+      <c r="A240" s="17" t="s">
         <v>3710</v>
       </c>
-      <c r="B240" s="18" t="s">
+      <c r="B240" s="17" t="s">
         <v>3797</v>
       </c>
-      <c r="C240" s="18" t="s">
+      <c r="C240" s="17" t="s">
         <v>3798</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A241" s="18" t="s">
+      <c r="A241" s="17" t="s">
         <v>3711</v>
       </c>
-      <c r="B241" s="18" t="s">
+      <c r="B241" s="17" t="s">
         <v>3799</v>
       </c>
-      <c r="C241" s="18" t="s">
+      <c r="C241" s="17" t="s">
         <v>3800</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A242" s="18" t="s">
+      <c r="A242" s="17" t="s">
         <v>3712</v>
       </c>
-      <c r="B242" s="18" t="s">
+      <c r="B242" s="17" t="s">
         <v>3801</v>
       </c>
-      <c r="C242" s="18" t="s">
+      <c r="C242" s="17" t="s">
         <v>3802</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A243" s="18" t="s">
+      <c r="A243" s="17" t="s">
         <v>3713</v>
       </c>
-      <c r="B243" s="18" t="s">
+      <c r="B243" s="17" t="s">
         <v>3803</v>
       </c>
-      <c r="C243" s="18" t="s">
+      <c r="C243" s="17" t="s">
         <v>3804</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A244" s="18" t="s">
+      <c r="A244" s="17" t="s">
         <v>3714</v>
       </c>
-      <c r="B244" s="18" t="s">
+      <c r="B244" s="17" t="s">
         <v>3805</v>
       </c>
-      <c r="C244" s="18" t="s">
+      <c r="C244" s="17" t="s">
         <v>3806</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A245" s="18" t="s">
+      <c r="A245" s="17" t="s">
         <v>3715</v>
       </c>
-      <c r="B245" s="18" t="s">
+      <c r="B245" s="17" t="s">
         <v>3807</v>
       </c>
-      <c r="C245" s="18" t="s">
+      <c r="C245" s="17" t="s">
         <v>3808</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A246" s="18" t="s">
+      <c r="A246" s="17" t="s">
         <v>3716</v>
       </c>
-      <c r="B246" s="18" t="s">
+      <c r="B246" s="17" t="s">
         <v>3809</v>
       </c>
-      <c r="C246" s="18" t="s">
+      <c r="C246" s="17" t="s">
         <v>3810</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A247" s="18" t="s">
+      <c r="A247" s="17" t="s">
         <v>3717</v>
       </c>
-      <c r="B247" s="18" t="s">
+      <c r="B247" s="17" t="s">
         <v>3811</v>
       </c>
-      <c r="C247" s="18" t="s">
+      <c r="C247" s="17" t="s">
         <v>3812</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A248" s="18" t="s">
+      <c r="A248" s="17" t="s">
         <v>3718</v>
       </c>
-      <c r="B248" s="18" t="s">
+      <c r="B248" s="17" t="s">
         <v>3813</v>
       </c>
-      <c r="C248" s="18" t="s">
+      <c r="C248" s="17" t="s">
         <v>3814</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A249" s="18" t="s">
+      <c r="A249" s="17" t="s">
         <v>3719</v>
       </c>
-      <c r="B249" s="18" t="s">
+      <c r="B249" s="17" t="s">
         <v>3815</v>
       </c>
-      <c r="C249" s="18" t="s">
+      <c r="C249" s="17" t="s">
         <v>3816</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A250" s="18" t="s">
+      <c r="A250" s="17" t="s">
         <v>3720</v>
       </c>
-      <c r="B250" s="18" t="s">
+      <c r="B250" s="17" t="s">
         <v>3817</v>
       </c>
-      <c r="C250" s="18" t="s">
+      <c r="C250" s="17" t="s">
         <v>3818</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A251" s="18" t="s">
+      <c r="A251" s="17" t="s">
         <v>3721</v>
       </c>
-      <c r="B251" s="18" t="s">
+      <c r="B251" s="17" t="s">
         <v>3819</v>
       </c>
-      <c r="C251" s="18" t="s">
+      <c r="C251" s="17" t="s">
         <v>3820</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A252" s="18" t="s">
+      <c r="A252" s="17" t="s">
         <v>3722</v>
       </c>
-      <c r="B252" s="18" t="s">
+      <c r="B252" s="17" t="s">
         <v>3821</v>
       </c>
-      <c r="C252" s="18" t="s">
+      <c r="C252" s="17" t="s">
         <v>3822</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A253" s="18" t="s">
+      <c r="A253" s="17" t="s">
         <v>3723</v>
       </c>
-      <c r="B253" s="18" t="s">
+      <c r="B253" s="17" t="s">
         <v>3823</v>
       </c>
-      <c r="C253" s="18" t="s">
+      <c r="C253" s="17" t="s">
         <v>3824</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A254" s="18" t="s">
+      <c r="A254" s="17" t="s">
         <v>3724</v>
       </c>
-      <c r="B254" s="18" t="s">
+      <c r="B254" s="17" t="s">
         <v>3825</v>
       </c>
-      <c r="C254" s="18" t="s">
+      <c r="C254" s="17" t="s">
         <v>3826</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A255" s="18" t="s">
+      <c r="A255" s="17" t="s">
         <v>3725</v>
       </c>
-      <c r="B255" s="18" t="s">
+      <c r="B255" s="17" t="s">
         <v>3827</v>
       </c>
-      <c r="C255" s="18" t="s">
+      <c r="C255" s="17" t="s">
         <v>3828</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A256" s="18" t="s">
+      <c r="A256" s="17" t="s">
         <v>3726</v>
       </c>
-      <c r="B256" s="18" t="s">
+      <c r="B256" s="17" t="s">
         <v>3829</v>
       </c>
-      <c r="C256" s="18" t="s">
+      <c r="C256" s="17" t="s">
         <v>3830</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A257" s="18" t="s">
+      <c r="A257" s="17" t="s">
         <v>3727</v>
       </c>
-      <c r="B257" s="18" t="s">
+      <c r="B257" s="17" t="s">
         <v>3831</v>
       </c>
-      <c r="C257" s="18" t="s">
+      <c r="C257" s="17" t="s">
         <v>3832</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A258" s="18" t="s">
+      <c r="A258" s="17" t="s">
         <v>3728</v>
       </c>
-      <c r="B258" s="18" t="s">
+      <c r="B258" s="17" t="s">
         <v>3833</v>
       </c>
-      <c r="C258" s="18" t="s">
+      <c r="C258" s="17" t="s">
         <v>3834</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A259" s="18" t="s">
+      <c r="A259" s="17" t="s">
         <v>3729</v>
       </c>
-      <c r="B259" s="18" t="s">
+      <c r="B259" s="17" t="s">
         <v>3835</v>
       </c>
-      <c r="C259" s="18" t="s">
+      <c r="C259" s="17" t="s">
         <v>3836</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A260" s="18" t="s">
+      <c r="A260" s="17" t="s">
         <v>3730</v>
       </c>
-      <c r="B260" s="18" t="s">
+      <c r="B260" s="17" t="s">
         <v>3837</v>
       </c>
-      <c r="C260" s="18" t="s">
+      <c r="C260" s="17" t="s">
         <v>3838</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A261" s="18" t="s">
+      <c r="A261" s="17" t="s">
         <v>3731</v>
       </c>
-      <c r="B261" s="18" t="s">
+      <c r="B261" s="17" t="s">
         <v>3839</v>
       </c>
-      <c r="C261" s="18" t="s">
+      <c r="C261" s="17" t="s">
         <v>3840</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A262" s="18" t="s">
+      <c r="A262" s="17" t="s">
         <v>3732</v>
       </c>
-      <c r="B262" s="18" t="s">
+      <c r="B262" s="17" t="s">
         <v>3841</v>
       </c>
-      <c r="C262" s="18" t="s">
+      <c r="C262" s="17" t="s">
         <v>3842</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A263" s="18" t="s">
+      <c r="A263" s="17" t="s">
         <v>3733</v>
       </c>
-      <c r="B263" s="18" t="s">
+      <c r="B263" s="17" t="s">
         <v>3843</v>
       </c>
-      <c r="C263" s="18" t="s">
+      <c r="C263" s="17" t="s">
         <v>3844</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A264" s="18" t="s">
+      <c r="A264" s="17" t="s">
         <v>3734</v>
       </c>
-      <c r="B264" s="18" t="s">
+      <c r="B264" s="17" t="s">
         <v>3845</v>
       </c>
-      <c r="C264" s="18" t="s">
+      <c r="C264" s="17" t="s">
         <v>3846</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A265" s="18" t="s">
+      <c r="A265" s="17" t="s">
         <v>3735</v>
       </c>
-      <c r="B265" s="18" t="s">
+      <c r="B265" s="17" t="s">
         <v>3847</v>
       </c>
-      <c r="C265" s="18" t="s">
+      <c r="C265" s="17" t="s">
         <v>3848</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A266" s="18" t="s">
+      <c r="A266" s="17" t="s">
         <v>3736</v>
       </c>
-      <c r="B266" s="18" t="s">
+      <c r="B266" s="17" t="s">
         <v>3849</v>
       </c>
-      <c r="C266" s="18" t="s">
+      <c r="C266" s="17" t="s">
         <v>3850</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A267" s="16" t="s">
+      <c r="A267" s="18" t="s">
         <v>5024</v>
       </c>
-      <c r="B267" s="16"/>
-      <c r="C267" s="16"/>
+      <c r="B267" s="18"/>
+      <c r="C267" s="18"/>
     </row>
     <row r="268" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A268" s="17" t="s">
+      <c r="A268" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B268" s="17" t="s">
+      <c r="B268" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C268" s="17" t="s">
+      <c r="C268" s="16" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A269" s="18" t="s">
+      <c r="A269" s="17" t="s">
         <v>3851</v>
       </c>
-      <c r="B269" s="18" t="s">
+      <c r="B269" s="17" t="s">
         <v>3911</v>
       </c>
-      <c r="C269" s="18" t="s">
+      <c r="C269" s="17" t="s">
         <v>3912</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A270" s="18" t="s">
+      <c r="A270" s="17" t="s">
         <v>3852</v>
       </c>
-      <c r="B270" s="18" t="s">
+      <c r="B270" s="17" t="s">
         <v>3913</v>
       </c>
-      <c r="C270" s="18" t="s">
+      <c r="C270" s="17" t="s">
         <v>3914</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A271" s="18" t="s">
+      <c r="A271" s="17" t="s">
         <v>3853</v>
       </c>
-      <c r="B271" s="18" t="s">
+      <c r="B271" s="17" t="s">
         <v>3915</v>
       </c>
-      <c r="C271" s="18" t="s">
+      <c r="C271" s="17" t="s">
         <v>3916</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A272" s="18" t="s">
+      <c r="A272" s="17" t="s">
         <v>3854</v>
       </c>
-      <c r="B272" s="18" t="s">
+      <c r="B272" s="17" t="s">
         <v>3917</v>
       </c>
-      <c r="C272" s="18" t="s">
+      <c r="C272" s="17" t="s">
         <v>3918</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A273" s="18" t="s">
+      <c r="A273" s="17" t="s">
         <v>3855</v>
       </c>
-      <c r="B273" s="18" t="s">
+      <c r="B273" s="17" t="s">
         <v>3919</v>
       </c>
-      <c r="C273" s="18" t="s">
+      <c r="C273" s="17" t="s">
         <v>3920</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A274" s="18" t="s">
+      <c r="A274" s="17" t="s">
         <v>3856</v>
       </c>
-      <c r="B274" s="18" t="s">
+      <c r="B274" s="17" t="s">
         <v>3921</v>
       </c>
-      <c r="C274" s="18" t="s">
+      <c r="C274" s="17" t="s">
         <v>3922</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A275" s="18" t="s">
+      <c r="A275" s="17" t="s">
         <v>3857</v>
       </c>
-      <c r="B275" s="18" t="s">
+      <c r="B275" s="17" t="s">
         <v>3923</v>
       </c>
-      <c r="C275" s="18" t="s">
+      <c r="C275" s="17" t="s">
         <v>3924</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A276" s="18" t="s">
+      <c r="A276" s="17" t="s">
         <v>3858</v>
       </c>
-      <c r="B276" s="18" t="s">
+      <c r="B276" s="17" t="s">
         <v>3925</v>
       </c>
-      <c r="C276" s="18" t="s">
+      <c r="C276" s="17" t="s">
         <v>3926</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A277" s="18" t="s">
+      <c r="A277" s="17" t="s">
         <v>3859</v>
       </c>
-      <c r="B277" s="18" t="s">
+      <c r="B277" s="17" t="s">
         <v>3927</v>
       </c>
-      <c r="C277" s="18" t="s">
+      <c r="C277" s="17" t="s">
         <v>3928</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A278" s="18" t="s">
+      <c r="A278" s="17" t="s">
         <v>3860</v>
       </c>
-      <c r="B278" s="18" t="s">
+      <c r="B278" s="17" t="s">
         <v>3929</v>
       </c>
-      <c r="C278" s="18" t="s">
+      <c r="C278" s="17" t="s">
         <v>3930</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A279" s="18" t="s">
+      <c r="A279" s="17" t="s">
         <v>3861</v>
       </c>
-      <c r="B279" s="18" t="s">
+      <c r="B279" s="17" t="s">
         <v>3931</v>
       </c>
-      <c r="C279" s="18" t="s">
+      <c r="C279" s="17" t="s">
         <v>3932</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A280" s="18" t="s">
+      <c r="A280" s="17" t="s">
         <v>3862</v>
       </c>
-      <c r="B280" s="18" t="s">
+      <c r="B280" s="17" t="s">
         <v>3933</v>
       </c>
-      <c r="C280" s="18" t="s">
+      <c r="C280" s="17" t="s">
         <v>3934</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A281" s="18" t="s">
+      <c r="A281" s="17" t="s">
         <v>3863</v>
       </c>
-      <c r="B281" s="18" t="s">
+      <c r="B281" s="17" t="s">
         <v>3935</v>
       </c>
-      <c r="C281" s="18" t="s">
+      <c r="C281" s="17" t="s">
         <v>3936</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A282" s="18" t="s">
+      <c r="A282" s="17" t="s">
         <v>3864</v>
       </c>
-      <c r="B282" s="18" t="s">
+      <c r="B282" s="17" t="s">
         <v>3937</v>
       </c>
-      <c r="C282" s="18" t="s">
+      <c r="C282" s="17" t="s">
         <v>3938</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A283" s="18" t="s">
+      <c r="A283" s="17" t="s">
         <v>3865</v>
       </c>
-      <c r="B283" s="18" t="s">
+      <c r="B283" s="17" t="s">
         <v>3939</v>
       </c>
-      <c r="C283" s="18" t="s">
+      <c r="C283" s="17" t="s">
         <v>3940</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A284" s="18" t="s">
+      <c r="A284" s="17" t="s">
         <v>3866</v>
       </c>
-      <c r="B284" s="18" t="s">
+      <c r="B284" s="17" t="s">
         <v>3941</v>
       </c>
-      <c r="C284" s="18" t="s">
+      <c r="C284" s="17" t="s">
         <v>3942</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A285" s="18" t="s">
+      <c r="A285" s="17" t="s">
         <v>3867</v>
       </c>
-      <c r="B285" s="18" t="s">
+      <c r="B285" s="17" t="s">
         <v>3943</v>
       </c>
-      <c r="C285" s="18" t="s">
+      <c r="C285" s="17" t="s">
         <v>3944</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A286" s="18" t="s">
+      <c r="A286" s="17" t="s">
         <v>3868</v>
       </c>
-      <c r="B286" s="18" t="s">
+      <c r="B286" s="17" t="s">
         <v>3945</v>
       </c>
-      <c r="C286" s="18" t="s">
+      <c r="C286" s="17" t="s">
         <v>3946</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A287" s="18" t="s">
+      <c r="A287" s="17" t="s">
         <v>3869</v>
       </c>
-      <c r="B287" s="18" t="s">
+      <c r="B287" s="17" t="s">
         <v>3947</v>
       </c>
-      <c r="C287" s="18" t="s">
+      <c r="C287" s="17" t="s">
         <v>3948</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A288" s="18" t="s">
+      <c r="A288" s="17" t="s">
         <v>3870</v>
       </c>
-      <c r="B288" s="18" t="s">
+      <c r="B288" s="17" t="s">
         <v>3949</v>
       </c>
-      <c r="C288" s="18"/>
+      <c r="C288" s="17"/>
     </row>
     <row r="289" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A289" s="18" t="s">
+      <c r="A289" s="17" t="s">
         <v>3871</v>
       </c>
-      <c r="B289" s="18" t="s">
+      <c r="B289" s="17" t="s">
         <v>3950</v>
       </c>
-      <c r="C289" s="18" t="s">
+      <c r="C289" s="17" t="s">
         <v>3951</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A290" s="18" t="s">
+      <c r="A290" s="17" t="s">
         <v>3872</v>
       </c>
-      <c r="B290" s="18" t="s">
+      <c r="B290" s="17" t="s">
         <v>3952</v>
       </c>
-      <c r="C290" s="18" t="s">
+      <c r="C290" s="17" t="s">
         <v>3953</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A291" s="18" t="s">
+      <c r="A291" s="17" t="s">
         <v>3873</v>
       </c>
-      <c r="B291" s="18" t="s">
+      <c r="B291" s="17" t="s">
         <v>3954</v>
       </c>
-      <c r="C291" s="18"/>
+      <c r="C291" s="17"/>
     </row>
     <row r="292" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A292" s="18" t="s">
+      <c r="A292" s="17" t="s">
         <v>3874</v>
       </c>
-      <c r="B292" s="18" t="s">
+      <c r="B292" s="17" t="s">
         <v>3955</v>
       </c>
-      <c r="C292" s="18"/>
+      <c r="C292" s="17"/>
     </row>
     <row r="293" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A293" s="18" t="s">
+      <c r="A293" s="17" t="s">
         <v>3875</v>
       </c>
-      <c r="B293" s="18" t="s">
+      <c r="B293" s="17" t="s">
         <v>3956</v>
       </c>
-      <c r="C293" s="18" t="s">
+      <c r="C293" s="17" t="s">
         <v>3957</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A294" s="18" t="s">
+      <c r="A294" s="17" t="s">
         <v>3876</v>
       </c>
-      <c r="B294" s="18" t="s">
+      <c r="B294" s="17" t="s">
         <v>3958</v>
       </c>
-      <c r="C294" s="18"/>
+      <c r="C294" s="17"/>
     </row>
     <row r="295" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A295" s="18" t="s">
+      <c r="A295" s="17" t="s">
         <v>3877</v>
       </c>
-      <c r="B295" s="18" t="s">
+      <c r="B295" s="17" t="s">
         <v>3959</v>
       </c>
-      <c r="C295" s="18"/>
+      <c r="C295" s="17"/>
     </row>
     <row r="296" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A296" s="18" t="s">
+      <c r="A296" s="17" t="s">
         <v>3878</v>
       </c>
-      <c r="B296" s="18" t="s">
+      <c r="B296" s="17" t="s">
         <v>3960</v>
       </c>
-      <c r="C296" s="18" t="s">
+      <c r="C296" s="17" t="s">
         <v>3961</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A297" s="18" t="s">
+      <c r="A297" s="17" t="s">
         <v>3879</v>
       </c>
-      <c r="B297" s="18" t="s">
+      <c r="B297" s="17" t="s">
         <v>3962</v>
       </c>
-      <c r="C297" s="18"/>
+      <c r="C297" s="17"/>
     </row>
     <row r="298" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A298" s="18" t="s">
+      <c r="A298" s="17" t="s">
         <v>3880</v>
       </c>
-      <c r="B298" s="18" t="s">
+      <c r="B298" s="17" t="s">
         <v>3963</v>
       </c>
-      <c r="C298" s="18"/>
+      <c r="C298" s="17"/>
     </row>
     <row r="299" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A299" s="18" t="s">
+      <c r="A299" s="17" t="s">
         <v>3881</v>
       </c>
-      <c r="B299" s="18" t="s">
+      <c r="B299" s="17" t="s">
         <v>3964</v>
       </c>
-      <c r="C299" s="18" t="s">
+      <c r="C299" s="17" t="s">
         <v>3965</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A300" s="18" t="s">
+      <c r="A300" s="17" t="s">
         <v>3882</v>
       </c>
-      <c r="B300" s="18" t="s">
+      <c r="B300" s="17" t="s">
         <v>3966</v>
       </c>
-      <c r="C300" s="18" t="s">
+      <c r="C300" s="17" t="s">
         <v>3967</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A301" s="18" t="s">
+      <c r="A301" s="17" t="s">
         <v>3883</v>
       </c>
-      <c r="B301" s="18" t="s">
+      <c r="B301" s="17" t="s">
         <v>3968</v>
       </c>
-      <c r="C301" s="18" t="s">
+      <c r="C301" s="17" t="s">
         <v>3969</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A302" s="18" t="s">
+      <c r="A302" s="17" t="s">
         <v>3884</v>
       </c>
-      <c r="B302" s="18" t="s">
+      <c r="B302" s="17" t="s">
         <v>3970</v>
       </c>
-      <c r="C302" s="18" t="s">
+      <c r="C302" s="17" t="s">
         <v>3971</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A303" s="18" t="s">
+      <c r="A303" s="17" t="s">
         <v>3885</v>
       </c>
-      <c r="B303" s="18" t="s">
+      <c r="B303" s="17" t="s">
         <v>3972</v>
       </c>
-      <c r="C303" s="18"/>
+      <c r="C303" s="17"/>
     </row>
     <row r="304" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A304" s="18" t="s">
+      <c r="A304" s="17" t="s">
         <v>3886</v>
       </c>
-      <c r="B304" s="18" t="s">
+      <c r="B304" s="17" t="s">
         <v>3973</v>
       </c>
-      <c r="C304" s="18" t="s">
+      <c r="C304" s="17" t="s">
         <v>3974</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A305" s="18" t="s">
+      <c r="A305" s="17" t="s">
         <v>3887</v>
       </c>
-      <c r="B305" s="18" t="s">
+      <c r="B305" s="17" t="s">
         <v>3975</v>
       </c>
-      <c r="C305" s="18" t="s">
+      <c r="C305" s="17" t="s">
         <v>3976</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A306" s="18" t="s">
+      <c r="A306" s="17" t="s">
         <v>3888</v>
       </c>
-      <c r="B306" s="18" t="s">
+      <c r="B306" s="17" t="s">
         <v>3977</v>
       </c>
-      <c r="C306" s="18" t="s">
+      <c r="C306" s="17" t="s">
         <v>3978</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A307" s="18" t="s">
+      <c r="A307" s="17" t="s">
         <v>3889</v>
       </c>
-      <c r="B307" s="18" t="s">
+      <c r="B307" s="17" t="s">
         <v>3979</v>
       </c>
-      <c r="C307" s="18" t="s">
+      <c r="C307" s="17" t="s">
         <v>3980</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A308" s="18" t="s">
+      <c r="A308" s="17" t="s">
         <v>3890</v>
       </c>
-      <c r="B308" s="18" t="s">
+      <c r="B308" s="17" t="s">
         <v>3981</v>
       </c>
-      <c r="C308" s="18" t="s">
+      <c r="C308" s="17" t="s">
         <v>3982</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A309" s="18" t="s">
+      <c r="A309" s="17" t="s">
         <v>3891</v>
       </c>
-      <c r="B309" s="18" t="s">
+      <c r="B309" s="17" t="s">
         <v>3983</v>
       </c>
-      <c r="C309" s="18" t="s">
+      <c r="C309" s="17" t="s">
         <v>3984</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A310" s="18" t="s">
+      <c r="A310" s="17" t="s">
         <v>3892</v>
       </c>
-      <c r="B310" s="18" t="s">
+      <c r="B310" s="17" t="s">
         <v>3985</v>
       </c>
-      <c r="C310" s="18" t="s">
+      <c r="C310" s="17" t="s">
         <v>3986</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A311" s="18" t="s">
+      <c r="A311" s="17" t="s">
         <v>3893</v>
       </c>
-      <c r="B311" s="18" t="s">
+      <c r="B311" s="17" t="s">
         <v>3987</v>
       </c>
-      <c r="C311" s="18" t="s">
+      <c r="C311" s="17" t="s">
         <v>3988</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A312" s="18" t="s">
+      <c r="A312" s="17" t="s">
         <v>3894</v>
       </c>
-      <c r="B312" s="18" t="s">
+      <c r="B312" s="17" t="s">
         <v>3989</v>
       </c>
-      <c r="C312" s="18" t="s">
+      <c r="C312" s="17" t="s">
         <v>3990</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A313" s="18" t="s">
+      <c r="A313" s="17" t="s">
         <v>3895</v>
       </c>
-      <c r="B313" s="18" t="s">
+      <c r="B313" s="17" t="s">
         <v>3991</v>
       </c>
-      <c r="C313" s="18"/>
+      <c r="C313" s="17"/>
     </row>
     <row r="314" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A314" s="18" t="s">
+      <c r="A314" s="17" t="s">
         <v>3896</v>
       </c>
-      <c r="B314" s="18" t="s">
+      <c r="B314" s="17" t="s">
         <v>3992</v>
       </c>
-      <c r="C314" s="18"/>
+      <c r="C314" s="17"/>
     </row>
     <row r="315" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A315" s="18" t="s">
+      <c r="A315" s="17" t="s">
         <v>3897</v>
       </c>
-      <c r="B315" s="18" t="s">
+      <c r="B315" s="17" t="s">
         <v>3993</v>
       </c>
-      <c r="C315" s="18"/>
+      <c r="C315" s="17"/>
     </row>
     <row r="316" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A316" s="18" t="s">
+      <c r="A316" s="17" t="s">
         <v>3898</v>
       </c>
-      <c r="B316" s="18" t="s">
+      <c r="B316" s="17" t="s">
         <v>3994</v>
       </c>
-      <c r="C316" s="18" t="s">
+      <c r="C316" s="17" t="s">
         <v>3995</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A317" s="18" t="s">
+      <c r="A317" s="17" t="s">
         <v>3899</v>
       </c>
-      <c r="B317" s="18" t="s">
+      <c r="B317" s="17" t="s">
         <v>3996</v>
       </c>
-      <c r="C317" s="18" t="s">
+      <c r="C317" s="17" t="s">
         <v>3997</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A318" s="18" t="s">
+      <c r="A318" s="17" t="s">
         <v>3900</v>
       </c>
-      <c r="B318" s="18" t="s">
+      <c r="B318" s="17" t="s">
         <v>3998</v>
       </c>
-      <c r="C318" s="18"/>
+      <c r="C318" s="17"/>
     </row>
     <row r="319" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A319" s="18" t="s">
+      <c r="A319" s="17" t="s">
         <v>3901</v>
       </c>
-      <c r="B319" s="18" t="s">
+      <c r="B319" s="17" t="s">
         <v>3999</v>
       </c>
-      <c r="C319" s="18" t="s">
+      <c r="C319" s="17" t="s">
         <v>4000</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A320" s="18" t="s">
+      <c r="A320" s="17" t="s">
         <v>3902</v>
       </c>
-      <c r="B320" s="18" t="s">
+      <c r="B320" s="17" t="s">
         <v>4001</v>
       </c>
-      <c r="C320" s="18" t="s">
+      <c r="C320" s="17" t="s">
         <v>4002</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A321" s="18" t="s">
+      <c r="A321" s="17" t="s">
         <v>3903</v>
       </c>
-      <c r="B321" s="18" t="s">
+      <c r="B321" s="17" t="s">
         <v>4003</v>
       </c>
-      <c r="C321" s="18" t="s">
+      <c r="C321" s="17" t="s">
         <v>4004</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A322" s="18" t="s">
+      <c r="A322" s="17" t="s">
         <v>3904</v>
       </c>
-      <c r="B322" s="18" t="s">
+      <c r="B322" s="17" t="s">
         <v>4005</v>
       </c>
-      <c r="C322" s="18" t="s">
+      <c r="C322" s="17" t="s">
         <v>4006</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A323" s="18" t="s">
+      <c r="A323" s="17" t="s">
         <v>3905</v>
       </c>
-      <c r="B323" s="18" t="s">
+      <c r="B323" s="17" t="s">
         <v>4007</v>
       </c>
-      <c r="C323" s="18"/>
+      <c r="C323" s="17"/>
     </row>
     <row r="324" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A324" s="18" t="s">
+      <c r="A324" s="17" t="s">
         <v>3906</v>
       </c>
-      <c r="B324" s="18" t="s">
+      <c r="B324" s="17" t="s">
         <v>4008</v>
       </c>
-      <c r="C324" s="18"/>
+      <c r="C324" s="17"/>
     </row>
     <row r="325" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A325" s="18" t="s">
+      <c r="A325" s="17" t="s">
         <v>3907</v>
       </c>
-      <c r="B325" s="18" t="s">
+      <c r="B325" s="17" t="s">
         <v>4009</v>
       </c>
-      <c r="C325" s="18"/>
+      <c r="C325" s="17"/>
     </row>
     <row r="326" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A326" s="18" t="s">
+      <c r="A326" s="17" t="s">
         <v>3908</v>
       </c>
-      <c r="B326" s="18" t="s">
+      <c r="B326" s="17" t="s">
         <v>4010</v>
       </c>
-      <c r="C326" s="18" t="s">
+      <c r="C326" s="17" t="s">
         <v>4011</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A327" s="18" t="s">
+      <c r="A327" s="17" t="s">
         <v>3909</v>
       </c>
-      <c r="B327" s="18" t="s">
+      <c r="B327" s="17" t="s">
         <v>4012</v>
       </c>
-      <c r="C327" s="18" t="s">
+      <c r="C327" s="17" t="s">
         <v>4013</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A328" s="18" t="s">
+      <c r="A328" s="17" t="s">
         <v>3910</v>
       </c>
-      <c r="B328" s="18" t="s">
+      <c r="B328" s="17" t="s">
         <v>4014</v>
       </c>
-      <c r="C328" s="18" t="s">
+      <c r="C328" s="17" t="s">
         <v>4015</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A329" s="16" t="s">
+      <c r="A329" s="18" t="s">
         <v>5025</v>
       </c>
-      <c r="B329" s="16"/>
-      <c r="C329" s="16"/>
+      <c r="B329" s="18"/>
+      <c r="C329" s="18"/>
     </row>
     <row r="330" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A330" s="17" t="s">
+      <c r="A330" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B330" s="17" t="s">
+      <c r="B330" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C330" s="17" t="s">
+      <c r="C330" s="16" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A331" s="18" t="s">
+      <c r="A331" s="17" t="s">
         <v>4016</v>
       </c>
-      <c r="B331" s="18" t="s">
+      <c r="B331" s="17" t="s">
         <v>4079</v>
       </c>
-      <c r="C331" s="18" t="s">
+      <c r="C331" s="17" t="s">
         <v>4080</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A332" s="18" t="s">
+      <c r="A332" s="17" t="s">
         <v>4017</v>
       </c>
-      <c r="B332" s="18" t="s">
+      <c r="B332" s="17" t="s">
         <v>4081</v>
       </c>
-      <c r="C332" s="18" t="s">
+      <c r="C332" s="17" t="s">
         <v>4082</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A333" s="18" t="s">
+      <c r="A333" s="17" t="s">
         <v>4018</v>
       </c>
-      <c r="B333" s="18" t="s">
+      <c r="B333" s="17" t="s">
         <v>3161</v>
       </c>
-      <c r="C333" s="18" t="s">
+      <c r="C333" s="17" t="s">
         <v>4083</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A334" s="18" t="s">
+      <c r="A334" s="17" t="s">
         <v>4019</v>
       </c>
-      <c r="B334" s="18" t="s">
+      <c r="B334" s="17" t="s">
         <v>4084</v>
       </c>
-      <c r="C334" s="18" t="s">
+      <c r="C334" s="17" t="s">
         <v>4085</v>
       </c>
     </row>
     <row r="335" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A335" s="18" t="s">
+      <c r="A335" s="17" t="s">
         <v>4020</v>
       </c>
-      <c r="B335" s="18" t="s">
+      <c r="B335" s="17" t="s">
         <v>4086</v>
       </c>
-      <c r="C335" s="18" t="s">
+      <c r="C335" s="17" t="s">
         <v>4087</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A336" s="18" t="s">
+      <c r="A336" s="17" t="s">
         <v>4021</v>
       </c>
-      <c r="B336" s="18" t="s">
+      <c r="B336" s="17" t="s">
         <v>4088</v>
       </c>
-      <c r="C336" s="18" t="s">
+      <c r="C336" s="17" t="s">
         <v>4089</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A337" s="18" t="s">
+      <c r="A337" s="17" t="s">
         <v>4022</v>
       </c>
-      <c r="B337" s="18" t="s">
+      <c r="B337" s="17" t="s">
         <v>4090</v>
       </c>
-      <c r="C337" s="18" t="s">
+      <c r="C337" s="17" t="s">
         <v>4091</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A338" s="18" t="s">
+      <c r="A338" s="17" t="s">
         <v>4023</v>
       </c>
-      <c r="B338" s="18" t="s">
+      <c r="B338" s="17" t="s">
         <v>4092</v>
       </c>
-      <c r="C338" s="18" t="s">
+      <c r="C338" s="17" t="s">
         <v>4093</v>
       </c>
     </row>
     <row r="339" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A339" s="18" t="s">
+      <c r="A339" s="17" t="s">
         <v>4024</v>
       </c>
-      <c r="B339" s="18" t="s">
+      <c r="B339" s="17" t="s">
         <v>4094</v>
       </c>
-      <c r="C339" s="18" t="s">
+      <c r="C339" s="17" t="s">
         <v>4095</v>
       </c>
     </row>
     <row r="340" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A340" s="18" t="s">
+      <c r="A340" s="17" t="s">
         <v>4025</v>
       </c>
-      <c r="B340" s="18" t="s">
+      <c r="B340" s="17" t="s">
         <v>4096</v>
       </c>
-      <c r="C340" s="18" t="s">
+      <c r="C340" s="17" t="s">
         <v>4097</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A341" s="18" t="s">
+      <c r="A341" s="17" t="s">
         <v>4026</v>
       </c>
-      <c r="B341" s="18" t="s">
+      <c r="B341" s="17" t="s">
         <v>4098</v>
       </c>
-      <c r="C341" s="18" t="s">
+      <c r="C341" s="17" t="s">
         <v>4099</v>
       </c>
     </row>
     <row r="342" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A342" s="18" t="s">
+      <c r="A342" s="17" t="s">
         <v>4027</v>
       </c>
-      <c r="B342" s="18" t="s">
+      <c r="B342" s="17" t="s">
         <v>4100</v>
       </c>
-      <c r="C342" s="18" t="s">
+      <c r="C342" s="17" t="s">
         <v>4101</v>
       </c>
     </row>
     <row r="343" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A343" s="18" t="s">
+      <c r="A343" s="17" t="s">
         <v>4028</v>
       </c>
-      <c r="B343" s="18" t="s">
+      <c r="B343" s="17" t="s">
         <v>4102</v>
       </c>
-      <c r="C343" s="18" t="s">
+      <c r="C343" s="17" t="s">
         <v>4103</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A344" s="18" t="s">
+      <c r="A344" s="17" t="s">
         <v>4029</v>
       </c>
-      <c r="B344" s="18" t="s">
+      <c r="B344" s="17" t="s">
         <v>4104</v>
       </c>
-      <c r="C344" s="18" t="s">
+      <c r="C344" s="17" t="s">
         <v>4105</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A345" s="18" t="s">
+      <c r="A345" s="17" t="s">
         <v>4030</v>
       </c>
-      <c r="B345" s="18" t="s">
+      <c r="B345" s="17" t="s">
         <v>4106</v>
       </c>
-      <c r="C345" s="18" t="s">
+      <c r="C345" s="17" t="s">
         <v>4107</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A346" s="18" t="s">
+      <c r="A346" s="17" t="s">
         <v>4031</v>
       </c>
-      <c r="B346" s="18" t="s">
+      <c r="B346" s="17" t="s">
         <v>4108</v>
       </c>
-      <c r="C346" s="18" t="s">
+      <c r="C346" s="17" t="s">
         <v>4109</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A347" s="18" t="s">
+      <c r="A347" s="17" t="s">
         <v>4032</v>
       </c>
-      <c r="B347" s="18" t="s">
+      <c r="B347" s="17" t="s">
         <v>4110</v>
       </c>
-      <c r="C347" s="18" t="s">
+      <c r="C347" s="17" t="s">
         <v>4111</v>
       </c>
     </row>
     <row r="348" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A348" s="18" t="s">
+      <c r="A348" s="17" t="s">
         <v>4033</v>
       </c>
-      <c r="B348" s="18" t="s">
+      <c r="B348" s="17" t="s">
         <v>4112</v>
       </c>
-      <c r="C348" s="18" t="s">
+      <c r="C348" s="17" t="s">
         <v>4113</v>
       </c>
     </row>
     <row r="349" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A349" s="18" t="s">
+      <c r="A349" s="17" t="s">
         <v>4034</v>
       </c>
-      <c r="B349" s="18" t="s">
+      <c r="B349" s="17" t="s">
         <v>4114</v>
       </c>
-      <c r="C349" s="18" t="s">
+      <c r="C349" s="17" t="s">
         <v>4115</v>
       </c>
     </row>
     <row r="350" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A350" s="18" t="s">
+      <c r="A350" s="17" t="s">
         <v>4035</v>
       </c>
-      <c r="B350" s="18" t="s">
+      <c r="B350" s="17" t="s">
         <v>4116</v>
       </c>
-      <c r="C350" s="18"/>
+      <c r="C350" s="17"/>
     </row>
     <row r="351" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A351" s="18" t="s">
+      <c r="A351" s="17" t="s">
         <v>4036</v>
       </c>
-      <c r="B351" s="18" t="s">
+      <c r="B351" s="17" t="s">
         <v>4117</v>
       </c>
-      <c r="C351" s="18"/>
+      <c r="C351" s="17"/>
     </row>
     <row r="352" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A352" s="18" t="s">
+      <c r="A352" s="17" t="s">
         <v>4037</v>
       </c>
-      <c r="B352" s="18" t="s">
+      <c r="B352" s="17" t="s">
         <v>4118</v>
       </c>
-      <c r="C352" s="18" t="s">
+      <c r="C352" s="17" t="s">
         <v>4119</v>
       </c>
     </row>
     <row r="353" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A353" s="18" t="s">
+      <c r="A353" s="17" t="s">
         <v>4038</v>
       </c>
-      <c r="B353" s="18" t="s">
+      <c r="B353" s="17" t="s">
         <v>4120</v>
       </c>
-      <c r="C353" s="18"/>
+      <c r="C353" s="17"/>
     </row>
     <row r="354" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A354" s="18" t="s">
+      <c r="A354" s="17" t="s">
         <v>4039</v>
       </c>
-      <c r="B354" s="18" t="s">
+      <c r="B354" s="17" t="s">
         <v>4121</v>
       </c>
-      <c r="C354" s="18" t="s">
+      <c r="C354" s="17" t="s">
         <v>4122</v>
       </c>
     </row>
     <row r="355" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A355" s="18" t="s">
+      <c r="A355" s="17" t="s">
         <v>4040</v>
       </c>
-      <c r="B355" s="18" t="s">
+      <c r="B355" s="17" t="s">
         <v>4123</v>
       </c>
-      <c r="C355" s="18" t="s">
+      <c r="C355" s="17" t="s">
         <v>4124</v>
       </c>
     </row>
     <row r="356" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A356" s="18" t="s">
+      <c r="A356" s="17" t="s">
         <v>4041</v>
       </c>
-      <c r="B356" s="18" t="s">
+      <c r="B356" s="17" t="s">
         <v>4125</v>
       </c>
-      <c r="C356" s="18"/>
+      <c r="C356" s="17"/>
     </row>
     <row r="357" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A357" s="18" t="s">
+      <c r="A357" s="17" t="s">
         <v>4042</v>
       </c>
-      <c r="B357" s="18" t="s">
+      <c r="B357" s="17" t="s">
         <v>4126</v>
       </c>
-      <c r="C357" s="18"/>
+      <c r="C357" s="17"/>
     </row>
     <row r="358" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A358" s="18" t="s">
+      <c r="A358" s="17" t="s">
         <v>4043</v>
       </c>
-      <c r="B358" s="18" t="s">
+      <c r="B358" s="17" t="s">
         <v>4127</v>
       </c>
-      <c r="C358" s="18" t="s">
+      <c r="C358" s="17" t="s">
         <v>4128</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A359" s="18" t="s">
+      <c r="A359" s="17" t="s">
         <v>4044</v>
       </c>
-      <c r="B359" s="18" t="s">
+      <c r="B359" s="17" t="s">
         <v>4129</v>
       </c>
-      <c r="C359" s="18" t="s">
+      <c r="C359" s="17" t="s">
         <v>4130</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A360" s="18" t="s">
+      <c r="A360" s="17" t="s">
         <v>4045</v>
       </c>
-      <c r="B360" s="18" t="s">
+      <c r="B360" s="17" t="s">
         <v>4131</v>
       </c>
-      <c r="C360" s="18"/>
+      <c r="C360" s="17"/>
     </row>
     <row r="361" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A361" s="18" t="s">
+      <c r="A361" s="17" t="s">
         <v>4046</v>
       </c>
-      <c r="B361" s="18" t="s">
+      <c r="B361" s="17" t="s">
         <v>4132</v>
       </c>
-      <c r="C361" s="18" t="s">
+      <c r="C361" s="17" t="s">
         <v>4133</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A362" s="18" t="s">
+      <c r="A362" s="17" t="s">
         <v>4047</v>
       </c>
-      <c r="B362" s="18" t="s">
+      <c r="B362" s="17" t="s">
         <v>4134</v>
       </c>
-      <c r="C362" s="18" t="s">
+      <c r="C362" s="17" t="s">
         <v>4135</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A363" s="18" t="s">
+      <c r="A363" s="17" t="s">
         <v>4048</v>
       </c>
-      <c r="B363" s="18" t="s">
+      <c r="B363" s="17" t="s">
         <v>4136</v>
       </c>
-      <c r="C363" s="18" t="s">
+      <c r="C363" s="17" t="s">
         <v>4137</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A364" s="18" t="s">
+      <c r="A364" s="17" t="s">
         <v>4049</v>
       </c>
-      <c r="B364" s="18" t="s">
+      <c r="B364" s="17" t="s">
         <v>4138</v>
       </c>
-      <c r="C364" s="18" t="s">
+      <c r="C364" s="17" t="s">
         <v>4139</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A365" s="18" t="s">
+      <c r="A365" s="17" t="s">
         <v>4050</v>
       </c>
-      <c r="B365" s="18" t="s">
+      <c r="B365" s="17" t="s">
         <v>4140</v>
       </c>
-      <c r="C365" s="18" t="s">
+      <c r="C365" s="17" t="s">
         <v>4141</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A366" s="18" t="s">
+      <c r="A366" s="17" t="s">
         <v>4051</v>
       </c>
-      <c r="B366" s="18" t="s">
+      <c r="B366" s="17" t="s">
         <v>4142</v>
       </c>
-      <c r="C366" s="18" t="s">
+      <c r="C366" s="17" t="s">
         <v>4143</v>
       </c>
     </row>
     <row r="367" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A367" s="18" t="s">
+      <c r="A367" s="17" t="s">
         <v>4052</v>
       </c>
-      <c r="B367" s="18" t="s">
+      <c r="B367" s="17" t="s">
         <v>4144</v>
       </c>
-      <c r="C367" s="18" t="s">
+      <c r="C367" s="17" t="s">
         <v>4145</v>
       </c>
     </row>
     <row r="368" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A368" s="18" t="s">
+      <c r="A368" s="17" t="s">
         <v>4053</v>
       </c>
-      <c r="B368" s="18" t="s">
+      <c r="B368" s="17" t="s">
         <v>4146</v>
       </c>
-      <c r="C368" s="18"/>
+      <c r="C368" s="17"/>
     </row>
     <row r="369" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A369" s="18" t="s">
+      <c r="A369" s="17" t="s">
         <v>4054</v>
       </c>
-      <c r="B369" s="18" t="s">
+      <c r="B369" s="17" t="s">
         <v>4147</v>
       </c>
-      <c r="C369" s="18" t="s">
+      <c r="C369" s="17" t="s">
         <v>4148</v>
       </c>
     </row>
     <row r="370" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A370" s="18" t="s">
+      <c r="A370" s="17" t="s">
         <v>4055</v>
       </c>
-      <c r="B370" s="18" t="s">
+      <c r="B370" s="17" t="s">
         <v>4149</v>
       </c>
-      <c r="C370" s="18" t="s">
+      <c r="C370" s="17" t="s">
         <v>4150</v>
       </c>
     </row>
     <row r="371" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A371" s="18" t="s">
+      <c r="A371" s="17" t="s">
         <v>4056</v>
       </c>
-      <c r="B371" s="18" t="s">
+      <c r="B371" s="17" t="s">
         <v>4151</v>
       </c>
-      <c r="C371" s="18" t="s">
+      <c r="C371" s="17" t="s">
         <v>4152</v>
       </c>
     </row>
     <row r="372" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A372" s="18" t="s">
+      <c r="A372" s="17" t="s">
         <v>4057</v>
       </c>
-      <c r="B372" s="18" t="s">
+      <c r="B372" s="17" t="s">
         <v>4153</v>
       </c>
-      <c r="C372" s="18" t="s">
+      <c r="C372" s="17" t="s">
         <v>4154</v>
       </c>
     </row>
     <row r="373" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A373" s="18" t="s">
+      <c r="A373" s="17" t="s">
         <v>4058</v>
       </c>
-      <c r="B373" s="18" t="s">
+      <c r="B373" s="17" t="s">
         <v>4155</v>
       </c>
-      <c r="C373" s="18"/>
+      <c r="C373" s="17"/>
     </row>
     <row r="374" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A374" s="18" t="s">
+      <c r="A374" s="17" t="s">
         <v>4059</v>
       </c>
-      <c r="B374" s="18" t="s">
+      <c r="B374" s="17" t="s">
         <v>4156</v>
       </c>
-      <c r="C374" s="18" t="s">
+      <c r="C374" s="17" t="s">
         <v>4157</v>
       </c>
     </row>
     <row r="375" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A375" s="18" t="s">
+      <c r="A375" s="17" t="s">
         <v>4060</v>
       </c>
-      <c r="B375" s="18" t="s">
+      <c r="B375" s="17" t="s">
         <v>4158</v>
       </c>
-      <c r="C375" s="18" t="s">
+      <c r="C375" s="17" t="s">
         <v>4159</v>
       </c>
     </row>
     <row r="376" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A376" s="18" t="s">
+      <c r="A376" s="17" t="s">
         <v>4061</v>
       </c>
-      <c r="B376" s="18" t="s">
+      <c r="B376" s="17" t="s">
         <v>4160</v>
       </c>
-      <c r="C376" s="18" t="s">
+      <c r="C376" s="17" t="s">
         <v>4161</v>
       </c>
     </row>
     <row r="377" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A377" s="18" t="s">
+      <c r="A377" s="17" t="s">
         <v>4062</v>
       </c>
-      <c r="B377" s="18" t="s">
+      <c r="B377" s="17" t="s">
         <v>4162</v>
       </c>
-      <c r="C377" s="18" t="s">
+      <c r="C377" s="17" t="s">
         <v>4163</v>
       </c>
     </row>
     <row r="378" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A378" s="18" t="s">
+      <c r="A378" s="17" t="s">
         <v>4063</v>
       </c>
-      <c r="B378" s="18" t="s">
+      <c r="B378" s="17" t="s">
         <v>4164</v>
       </c>
-      <c r="C378" s="18" t="s">
+      <c r="C378" s="17" t="s">
         <v>4165</v>
       </c>
     </row>
     <row r="379" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A379" s="18" t="s">
+      <c r="A379" s="17" t="s">
         <v>4064</v>
       </c>
-      <c r="B379" s="18" t="s">
+      <c r="B379" s="17" t="s">
         <v>4166</v>
       </c>
-      <c r="C379" s="18"/>
+      <c r="C379" s="17"/>
     </row>
     <row r="380" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A380" s="18" t="s">
+      <c r="A380" s="17" t="s">
         <v>4065</v>
       </c>
-      <c r="B380" s="18" t="s">
+      <c r="B380" s="17" t="s">
         <v>4167</v>
       </c>
-      <c r="C380" s="18" t="s">
+      <c r="C380" s="17" t="s">
         <v>4168</v>
       </c>
     </row>
     <row r="381" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A381" s="18" t="s">
+      <c r="A381" s="17" t="s">
         <v>4066</v>
       </c>
-      <c r="B381" s="18" t="s">
+      <c r="B381" s="17" t="s">
         <v>4169</v>
       </c>
-      <c r="C381" s="18" t="s">
+      <c r="C381" s="17" t="s">
         <v>4170</v>
       </c>
     </row>
     <row r="382" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A382" s="18" t="s">
+      <c r="A382" s="17" t="s">
         <v>4067</v>
       </c>
-      <c r="B382" s="18" t="s">
+      <c r="B382" s="17" t="s">
         <v>4171</v>
       </c>
-      <c r="C382" s="18" t="s">
+      <c r="C382" s="17" t="s">
         <v>4172</v>
       </c>
     </row>
     <row r="383" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A383" s="18" t="s">
+      <c r="A383" s="17" t="s">
         <v>4068</v>
       </c>
-      <c r="B383" s="18" t="s">
+      <c r="B383" s="17" t="s">
         <v>4173</v>
       </c>
-      <c r="C383" s="18"/>
+      <c r="C383" s="17"/>
     </row>
     <row r="384" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A384" s="18" t="s">
+      <c r="A384" s="17" t="s">
         <v>4069</v>
       </c>
-      <c r="B384" s="18" t="s">
+      <c r="B384" s="17" t="s">
         <v>4174</v>
       </c>
-      <c r="C384" s="18" t="s">
+      <c r="C384" s="17" t="s">
         <v>4175</v>
       </c>
     </row>
     <row r="385" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A385" s="18" t="s">
+      <c r="A385" s="17" t="s">
         <v>4070</v>
       </c>
-      <c r="B385" s="18" t="s">
+      <c r="B385" s="17" t="s">
         <v>4176</v>
       </c>
-      <c r="C385" s="18" t="s">
+      <c r="C385" s="17" t="s">
         <v>4177</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A386" s="18" t="s">
+      <c r="A386" s="17" t="s">
         <v>4071</v>
       </c>
-      <c r="B386" s="18" t="s">
+      <c r="B386" s="17" t="s">
         <v>4178</v>
       </c>
-      <c r="C386" s="18" t="s">
+      <c r="C386" s="17" t="s">
         <v>4179</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A387" s="18" t="s">
+      <c r="A387" s="17" t="s">
         <v>4072</v>
       </c>
-      <c r="B387" s="18" t="s">
+      <c r="B387" s="17" t="s">
         <v>4180</v>
       </c>
-      <c r="C387" s="18"/>
+      <c r="C387" s="17"/>
     </row>
     <row r="388" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A388" s="18" t="s">
+      <c r="A388" s="17" t="s">
         <v>4073</v>
       </c>
-      <c r="B388" s="18" t="s">
+      <c r="B388" s="17" t="s">
         <v>4181</v>
       </c>
-      <c r="C388" s="18" t="s">
+      <c r="C388" s="17" t="s">
         <v>4182</v>
       </c>
     </row>
     <row r="389" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A389" s="18" t="s">
+      <c r="A389" s="17" t="s">
         <v>4074</v>
       </c>
-      <c r="B389" s="18" t="s">
+      <c r="B389" s="17" t="s">
         <v>4183</v>
       </c>
-      <c r="C389" s="18" t="s">
+      <c r="C389" s="17" t="s">
         <v>4184</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A390" s="18" t="s">
+      <c r="A390" s="17" t="s">
         <v>4075</v>
       </c>
-      <c r="B390" s="18" t="s">
+      <c r="B390" s="17" t="s">
         <v>4185</v>
       </c>
-      <c r="C390" s="18" t="s">
+      <c r="C390" s="17" t="s">
         <v>4186</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A391" s="18" t="s">
+      <c r="A391" s="17" t="s">
         <v>4076</v>
       </c>
-      <c r="B391" s="18" t="s">
+      <c r="B391" s="17" t="s">
         <v>4187</v>
       </c>
-      <c r="C391" s="18" t="s">
+      <c r="C391" s="17" t="s">
         <v>4188</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A392" s="18" t="s">
+      <c r="A392" s="17" t="s">
         <v>4077</v>
       </c>
-      <c r="B392" s="18" t="s">
+      <c r="B392" s="17" t="s">
         <v>4189</v>
       </c>
-      <c r="C392" s="18" t="s">
+      <c r="C392" s="17" t="s">
         <v>4190</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A393" s="18" t="s">
+      <c r="A393" s="17" t="s">
         <v>4078</v>
       </c>
-      <c r="B393" s="18" t="s">
+      <c r="B393" s="17" t="s">
         <v>4191</v>
       </c>
-      <c r="C393" s="18" t="s">
+      <c r="C393" s="17" t="s">
         <v>4192</v>
       </c>
     </row>
     <row r="394" spans="1:3" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A394" s="16" t="s">
+      <c r="A394" s="18" t="s">
         <v>5026</v>
       </c>
-      <c r="B394" s="16"/>
-      <c r="C394" s="16"/>
+      <c r="B394" s="18"/>
+      <c r="C394" s="18"/>
     </row>
     <row r="395" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A395" s="17" t="s">
+      <c r="A395" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B395" s="17" t="s">
+      <c r="B395" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C395" s="17" t="s">
+      <c r="C395" s="16" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="396" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A396" s="18" t="s">
+      <c r="A396" s="17" t="s">
         <v>4193</v>
       </c>
-      <c r="B396" s="18" t="s">
+      <c r="B396" s="17" t="s">
         <v>4254</v>
       </c>
-      <c r="C396" s="18" t="s">
+      <c r="C396" s="17" t="s">
         <v>4255</v>
       </c>
     </row>
     <row r="397" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A397" s="18" t="s">
+      <c r="A397" s="17" t="s">
         <v>4194</v>
       </c>
-      <c r="B397" s="18" t="s">
+      <c r="B397" s="17" t="s">
         <v>4256</v>
       </c>
-      <c r="C397" s="18" t="s">
+      <c r="C397" s="17" t="s">
         <v>4257</v>
       </c>
     </row>
     <row r="398" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A398" s="18" t="s">
+      <c r="A398" s="17" t="s">
         <v>4195</v>
       </c>
-      <c r="B398" s="18" t="s">
+      <c r="B398" s="17" t="s">
         <v>4258</v>
       </c>
-      <c r="C398" s="18" t="s">
+      <c r="C398" s="17" t="s">
         <v>4259</v>
       </c>
     </row>
     <row r="399" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A399" s="18" t="s">
+      <c r="A399" s="17" t="s">
         <v>4196</v>
       </c>
-      <c r="B399" s="18" t="s">
+      <c r="B399" s="17" t="s">
         <v>4260</v>
       </c>
-      <c r="C399" s="18" t="s">
+      <c r="C399" s="17" t="s">
         <v>4261</v>
       </c>
     </row>
     <row r="400" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A400" s="18" t="s">
+      <c r="A400" s="17" t="s">
         <v>4197</v>
       </c>
-      <c r="B400" s="18" t="s">
+      <c r="B400" s="17" t="s">
         <v>4262</v>
       </c>
-      <c r="C400" s="18"/>
+      <c r="C400" s="17"/>
     </row>
     <row r="401" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A401" s="18" t="s">
+      <c r="A401" s="17" t="s">
         <v>4198</v>
       </c>
-      <c r="B401" s="18" t="s">
+      <c r="B401" s="17" t="s">
         <v>4263</v>
       </c>
-      <c r="C401" s="18" t="s">
+      <c r="C401" s="17" t="s">
         <v>4264</v>
       </c>
     </row>
     <row r="402" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A402" s="18" t="s">
+      <c r="A402" s="17" t="s">
         <v>4199</v>
       </c>
-      <c r="B402" s="18" t="s">
+      <c r="B402" s="17" t="s">
         <v>4265</v>
       </c>
-      <c r="C402" s="18" t="s">
+      <c r="C402" s="17" t="s">
         <v>4266</v>
       </c>
     </row>
     <row r="403" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A403" s="18" t="s">
+      <c r="A403" s="17" t="s">
         <v>4200</v>
       </c>
-      <c r="B403" s="18" t="s">
+      <c r="B403" s="17" t="s">
         <v>4267</v>
       </c>
-      <c r="C403" s="18" t="s">
+      <c r="C403" s="17" t="s">
         <v>4268</v>
       </c>
     </row>
     <row r="404" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A404" s="18" t="s">
+      <c r="A404" s="17" t="s">
         <v>4201</v>
       </c>
-      <c r="B404" s="18" t="s">
+      <c r="B404" s="17" t="s">
         <v>4269</v>
       </c>
-      <c r="C404" s="18" t="s">
+      <c r="C404" s="17" t="s">
         <v>4270</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A405" s="18" t="s">
+      <c r="A405" s="17" t="s">
         <v>4202</v>
       </c>
-      <c r="B405" s="18" t="s">
+      <c r="B405" s="17" t="s">
         <v>4271</v>
       </c>
-      <c r="C405" s="18"/>
+      <c r="C405" s="17"/>
     </row>
     <row r="406" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A406" s="18" t="s">
+      <c r="A406" s="17" t="s">
         <v>4203</v>
       </c>
-      <c r="B406" s="18" t="s">
+      <c r="B406" s="17" t="s">
         <v>4272</v>
       </c>
-      <c r="C406" s="18" t="s">
+      <c r="C406" s="17" t="s">
         <v>4273</v>
       </c>
     </row>
     <row r="407" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A407" s="18" t="s">
+      <c r="A407" s="17" t="s">
         <v>4204</v>
       </c>
-      <c r="B407" s="18" t="s">
+      <c r="B407" s="17" t="s">
         <v>4274</v>
       </c>
-      <c r="C407" s="18" t="s">
+      <c r="C407" s="17" t="s">
         <v>4275</v>
       </c>
     </row>
     <row r="408" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A408" s="18" t="s">
+      <c r="A408" s="17" t="s">
         <v>4205</v>
       </c>
-      <c r="B408" s="18" t="s">
+      <c r="B408" s="17" t="s">
         <v>4276</v>
       </c>
-      <c r="C408" s="18" t="s">
+      <c r="C408" s="17" t="s">
         <v>4277</v>
       </c>
     </row>
     <row r="409" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A409" s="18" t="s">
+      <c r="A409" s="17" t="s">
         <v>4206</v>
       </c>
-      <c r="B409" s="18" t="s">
+      <c r="B409" s="17" t="s">
         <v>4278</v>
       </c>
-      <c r="C409" s="18" t="s">
+      <c r="C409" s="17" t="s">
         <v>4279</v>
       </c>
     </row>
     <row r="410" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A410" s="18" t="s">
+      <c r="A410" s="17" t="s">
         <v>4207</v>
       </c>
-      <c r="B410" s="18" t="s">
+      <c r="B410" s="17" t="s">
         <v>4280</v>
       </c>
-      <c r="C410" s="18" t="s">
+      <c r="C410" s="17" t="s">
         <v>4281</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A411" s="18" t="s">
+      <c r="A411" s="17" t="s">
         <v>4208</v>
       </c>
-      <c r="B411" s="18" t="s">
+      <c r="B411" s="17" t="s">
         <v>4282</v>
       </c>
-      <c r="C411" s="18" t="s">
+      <c r="C411" s="17" t="s">
         <v>4283</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A412" s="18" t="s">
+      <c r="A412" s="17" t="s">
         <v>4209</v>
       </c>
-      <c r="B412" s="18" t="s">
+      <c r="B412" s="17" t="s">
         <v>4284</v>
       </c>
-      <c r="C412" s="18" t="s">
+      <c r="C412" s="17" t="s">
         <v>4285</v>
       </c>
     </row>
     <row r="413" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A413" s="18" t="s">
+      <c r="A413" s="17" t="s">
         <v>4210</v>
       </c>
-      <c r="B413" s="18" t="s">
+      <c r="B413" s="17" t="s">
         <v>4286</v>
       </c>
-      <c r="C413" s="18"/>
+      <c r="C413" s="17"/>
     </row>
     <row r="414" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A414" s="18" t="s">
+      <c r="A414" s="17" t="s">
         <v>4211</v>
       </c>
-      <c r="B414" s="18" t="s">
+      <c r="B414" s="17" t="s">
         <v>4287</v>
       </c>
-      <c r="C414" s="18" t="s">
+      <c r="C414" s="17" t="s">
         <v>4288</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A415" s="18" t="s">
+      <c r="A415" s="17" t="s">
         <v>4212</v>
       </c>
-      <c r="B415" s="18" t="s">
+      <c r="B415" s="17" t="s">
         <v>4289</v>
       </c>
-      <c r="C415" s="18" t="s">
+      <c r="C415" s="17" t="s">
         <v>4290</v>
       </c>
     </row>
     <row r="416" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A416" s="18" t="s">
+      <c r="A416" s="17" t="s">
         <v>4213</v>
       </c>
-      <c r="B416" s="18" t="s">
+      <c r="B416" s="17" t="s">
         <v>4291</v>
       </c>
-      <c r="C416" s="18"/>
+      <c r="C416" s="17"/>
     </row>
     <row r="417" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A417" s="18" t="s">
+      <c r="A417" s="17" t="s">
         <v>4214</v>
       </c>
-      <c r="B417" s="18" t="s">
+      <c r="B417" s="17" t="s">
         <v>4292</v>
       </c>
-      <c r="C417" s="18" t="s">
+      <c r="C417" s="17" t="s">
         <v>4293</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A418" s="18" t="s">
+      <c r="A418" s="17" t="s">
         <v>4215</v>
       </c>
-      <c r="B418" s="18" t="s">
+      <c r="B418" s="17" t="s">
         <v>4294</v>
       </c>
-      <c r="C418" s="18" t="s">
+      <c r="C418" s="17" t="s">
         <v>4295</v>
       </c>
     </row>
     <row r="419" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A419" s="18" t="s">
+      <c r="A419" s="17" t="s">
         <v>4216</v>
       </c>
-      <c r="B419" s="18" t="s">
+      <c r="B419" s="17" t="s">
         <v>4296</v>
       </c>
-      <c r="C419" s="18" t="s">
+      <c r="C419" s="17" t="s">
         <v>4297</v>
       </c>
     </row>
     <row r="420" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A420" s="18" t="s">
+      <c r="A420" s="17" t="s">
         <v>4217</v>
       </c>
-      <c r="B420" s="18" t="s">
+      <c r="B420" s="17" t="s">
         <v>4298</v>
       </c>
-      <c r="C420" s="18" t="s">
+      <c r="C420" s="17" t="s">
         <v>4299</v>
       </c>
     </row>
     <row r="421" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A421" s="18" t="s">
+      <c r="A421" s="17" t="s">
         <v>4218</v>
       </c>
-      <c r="B421" s="18" t="s">
+      <c r="B421" s="17" t="s">
         <v>4300</v>
       </c>
-      <c r="C421" s="18" t="s">
+      <c r="C421" s="17" t="s">
         <v>4301</v>
       </c>
     </row>
     <row r="422" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A422" s="18" t="s">
+      <c r="A422" s="17" t="s">
         <v>4219</v>
       </c>
-      <c r="B422" s="18" t="s">
+      <c r="B422" s="17" t="s">
         <v>4302</v>
       </c>
-      <c r="C422" s="18" t="s">
+      <c r="C422" s="17" t="s">
         <v>4303</v>
       </c>
     </row>
     <row r="423" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A423" s="18" t="s">
+      <c r="A423" s="17" t="s">
         <v>4220</v>
       </c>
-      <c r="B423" s="18" t="s">
+      <c r="B423" s="17" t="s">
         <v>4304</v>
       </c>
-      <c r="C423" s="18"/>
+      <c r="C423" s="17"/>
     </row>
     <row r="424" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A424" s="18" t="s">
+      <c r="A424" s="17" t="s">
         <v>4221</v>
       </c>
-      <c r="B424" s="18" t="s">
+      <c r="B424" s="17" t="s">
         <v>4305</v>
       </c>
-      <c r="C424" s="18" t="s">
+      <c r="C424" s="17" t="s">
         <v>4306</v>
       </c>
     </row>
     <row r="425" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A425" s="18" t="s">
+      <c r="A425" s="17" t="s">
         <v>4222</v>
       </c>
-      <c r="B425" s="18" t="s">
+      <c r="B425" s="17" t="s">
         <v>4307</v>
       </c>
-      <c r="C425" s="18"/>
+      <c r="C425" s="17"/>
     </row>
     <row r="426" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A426" s="18" t="s">
+      <c r="A426" s="17" t="s">
         <v>4223</v>
       </c>
-      <c r="B426" s="18" t="s">
+      <c r="B426" s="17" t="s">
         <v>4308</v>
       </c>
-      <c r="C426" s="18"/>
+      <c r="C426" s="17"/>
     </row>
     <row r="427" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A427" s="18" t="s">
+      <c r="A427" s="17" t="s">
         <v>4224</v>
       </c>
-      <c r="B427" s="18" t="s">
+      <c r="B427" s="17" t="s">
         <v>4309</v>
       </c>
-      <c r="C427" s="18" t="s">
+      <c r="C427" s="17" t="s">
         <v>4310</v>
       </c>
     </row>
     <row r="428" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A428" s="18" t="s">
+      <c r="A428" s="17" t="s">
         <v>4225</v>
       </c>
-      <c r="B428" s="18" t="s">
+      <c r="B428" s="17" t="s">
         <v>4311</v>
       </c>
-      <c r="C428" s="18" t="s">
+      <c r="C428" s="17" t="s">
         <v>4312</v>
       </c>
     </row>
     <row r="429" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A429" s="18" t="s">
+      <c r="A429" s="17" t="s">
         <v>4226</v>
       </c>
-      <c r="B429" s="18" t="s">
+      <c r="B429" s="17" t="s">
         <v>4313</v>
       </c>
-      <c r="C429" s="18" t="s">
+      <c r="C429" s="17" t="s">
         <v>4314</v>
       </c>
     </row>
     <row r="430" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A430" s="18" t="s">
+      <c r="A430" s="17" t="s">
         <v>4227</v>
       </c>
-      <c r="B430" s="18" t="s">
+      <c r="B430" s="17" t="s">
         <v>4315</v>
       </c>
-      <c r="C430" s="18" t="s">
+      <c r="C430" s="17" t="s">
         <v>4316</v>
       </c>
     </row>
     <row r="431" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A431" s="18" t="s">
+      <c r="A431" s="17" t="s">
         <v>4228</v>
       </c>
-      <c r="B431" s="18" t="s">
+      <c r="B431" s="17" t="s">
         <v>4317</v>
       </c>
-      <c r="C431" s="18" t="s">
+      <c r="C431" s="17" t="s">
         <v>4318</v>
       </c>
     </row>
     <row r="432" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A432" s="18" t="s">
+      <c r="A432" s="17" t="s">
         <v>4229</v>
       </c>
-      <c r="B432" s="18" t="s">
+      <c r="B432" s="17" t="s">
         <v>4319</v>
       </c>
-      <c r="C432" s="18"/>
+      <c r="C432" s="17"/>
     </row>
     <row r="433" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A433" s="18" t="s">
+      <c r="A433" s="17" t="s">
         <v>4230</v>
       </c>
-      <c r="B433" s="18" t="s">
+      <c r="B433" s="17" t="s">
         <v>4320</v>
       </c>
-      <c r="C433" s="18" t="s">
+      <c r="C433" s="17" t="s">
         <v>4321</v>
       </c>
     </row>
     <row r="434" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A434" s="18" t="s">
+      <c r="A434" s="17" t="s">
         <v>4231</v>
       </c>
-      <c r="B434" s="18" t="s">
+      <c r="B434" s="17" t="s">
         <v>4322</v>
       </c>
-      <c r="C434" s="18"/>
+      <c r="C434" s="17"/>
     </row>
     <row r="435" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A435" s="18" t="s">
+      <c r="A435" s="17" t="s">
         <v>4232</v>
       </c>
-      <c r="B435" s="18" t="s">
+      <c r="B435" s="17" t="s">
         <v>4323</v>
       </c>
-      <c r="C435" s="18"/>
+      <c r="C435" s="17"/>
     </row>
     <row r="436" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A436" s="18" t="s">
+      <c r="A436" s="17" t="s">
         <v>4233</v>
       </c>
-      <c r="B436" s="18" t="s">
+      <c r="B436" s="17" t="s">
         <v>4324</v>
       </c>
-      <c r="C436" s="18"/>
+      <c r="C436" s="17"/>
     </row>
     <row r="437" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A437" s="18" t="s">
+      <c r="A437" s="17" t="s">
         <v>4234</v>
       </c>
-      <c r="B437" s="18" t="s">
+      <c r="B437" s="17" t="s">
         <v>4325</v>
       </c>
-      <c r="C437" s="18"/>
+      <c r="C437" s="17"/>
     </row>
     <row r="438" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A438" s="18" t="s">
+      <c r="A438" s="17" t="s">
         <v>4235</v>
       </c>
-      <c r="B438" s="18" t="s">
+      <c r="B438" s="17" t="s">
         <v>4326</v>
       </c>
-      <c r="C438" s="18" t="s">
+      <c r="C438" s="17" t="s">
         <v>4327</v>
       </c>
     </row>
     <row r="439" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A439" s="18" t="s">
+      <c r="A439" s="17" t="s">
         <v>4236</v>
       </c>
-      <c r="B439" s="18" t="s">
+      <c r="B439" s="17" t="s">
         <v>4328</v>
       </c>
-      <c r="C439" s="18" t="s">
+      <c r="C439" s="17" t="s">
         <v>4329</v>
       </c>
     </row>
     <row r="440" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A440" s="18" t="s">
+      <c r="A440" s="17" t="s">
         <v>4237</v>
       </c>
-      <c r="B440" s="18" t="s">
+      <c r="B440" s="17" t="s">
         <v>4330</v>
       </c>
-      <c r="C440" s="18" t="s">
+      <c r="C440" s="17" t="s">
         <v>4331</v>
       </c>
     </row>
     <row r="441" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A441" s="18" t="s">
+      <c r="A441" s="17" t="s">
         <v>4238</v>
       </c>
-      <c r="B441" s="18" t="s">
+      <c r="B441" s="17" t="s">
         <v>4332</v>
       </c>
-      <c r="C441" s="18" t="s">
+      <c r="C441" s="17" t="s">
         <v>4333</v>
       </c>
     </row>
     <row r="442" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A442" s="18" t="s">
+      <c r="A442" s="17" t="s">
         <v>4239</v>
       </c>
-      <c r="B442" s="18" t="s">
+      <c r="B442" s="17" t="s">
         <v>4334</v>
       </c>
-      <c r="C442" s="18"/>
+      <c r="C442" s="17"/>
     </row>
     <row r="443" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A443" s="18" t="s">
+      <c r="A443" s="17" t="s">
         <v>4240</v>
       </c>
-      <c r="B443" s="18" t="s">
+      <c r="B443" s="17" t="s">
         <v>4335</v>
       </c>
-      <c r="C443" s="18" t="s">
+      <c r="C443" s="17" t="s">
         <v>4336</v>
       </c>
     </row>
     <row r="444" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A444" s="18" t="s">
+      <c r="A444" s="17" t="s">
         <v>4241</v>
       </c>
-      <c r="B444" s="18" t="s">
+      <c r="B444" s="17" t="s">
         <v>4337</v>
       </c>
-      <c r="C444" s="18" t="s">
+      <c r="C444" s="17" t="s">
         <v>4338</v>
       </c>
     </row>
     <row r="445" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A445" s="18" t="s">
+      <c r="A445" s="17" t="s">
         <v>4242</v>
       </c>
-      <c r="B445" s="18" t="s">
+      <c r="B445" s="17" t="s">
         <v>4339</v>
       </c>
-      <c r="C445" s="18" t="s">
+      <c r="C445" s="17" t="s">
         <v>4340</v>
       </c>
     </row>
     <row r="446" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A446" s="18" t="s">
+      <c r="A446" s="17" t="s">
         <v>4243</v>
       </c>
-      <c r="B446" s="18" t="s">
+      <c r="B446" s="17" t="s">
         <v>4341</v>
       </c>
-      <c r="C446" s="18" t="s">
+      <c r="C446" s="17" t="s">
         <v>4342</v>
       </c>
     </row>
     <row r="447" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A447" s="18" t="s">
+      <c r="A447" s="17" t="s">
         <v>4244</v>
       </c>
-      <c r="B447" s="18" t="s">
+      <c r="B447" s="17" t="s">
         <v>4343</v>
       </c>
-      <c r="C447" s="18" t="s">
+      <c r="C447" s="17" t="s">
         <v>4344</v>
       </c>
     </row>
     <row r="448" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A448" s="18" t="s">
+      <c r="A448" s="17" t="s">
         <v>4245</v>
       </c>
-      <c r="B448" s="18" t="s">
+      <c r="B448" s="17" t="s">
         <v>4345</v>
       </c>
-      <c r="C448" s="18" t="s">
+      <c r="C448" s="17" t="s">
         <v>4346</v>
       </c>
     </row>
     <row r="449" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A449" s="18" t="s">
+      <c r="A449" s="17" t="s">
         <v>4246</v>
       </c>
-      <c r="B449" s="18" t="s">
+      <c r="B449" s="17" t="s">
         <v>4347</v>
       </c>
-      <c r="C449" s="18" t="s">
+      <c r="C449" s="17" t="s">
         <v>4348</v>
       </c>
     </row>
     <row r="450" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A450" s="18" t="s">
+      <c r="A450" s="17" t="s">
         <v>4247</v>
       </c>
-      <c r="B450" s="18" t="s">
+      <c r="B450" s="17" t="s">
         <v>4349</v>
       </c>
-      <c r="C450" s="18" t="s">
+      <c r="C450" s="17" t="s">
         <v>4350</v>
       </c>
     </row>
     <row r="451" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A451" s="18" t="s">
+      <c r="A451" s="17" t="s">
         <v>4248</v>
       </c>
-      <c r="B451" s="18" t="s">
+      <c r="B451" s="17" t="s">
         <v>4351</v>
       </c>
-      <c r="C451" s="18"/>
+      <c r="C451" s="17"/>
     </row>
     <row r="452" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A452" s="18" t="s">
+      <c r="A452" s="17" t="s">
         <v>4249</v>
       </c>
-      <c r="B452" s="18" t="s">
+      <c r="B452" s="17" t="s">
         <v>4352</v>
       </c>
-      <c r="C452" s="18" t="s">
+      <c r="C452" s="17" t="s">
         <v>4353</v>
       </c>
     </row>
     <row r="453" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A453" s="18" t="s">
+      <c r="A453" s="17" t="s">
         <v>4250</v>
       </c>
-      <c r="B453" s="18" t="s">
+      <c r="B453" s="17" t="s">
         <v>4354</v>
       </c>
-      <c r="C453" s="18" t="s">
+      <c r="C453" s="17" t="s">
         <v>4355</v>
       </c>
     </row>
     <row r="454" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A454" s="18" t="s">
+      <c r="A454" s="17" t="s">
         <v>4251</v>
       </c>
-      <c r="B454" s="18" t="s">
+      <c r="B454" s="17" t="s">
         <v>4356</v>
       </c>
-      <c r="C454" s="18" t="s">
+      <c r="C454" s="17" t="s">
         <v>4357</v>
       </c>
     </row>
     <row r="455" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A455" s="18" t="s">
+      <c r="A455" s="17" t="s">
         <v>4252</v>
       </c>
-      <c r="B455" s="18" t="s">
+      <c r="B455" s="17" t="s">
         <v>4358</v>
       </c>
-      <c r="C455" s="18" t="s">
+      <c r="C455" s="17" t="s">
         <v>4359</v>
       </c>
     </row>
     <row r="456" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A456" s="18" t="s">
+      <c r="A456" s="17" t="s">
         <v>4253</v>
       </c>
-      <c r="B456" s="18" t="s">
+      <c r="B456" s="17" t="s">
         <v>4360</v>
       </c>
-      <c r="C456" s="18" t="s">
+      <c r="C456" s="17" t="s">
         <v>4361</v>
       </c>
     </row>
     <row r="457" spans="1:3" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A457" s="16" t="s">
+      <c r="A457" s="18" t="s">
         <v>5027</v>
       </c>
-      <c r="B457" s="16"/>
-      <c r="C457" s="16"/>
+      <c r="B457" s="18"/>
+      <c r="C457" s="18"/>
     </row>
     <row r="458" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A458" s="17" t="s">
+      <c r="A458" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B458" s="17" t="s">
+      <c r="B458" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C458" s="17" t="s">
+      <c r="C458" s="16" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="459" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A459" s="18" t="s">
+      <c r="A459" s="17" t="s">
         <v>4362</v>
       </c>
-      <c r="B459" s="18" t="s">
+      <c r="B459" s="17" t="s">
         <v>4430</v>
       </c>
-      <c r="C459" s="18" t="s">
+      <c r="C459" s="17" t="s">
         <v>4431</v>
       </c>
     </row>
     <row r="460" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A460" s="18" t="s">
+      <c r="A460" s="17" t="s">
         <v>4363</v>
       </c>
-      <c r="B460" s="18" t="s">
+      <c r="B460" s="17" t="s">
         <v>4432</v>
       </c>
-      <c r="C460" s="18" t="s">
+      <c r="C460" s="17" t="s">
         <v>4433</v>
       </c>
     </row>
     <row r="461" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A461" s="18" t="s">
+      <c r="A461" s="17" t="s">
         <v>4364</v>
       </c>
-      <c r="B461" s="18" t="s">
+      <c r="B461" s="17" t="s">
         <v>4434</v>
       </c>
-      <c r="C461" s="18" t="s">
+      <c r="C461" s="17" t="s">
         <v>4435</v>
       </c>
     </row>
     <row r="462" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A462" s="18" t="s">
+      <c r="A462" s="17" t="s">
         <v>4365</v>
       </c>
-      <c r="B462" s="18" t="s">
+      <c r="B462" s="17" t="s">
         <v>4436</v>
       </c>
-      <c r="C462" s="18" t="s">
+      <c r="C462" s="17" t="s">
         <v>4437</v>
       </c>
     </row>
     <row r="463" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A463" s="18" t="s">
+      <c r="A463" s="17" t="s">
         <v>4366</v>
       </c>
-      <c r="B463" s="18" t="s">
+      <c r="B463" s="17" t="s">
         <v>4438</v>
       </c>
-      <c r="C463" s="18" t="s">
+      <c r="C463" s="17" t="s">
         <v>4439</v>
       </c>
     </row>
     <row r="464" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A464" s="18" t="s">
+      <c r="A464" s="17" t="s">
         <v>4367</v>
       </c>
-      <c r="B464" s="18" t="s">
+      <c r="B464" s="17" t="s">
         <v>4440</v>
       </c>
-      <c r="C464" s="18" t="s">
+      <c r="C464" s="17" t="s">
         <v>4441</v>
       </c>
     </row>
     <row r="465" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A465" s="18" t="s">
+      <c r="A465" s="17" t="s">
         <v>4368</v>
       </c>
-      <c r="B465" s="18" t="s">
+      <c r="B465" s="17" t="s">
         <v>4442</v>
       </c>
-      <c r="C465" s="18" t="s">
+      <c r="C465" s="17" t="s">
         <v>4443</v>
       </c>
     </row>
     <row r="466" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A466" s="18" t="s">
+      <c r="A466" s="17" t="s">
         <v>4369</v>
       </c>
-      <c r="B466" s="18" t="s">
+      <c r="B466" s="17" t="s">
         <v>4444</v>
       </c>
-      <c r="C466" s="18" t="s">
+      <c r="C466" s="17" t="s">
         <v>4445</v>
       </c>
     </row>
     <row r="467" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A467" s="18" t="s">
+      <c r="A467" s="17" t="s">
         <v>4370</v>
       </c>
-      <c r="B467" s="18" t="s">
+      <c r="B467" s="17" t="s">
         <v>4446</v>
       </c>
-      <c r="C467" s="18" t="s">
+      <c r="C467" s="17" t="s">
         <v>4447</v>
       </c>
     </row>
     <row r="468" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A468" s="18" t="s">
+      <c r="A468" s="17" t="s">
         <v>4371</v>
       </c>
-      <c r="B468" s="18" t="s">
+      <c r="B468" s="17" t="s">
         <v>4448</v>
       </c>
-      <c r="C468" s="18" t="s">
+      <c r="C468" s="17" t="s">
         <v>4449</v>
       </c>
     </row>
     <row r="469" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A469" s="18" t="s">
+      <c r="A469" s="17" t="s">
         <v>4372</v>
       </c>
-      <c r="B469" s="18" t="s">
+      <c r="B469" s="17" t="s">
         <v>4450</v>
       </c>
-      <c r="C469" s="18" t="s">
+      <c r="C469" s="17" t="s">
         <v>4451</v>
       </c>
     </row>
     <row r="470" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A470" s="18" t="s">
+      <c r="A470" s="17" t="s">
         <v>4373</v>
       </c>
-      <c r="B470" s="18" t="s">
+      <c r="B470" s="17" t="s">
         <v>4452</v>
       </c>
-      <c r="C470" s="18" t="s">
+      <c r="C470" s="17" t="s">
         <v>4453</v>
       </c>
     </row>
     <row r="471" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A471" s="18" t="s">
+      <c r="A471" s="17" t="s">
         <v>4374</v>
       </c>
-      <c r="B471" s="18" t="s">
+      <c r="B471" s="17" t="s">
         <v>4454</v>
       </c>
-      <c r="C471" s="18" t="s">
+      <c r="C471" s="17" t="s">
         <v>4455</v>
       </c>
     </row>
     <row r="472" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A472" s="18" t="s">
+      <c r="A472" s="17" t="s">
         <v>4375</v>
       </c>
-      <c r="B472" s="18" t="s">
+      <c r="B472" s="17" t="s">
         <v>4456</v>
       </c>
-      <c r="C472" s="18" t="s">
+      <c r="C472" s="17" t="s">
         <v>4457</v>
       </c>
     </row>
     <row r="473" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A473" s="18" t="s">
+      <c r="A473" s="17" t="s">
         <v>4376</v>
       </c>
-      <c r="B473" s="18" t="s">
+      <c r="B473" s="17" t="s">
         <v>4458</v>
       </c>
-      <c r="C473" s="18" t="s">
+      <c r="C473" s="17" t="s">
         <v>4459</v>
       </c>
     </row>
     <row r="474" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A474" s="18" t="s">
+      <c r="A474" s="17" t="s">
         <v>4377</v>
       </c>
-      <c r="B474" s="18" t="s">
+      <c r="B474" s="17" t="s">
         <v>4460</v>
       </c>
-      <c r="C474" s="18" t="s">
+      <c r="C474" s="17" t="s">
         <v>4461</v>
       </c>
     </row>
     <row r="475" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A475" s="18" t="s">
+      <c r="A475" s="17" t="s">
         <v>4378</v>
       </c>
-      <c r="B475" s="18" t="s">
+      <c r="B475" s="17" t="s">
         <v>4462</v>
       </c>
-      <c r="C475" s="18" t="s">
+      <c r="C475" s="17" t="s">
         <v>4463</v>
       </c>
     </row>
     <row r="476" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A476" s="18" t="s">
+      <c r="A476" s="17" t="s">
         <v>4379</v>
       </c>
-      <c r="B476" s="18" t="s">
+      <c r="B476" s="17" t="s">
         <v>4464</v>
       </c>
-      <c r="C476" s="18" t="s">
+      <c r="C476" s="17" t="s">
         <v>4465</v>
       </c>
     </row>
     <row r="477" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A477" s="18" t="s">
+      <c r="A477" s="17" t="s">
         <v>4380</v>
       </c>
-      <c r="B477" s="18" t="s">
+      <c r="B477" s="17" t="s">
         <v>4466</v>
       </c>
-      <c r="C477" s="18" t="s">
+      <c r="C477" s="17" t="s">
         <v>4467</v>
       </c>
     </row>
     <row r="478" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A478" s="18" t="s">
+      <c r="A478" s="17" t="s">
         <v>4381</v>
       </c>
-      <c r="B478" s="18" t="s">
+      <c r="B478" s="17" t="s">
         <v>4468</v>
       </c>
-      <c r="C478" s="18" t="s">
+      <c r="C478" s="17" t="s">
         <v>4469</v>
       </c>
     </row>
     <row r="479" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A479" s="18" t="s">
+      <c r="A479" s="17" t="s">
         <v>4382</v>
       </c>
-      <c r="B479" s="18" t="s">
+      <c r="B479" s="17" t="s">
         <v>4470</v>
       </c>
-      <c r="C479" s="18" t="s">
+      <c r="C479" s="17" t="s">
         <v>4471</v>
       </c>
     </row>
     <row r="480" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A480" s="18" t="s">
+      <c r="A480" s="17" t="s">
         <v>4383</v>
       </c>
-      <c r="B480" s="18" t="s">
+      <c r="B480" s="17" t="s">
         <v>4472</v>
       </c>
-      <c r="C480" s="18" t="s">
+      <c r="C480" s="17" t="s">
         <v>4473</v>
       </c>
     </row>
     <row r="481" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A481" s="18" t="s">
+      <c r="A481" s="17" t="s">
         <v>4384</v>
       </c>
-      <c r="B481" s="18" t="s">
+      <c r="B481" s="17" t="s">
         <v>3761</v>
       </c>
-      <c r="C481" s="18" t="s">
+      <c r="C481" s="17" t="s">
         <v>4474</v>
       </c>
     </row>
     <row r="482" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A482" s="18" t="s">
+      <c r="A482" s="17" t="s">
         <v>4385</v>
       </c>
-      <c r="B482" s="18" t="s">
+      <c r="B482" s="17" t="s">
         <v>4475</v>
       </c>
-      <c r="C482" s="18" t="s">
+      <c r="C482" s="17" t="s">
         <v>4476</v>
       </c>
     </row>
     <row r="483" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A483" s="18" t="s">
+      <c r="A483" s="17" t="s">
         <v>4386</v>
       </c>
-      <c r="B483" s="18" t="s">
+      <c r="B483" s="17" t="s">
         <v>4477</v>
       </c>
-      <c r="C483" s="18" t="s">
+      <c r="C483" s="17" t="s">
         <v>4478</v>
       </c>
     </row>
     <row r="484" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A484" s="18" t="s">
+      <c r="A484" s="17" t="s">
         <v>4387</v>
       </c>
-      <c r="B484" s="18" t="s">
+      <c r="B484" s="17" t="s">
         <v>4479</v>
       </c>
-      <c r="C484" s="18" t="s">
+      <c r="C484" s="17" t="s">
         <v>4480</v>
       </c>
     </row>
     <row r="485" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A485" s="18" t="s">
+      <c r="A485" s="17" t="s">
         <v>4388</v>
       </c>
-      <c r="B485" s="18" t="s">
+      <c r="B485" s="17" t="s">
         <v>4481</v>
       </c>
-      <c r="C485" s="18" t="s">
+      <c r="C485" s="17" t="s">
         <v>4482</v>
       </c>
     </row>
     <row r="486" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A486" s="18" t="s">
+      <c r="A486" s="17" t="s">
         <v>4389</v>
       </c>
-      <c r="B486" s="18" t="s">
+      <c r="B486" s="17" t="s">
         <v>4483</v>
       </c>
-      <c r="C486" s="18" t="s">
+      <c r="C486" s="17" t="s">
         <v>4484</v>
       </c>
     </row>
     <row r="487" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A487" s="18" t="s">
+      <c r="A487" s="17" t="s">
         <v>4390</v>
       </c>
-      <c r="B487" s="18" t="s">
+      <c r="B487" s="17" t="s">
         <v>4485</v>
       </c>
-      <c r="C487" s="18" t="s">
+      <c r="C487" s="17" t="s">
         <v>4486</v>
       </c>
     </row>
     <row r="488" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A488" s="18" t="s">
+      <c r="A488" s="17" t="s">
         <v>4391</v>
       </c>
-      <c r="B488" s="18" t="s">
+      <c r="B488" s="17" t="s">
         <v>4487</v>
       </c>
-      <c r="C488" s="18" t="s">
+      <c r="C488" s="17" t="s">
         <v>4488</v>
       </c>
     </row>
     <row r="489" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A489" s="18" t="s">
+      <c r="A489" s="17" t="s">
         <v>4392</v>
       </c>
-      <c r="B489" s="18" t="s">
+      <c r="B489" s="17" t="s">
         <v>4489</v>
       </c>
-      <c r="C489" s="18" t="s">
+      <c r="C489" s="17" t="s">
         <v>4490</v>
       </c>
     </row>
     <row r="490" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A490" s="18" t="s">
+      <c r="A490" s="17" t="s">
         <v>4393</v>
       </c>
-      <c r="B490" s="18" t="s">
+      <c r="B490" s="17" t="s">
         <v>4491</v>
       </c>
-      <c r="C490" s="18" t="s">
+      <c r="C490" s="17" t="s">
         <v>4492</v>
       </c>
     </row>
     <row r="491" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A491" s="18" t="s">
+      <c r="A491" s="17" t="s">
         <v>4394</v>
       </c>
-      <c r="B491" s="18" t="s">
+      <c r="B491" s="17" t="s">
         <v>4493</v>
       </c>
-      <c r="C491" s="18" t="s">
+      <c r="C491" s="17" t="s">
         <v>4494</v>
       </c>
     </row>
     <row r="492" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A492" s="18" t="s">
+      <c r="A492" s="17" t="s">
         <v>4395</v>
       </c>
-      <c r="B492" s="18" t="s">
+      <c r="B492" s="17" t="s">
         <v>4495</v>
       </c>
-      <c r="C492" s="18" t="s">
+      <c r="C492" s="17" t="s">
         <v>4496</v>
       </c>
     </row>
     <row r="493" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A493" s="18" t="s">
+      <c r="A493" s="17" t="s">
         <v>4396</v>
       </c>
-      <c r="B493" s="18" t="s">
+      <c r="B493" s="17" t="s">
         <v>4497</v>
       </c>
-      <c r="C493" s="18" t="s">
+      <c r="C493" s="17" t="s">
         <v>4498</v>
       </c>
     </row>
     <row r="494" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A494" s="18" t="s">
+      <c r="A494" s="17" t="s">
         <v>4397</v>
       </c>
-      <c r="B494" s="18" t="s">
+      <c r="B494" s="17" t="s">
         <v>4499</v>
       </c>
-      <c r="C494" s="18" t="s">
+      <c r="C494" s="17" t="s">
         <v>4500</v>
       </c>
     </row>
     <row r="495" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A495" s="18" t="s">
+      <c r="A495" s="17" t="s">
         <v>4398</v>
       </c>
-      <c r="B495" s="18" t="s">
+      <c r="B495" s="17" t="s">
         <v>4501</v>
       </c>
-      <c r="C495" s="18" t="s">
+      <c r="C495" s="17" t="s">
         <v>4502</v>
       </c>
     </row>
     <row r="496" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A496" s="18" t="s">
+      <c r="A496" s="17" t="s">
         <v>4399</v>
       </c>
-      <c r="B496" s="18" t="s">
+      <c r="B496" s="17" t="s">
         <v>4503</v>
       </c>
-      <c r="C496" s="18" t="s">
+      <c r="C496" s="17" t="s">
         <v>4504</v>
       </c>
     </row>
     <row r="497" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A497" s="18" t="s">
+      <c r="A497" s="17" t="s">
         <v>4400</v>
       </c>
-      <c r="B497" s="18" t="s">
+      <c r="B497" s="17" t="s">
         <v>4505</v>
       </c>
-      <c r="C497" s="18" t="s">
+      <c r="C497" s="17" t="s">
         <v>4506</v>
       </c>
     </row>
     <row r="498" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A498" s="18" t="s">
+      <c r="A498" s="17" t="s">
         <v>4401</v>
       </c>
-      <c r="B498" s="18" t="s">
+      <c r="B498" s="17" t="s">
         <v>4507</v>
       </c>
-      <c r="C498" s="18" t="s">
+      <c r="C498" s="17" t="s">
         <v>4508</v>
       </c>
     </row>
     <row r="499" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A499" s="18" t="s">
+      <c r="A499" s="17" t="s">
         <v>4402</v>
       </c>
-      <c r="B499" s="18" t="s">
+      <c r="B499" s="17" t="s">
         <v>4509</v>
       </c>
-      <c r="C499" s="18" t="s">
+      <c r="C499" s="17" t="s">
         <v>4510</v>
       </c>
     </row>
     <row r="500" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A500" s="18" t="s">
+      <c r="A500" s="17" t="s">
         <v>4403</v>
       </c>
-      <c r="B500" s="18" t="s">
+      <c r="B500" s="17" t="s">
         <v>4511</v>
       </c>
-      <c r="C500" s="18" t="s">
+      <c r="C500" s="17" t="s">
         <v>4512</v>
       </c>
     </row>
     <row r="501" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A501" s="18" t="s">
+      <c r="A501" s="17" t="s">
         <v>4404</v>
       </c>
-      <c r="B501" s="18" t="s">
+      <c r="B501" s="17" t="s">
         <v>4513</v>
       </c>
-      <c r="C501" s="18" t="s">
+      <c r="C501" s="17" t="s">
         <v>4514</v>
       </c>
     </row>
     <row r="502" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A502" s="18" t="s">
+      <c r="A502" s="17" t="s">
         <v>4405</v>
       </c>
-      <c r="B502" s="18" t="s">
+      <c r="B502" s="17" t="s">
         <v>4515</v>
       </c>
-      <c r="C502" s="18" t="s">
+      <c r="C502" s="17" t="s">
         <v>4516</v>
       </c>
     </row>
     <row r="503" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A503" s="18" t="s">
+      <c r="A503" s="17" t="s">
         <v>4406</v>
       </c>
-      <c r="B503" s="18" t="s">
+      <c r="B503" s="17" t="s">
         <v>4517</v>
       </c>
-      <c r="C503" s="18" t="s">
+      <c r="C503" s="17" t="s">
         <v>4518</v>
       </c>
     </row>
     <row r="504" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A504" s="18" t="s">
+      <c r="A504" s="17" t="s">
         <v>4407</v>
       </c>
-      <c r="B504" s="18" t="s">
+      <c r="B504" s="17" t="s">
         <v>4519</v>
       </c>
-      <c r="C504" s="18" t="s">
+      <c r="C504" s="17" t="s">
         <v>4520</v>
       </c>
     </row>
     <row r="505" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A505" s="18" t="s">
+      <c r="A505" s="17" t="s">
         <v>4408</v>
       </c>
-      <c r="B505" s="18" t="s">
+      <c r="B505" s="17" t="s">
         <v>4521</v>
       </c>
-      <c r="C505" s="18" t="s">
+      <c r="C505" s="17" t="s">
         <v>4522</v>
       </c>
     </row>
     <row r="506" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A506" s="18" t="s">
+      <c r="A506" s="17" t="s">
         <v>4409</v>
       </c>
-      <c r="B506" s="18" t="s">
+      <c r="B506" s="17" t="s">
         <v>4523</v>
       </c>
-      <c r="C506" s="18" t="s">
+      <c r="C506" s="17" t="s">
         <v>4524</v>
       </c>
     </row>
     <row r="507" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A507" s="18" t="s">
+      <c r="A507" s="17" t="s">
         <v>4410</v>
       </c>
-      <c r="B507" s="18" t="s">
+      <c r="B507" s="17" t="s">
         <v>4525</v>
       </c>
-      <c r="C507" s="18" t="s">
+      <c r="C507" s="17" t="s">
         <v>4526</v>
       </c>
     </row>
     <row r="508" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A508" s="18" t="s">
+      <c r="A508" s="17" t="s">
         <v>4411</v>
       </c>
-      <c r="B508" s="18" t="s">
+      <c r="B508" s="17" t="s">
         <v>4527</v>
       </c>
-      <c r="C508" s="18" t="s">
+      <c r="C508" s="17" t="s">
         <v>4528</v>
       </c>
     </row>
     <row r="509" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A509" s="18" t="s">
+      <c r="A509" s="17" t="s">
         <v>4412</v>
       </c>
-      <c r="B509" s="18" t="s">
+      <c r="B509" s="17" t="s">
         <v>4529</v>
       </c>
-      <c r="C509" s="18" t="s">
+      <c r="C509" s="17" t="s">
         <v>4530</v>
       </c>
     </row>
     <row r="510" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A510" s="18" t="s">
+      <c r="A510" s="17" t="s">
         <v>4413</v>
       </c>
-      <c r="B510" s="18" t="s">
+      <c r="B510" s="17" t="s">
         <v>4531</v>
       </c>
-      <c r="C510" s="18" t="s">
+      <c r="C510" s="17" t="s">
         <v>4532</v>
       </c>
     </row>
     <row r="511" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A511" s="18" t="s">
+      <c r="A511" s="17" t="s">
         <v>4414</v>
       </c>
-      <c r="B511" s="18" t="s">
+      <c r="B511" s="17" t="s">
         <v>4533</v>
       </c>
-      <c r="C511" s="18" t="s">
+      <c r="C511" s="17" t="s">
         <v>4534</v>
       </c>
     </row>
     <row r="512" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A512" s="18" t="s">
+      <c r="A512" s="17" t="s">
         <v>4415</v>
       </c>
-      <c r="B512" s="18" t="s">
+      <c r="B512" s="17" t="s">
         <v>4535</v>
       </c>
-      <c r="C512" s="18" t="s">
+      <c r="C512" s="17" t="s">
         <v>4536</v>
       </c>
     </row>
     <row r="513" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A513" s="18" t="s">
+      <c r="A513" s="17" t="s">
         <v>4416</v>
       </c>
-      <c r="B513" s="18" t="s">
+      <c r="B513" s="17" t="s">
         <v>4537</v>
       </c>
-      <c r="C513" s="18" t="s">
+      <c r="C513" s="17" t="s">
         <v>4538</v>
       </c>
     </row>
     <row r="514" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A514" s="18" t="s">
+      <c r="A514" s="17" t="s">
         <v>3586</v>
       </c>
-      <c r="B514" s="18" t="s">
+      <c r="B514" s="17" t="s">
         <v>3643</v>
       </c>
-      <c r="C514" s="18" t="s">
+      <c r="C514" s="17" t="s">
         <v>4539</v>
       </c>
     </row>
     <row r="515" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A515" s="18" t="s">
+      <c r="A515" s="17" t="s">
         <v>4417</v>
       </c>
-      <c r="B515" s="18" t="s">
+      <c r="B515" s="17" t="s">
         <v>4540</v>
       </c>
-      <c r="C515" s="18" t="s">
+      <c r="C515" s="17" t="s">
         <v>4541</v>
       </c>
     </row>
     <row r="516" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A516" s="18" t="s">
+      <c r="A516" s="17" t="s">
         <v>4418</v>
       </c>
-      <c r="B516" s="18" t="s">
+      <c r="B516" s="17" t="s">
         <v>4542</v>
       </c>
-      <c r="C516" s="18" t="s">
+      <c r="C516" s="17" t="s">
         <v>4543</v>
       </c>
     </row>
     <row r="517" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A517" s="18" t="s">
+      <c r="A517" s="17" t="s">
         <v>4419</v>
       </c>
-      <c r="B517" s="18" t="s">
+      <c r="B517" s="17" t="s">
         <v>4544</v>
       </c>
-      <c r="C517" s="18" t="s">
+      <c r="C517" s="17" t="s">
         <v>4545</v>
       </c>
     </row>
     <row r="518" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A518" s="18" t="s">
+      <c r="A518" s="17" t="s">
         <v>4420</v>
       </c>
-      <c r="B518" s="18" t="s">
+      <c r="B518" s="17" t="s">
         <v>4546</v>
       </c>
-      <c r="C518" s="18" t="s">
+      <c r="C518" s="17" t="s">
         <v>4547</v>
       </c>
     </row>
     <row r="519" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A519" s="18" t="s">
+      <c r="A519" s="17" t="s">
         <v>4421</v>
       </c>
-      <c r="B519" s="18" t="s">
+      <c r="B519" s="17" t="s">
         <v>4548</v>
       </c>
-      <c r="C519" s="18" t="s">
+      <c r="C519" s="17" t="s">
         <v>4549</v>
       </c>
     </row>
     <row r="520" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A520" s="18" t="s">
+      <c r="A520" s="17" t="s">
         <v>4422</v>
       </c>
-      <c r="B520" s="18" t="s">
+      <c r="B520" s="17" t="s">
         <v>4550</v>
       </c>
-      <c r="C520" s="18" t="s">
+      <c r="C520" s="17" t="s">
         <v>4551</v>
       </c>
     </row>
     <row r="521" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A521" s="18" t="s">
+      <c r="A521" s="17" t="s">
         <v>4423</v>
       </c>
-      <c r="B521" s="18" t="s">
+      <c r="B521" s="17" t="s">
         <v>4552</v>
       </c>
-      <c r="C521" s="18" t="s">
+      <c r="C521" s="17" t="s">
         <v>4553</v>
       </c>
     </row>
     <row r="522" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A522" s="18" t="s">
+      <c r="A522" s="17" t="s">
         <v>4424</v>
       </c>
-      <c r="B522" s="18" t="s">
+      <c r="B522" s="17" t="s">
         <v>4554</v>
       </c>
-      <c r="C522" s="18" t="s">
+      <c r="C522" s="17" t="s">
         <v>4555</v>
       </c>
     </row>
     <row r="523" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A523" s="18" t="s">
+      <c r="A523" s="17" t="s">
         <v>4425</v>
       </c>
-      <c r="B523" s="18" t="s">
+      <c r="B523" s="17" t="s">
         <v>4556</v>
       </c>
-      <c r="C523" s="18" t="s">
+      <c r="C523" s="17" t="s">
         <v>4557</v>
       </c>
     </row>
     <row r="524" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A524" s="18" t="s">
+      <c r="A524" s="17" t="s">
         <v>4426</v>
       </c>
-      <c r="B524" s="18" t="s">
+      <c r="B524" s="17" t="s">
         <v>4558</v>
       </c>
-      <c r="C524" s="18" t="s">
+      <c r="C524" s="17" t="s">
         <v>4559</v>
       </c>
     </row>
     <row r="525" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A525" s="18" t="s">
+      <c r="A525" s="17" t="s">
         <v>4427</v>
       </c>
-      <c r="B525" s="18" t="s">
+      <c r="B525" s="17" t="s">
         <v>4560</v>
       </c>
-      <c r="C525" s="18" t="s">
+      <c r="C525" s="17" t="s">
         <v>4561</v>
       </c>
     </row>
     <row r="526" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A526" s="18" t="s">
+      <c r="A526" s="17" t="s">
         <v>3585</v>
       </c>
-      <c r="B526" s="18" t="s">
+      <c r="B526" s="17" t="s">
         <v>4562</v>
       </c>
-      <c r="C526" s="18"/>
+      <c r="C526" s="17"/>
     </row>
     <row r="527" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A527" s="18" t="s">
+      <c r="A527" s="17" t="s">
         <v>4428</v>
       </c>
-      <c r="B527" s="18" t="s">
+      <c r="B527" s="17" t="s">
         <v>4563</v>
       </c>
-      <c r="C527" s="18"/>
+      <c r="C527" s="17"/>
     </row>
     <row r="528" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A528" s="18" t="s">
+      <c r="A528" s="17" t="s">
         <v>4429</v>
       </c>
-      <c r="B528" s="18" t="s">
+      <c r="B528" s="17" t="s">
         <v>4564</v>
       </c>
-      <c r="C528" s="18"/>
+      <c r="C528" s="17"/>
     </row>
     <row r="529" spans="1:3" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A529" s="16" t="s">
+      <c r="A529" s="18" t="s">
         <v>5028</v>
       </c>
-      <c r="B529" s="16"/>
-      <c r="C529" s="16"/>
+      <c r="B529" s="18"/>
+      <c r="C529" s="18"/>
     </row>
     <row r="530" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A530" s="17" t="s">
+      <c r="A530" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B530" s="17" t="s">
+      <c r="B530" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C530" s="17" t="s">
+      <c r="C530" s="16" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="531" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A531" s="18" t="s">
+      <c r="A531" s="17" t="s">
         <v>4565</v>
       </c>
-      <c r="B531" s="18" t="s">
+      <c r="B531" s="17" t="s">
         <v>4611</v>
       </c>
-      <c r="C531" s="18" t="s">
+      <c r="C531" s="17" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="532" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A532" s="18" t="s">
+      <c r="A532" s="17" t="s">
         <v>484</v>
       </c>
-      <c r="B532" s="18" t="s">
+      <c r="B532" s="17" t="s">
         <v>4612</v>
       </c>
-      <c r="C532" s="18" t="s">
+      <c r="C532" s="17" t="s">
         <v>4613</v>
       </c>
     </row>
     <row r="533" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A533" s="18" t="s">
+      <c r="A533" s="17" t="s">
         <v>490</v>
       </c>
-      <c r="B533" s="18" t="s">
+      <c r="B533" s="17" t="s">
         <v>4614</v>
       </c>
-      <c r="C533" s="18" t="s">
+      <c r="C533" s="17" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="534" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A534" s="18" t="s">
+      <c r="A534" s="17" t="s">
         <v>4566</v>
       </c>
-      <c r="B534" s="18" t="s">
+      <c r="B534" s="17" t="s">
         <v>4615</v>
       </c>
-      <c r="C534" s="18" t="s">
+      <c r="C534" s="17" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="535" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A535" s="18" t="s">
+      <c r="A535" s="17" t="s">
         <v>4567</v>
       </c>
-      <c r="B535" s="18" t="s">
+      <c r="B535" s="17" t="s">
         <v>4616</v>
       </c>
-      <c r="C535" s="18" t="s">
+      <c r="C535" s="17" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="536" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A536" s="18" t="s">
+      <c r="A536" s="17" t="s">
         <v>4568</v>
       </c>
-      <c r="B536" s="18" t="s">
+      <c r="B536" s="17" t="s">
         <v>4617</v>
       </c>
-      <c r="C536" s="18" t="s">
+      <c r="C536" s="17" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="537" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A537" s="18" t="s">
+      <c r="A537" s="17" t="s">
         <v>4569</v>
       </c>
-      <c r="B537" s="18" t="s">
+      <c r="B537" s="17" t="s">
         <v>4618</v>
       </c>
-      <c r="C537" s="18" t="s">
+      <c r="C537" s="17" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="538" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A538" s="18" t="s">
+      <c r="A538" s="17" t="s">
         <v>4570</v>
       </c>
-      <c r="B538" s="18" t="s">
+      <c r="B538" s="17" t="s">
         <v>4619</v>
       </c>
-      <c r="C538" s="18" t="s">
+      <c r="C538" s="17" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="539" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A539" s="18" t="s">
+      <c r="A539" s="17" t="s">
         <v>4571</v>
       </c>
-      <c r="B539" s="18" t="s">
+      <c r="B539" s="17" t="s">
         <v>4620</v>
       </c>
-      <c r="C539" s="18" t="s">
+      <c r="C539" s="17" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="540" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A540" s="18" t="s">
+      <c r="A540" s="17" t="s">
         <v>4572</v>
       </c>
-      <c r="B540" s="18" t="s">
+      <c r="B540" s="17" t="s">
         <v>4621</v>
       </c>
-      <c r="C540" s="18" t="s">
+      <c r="C540" s="17" t="s">
         <v>4622</v>
       </c>
     </row>
     <row r="541" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A541" s="18" t="s">
+      <c r="A541" s="17" t="s">
         <v>4573</v>
       </c>
-      <c r="B541" s="18" t="s">
+      <c r="B541" s="17" t="s">
         <v>4623</v>
       </c>
-      <c r="C541" s="18" t="s">
+      <c r="C541" s="17" t="s">
         <v>4624</v>
       </c>
     </row>
     <row r="542" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A542" s="18" t="s">
+      <c r="A542" s="17" t="s">
         <v>4574</v>
       </c>
-      <c r="B542" s="18" t="s">
+      <c r="B542" s="17" t="s">
         <v>4625</v>
       </c>
-      <c r="C542" s="18" t="s">
+      <c r="C542" s="17" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="543" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A543" s="18" t="s">
+      <c r="A543" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="B543" s="18" t="s">
+      <c r="B543" s="17" t="s">
         <v>4626</v>
       </c>
-      <c r="C543" s="18" t="s">
+      <c r="C543" s="17" t="s">
         <v>4627</v>
       </c>
     </row>
     <row r="544" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A544" s="18" t="s">
+      <c r="A544" s="17" t="s">
         <v>532</v>
       </c>
-      <c r="B544" s="18" t="s">
+      <c r="B544" s="17" t="s">
         <v>4628</v>
       </c>
-      <c r="C544" s="18" t="s">
+      <c r="C544" s="17" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="545" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A545" s="18" t="s">
+      <c r="A545" s="17" t="s">
         <v>533</v>
       </c>
-      <c r="B545" s="18" t="s">
+      <c r="B545" s="17" t="s">
         <v>4629</v>
       </c>
-      <c r="C545" s="18" t="s">
+      <c r="C545" s="17" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="546" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A546" s="18" t="s">
+      <c r="A546" s="17" t="s">
         <v>4575</v>
       </c>
-      <c r="B546" s="18" t="s">
+      <c r="B546" s="17" t="s">
         <v>4630</v>
       </c>
-      <c r="C546" s="18" t="s">
+      <c r="C546" s="17" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="547" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A547" s="18" t="s">
+      <c r="A547" s="17" t="s">
         <v>537</v>
       </c>
-      <c r="B547" s="18" t="s">
+      <c r="B547" s="17" t="s">
         <v>4631</v>
       </c>
-      <c r="C547" s="18" t="s">
+      <c r="C547" s="17" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="548" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A548" s="18" t="s">
+      <c r="A548" s="17" t="s">
         <v>538</v>
       </c>
-      <c r="B548" s="18" t="s">
+      <c r="B548" s="17" t="s">
         <v>4632</v>
       </c>
-      <c r="C548" s="18" t="s">
+      <c r="C548" s="17" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="549" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A549" s="18" t="s">
+      <c r="A549" s="17" t="s">
         <v>541</v>
       </c>
-      <c r="B549" s="18" t="s">
+      <c r="B549" s="17" t="s">
         <v>4633</v>
       </c>
-      <c r="C549" s="18" t="s">
+      <c r="C549" s="17" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="550" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A550" s="18" t="s">
+      <c r="A550" s="17" t="s">
         <v>4576</v>
       </c>
-      <c r="B550" s="18" t="s">
+      <c r="B550" s="17" t="s">
         <v>4634</v>
       </c>
-      <c r="C550" s="18" t="s">
+      <c r="C550" s="17" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="551" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A551" s="18" t="s">
+      <c r="A551" s="17" t="s">
         <v>4577</v>
       </c>
-      <c r="B551" s="18" t="s">
+      <c r="B551" s="17" t="s">
         <v>4635</v>
       </c>
-      <c r="C551" s="18" t="s">
+      <c r="C551" s="17" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="552" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A552" s="18" t="s">
+      <c r="A552" s="17" t="s">
         <v>544</v>
       </c>
-      <c r="B552" s="18" t="s">
+      <c r="B552" s="17" t="s">
         <v>4636</v>
       </c>
-      <c r="C552" s="18" t="s">
+      <c r="C552" s="17" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="553" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A553" s="18" t="s">
+      <c r="A553" s="17" t="s">
         <v>545</v>
       </c>
-      <c r="B553" s="18" t="s">
+      <c r="B553" s="17" t="s">
         <v>4637</v>
       </c>
-      <c r="C553" s="18" t="s">
+      <c r="C553" s="17" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="554" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A554" s="18" t="s">
+      <c r="A554" s="17" t="s">
         <v>546</v>
       </c>
-      <c r="B554" s="18" t="s">
+      <c r="B554" s="17" t="s">
         <v>4638</v>
       </c>
-      <c r="C554" s="18" t="s">
+      <c r="C554" s="17" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="555" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A555" s="18" t="s">
+      <c r="A555" s="17" t="s">
         <v>4578</v>
       </c>
-      <c r="B555" s="18" t="s">
+      <c r="B555" s="17" t="s">
         <v>4639</v>
       </c>
-      <c r="C555" s="18" t="s">
+      <c r="C555" s="17" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="556" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A556" s="18" t="s">
+      <c r="A556" s="17" t="s">
         <v>4579</v>
       </c>
-      <c r="B556" s="18" t="s">
+      <c r="B556" s="17" t="s">
         <v>4640</v>
       </c>
-      <c r="C556" s="18" t="s">
+      <c r="C556" s="17" t="s">
         <v>4641</v>
       </c>
     </row>
     <row r="557" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A557" s="18" t="s">
+      <c r="A557" s="17" t="s">
         <v>4580</v>
       </c>
-      <c r="B557" s="18" t="s">
+      <c r="B557" s="17" t="s">
         <v>4642</v>
       </c>
-      <c r="C557" s="18" t="s">
+      <c r="C557" s="17" t="s">
         <v>4643</v>
       </c>
     </row>
     <row r="558" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A558" s="18" t="s">
+      <c r="A558" s="17" t="s">
         <v>4581</v>
       </c>
-      <c r="B558" s="18" t="s">
+      <c r="B558" s="17" t="s">
         <v>4644</v>
       </c>
-      <c r="C558" s="18" t="s">
+      <c r="C558" s="17" t="s">
         <v>4645</v>
       </c>
     </row>
     <row r="559" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A559" s="18" t="s">
+      <c r="A559" s="17" t="s">
         <v>4582</v>
       </c>
-      <c r="B559" s="18" t="s">
+      <c r="B559" s="17" t="s">
         <v>4646</v>
       </c>
-      <c r="C559" s="18" t="s">
+      <c r="C559" s="17" t="s">
         <v>4647</v>
       </c>
     </row>
     <row r="560" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A560" s="18" t="s">
+      <c r="A560" s="17" t="s">
         <v>4583</v>
       </c>
-      <c r="B560" s="18" t="s">
+      <c r="B560" s="17" t="s">
         <v>4648</v>
       </c>
-      <c r="C560" s="18" t="s">
+      <c r="C560" s="17" t="s">
         <v>4649</v>
       </c>
     </row>
     <row r="561" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A561" s="18" t="s">
+      <c r="A561" s="17" t="s">
         <v>4584</v>
       </c>
-      <c r="B561" s="18" t="s">
+      <c r="B561" s="17" t="s">
         <v>4650</v>
       </c>
-      <c r="C561" s="18" t="s">
+      <c r="C561" s="17" t="s">
         <v>4651</v>
       </c>
     </row>
     <row r="562" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A562" s="18" t="s">
+      <c r="A562" s="17" t="s">
         <v>4585</v>
       </c>
-      <c r="B562" s="18" t="s">
+      <c r="B562" s="17" t="s">
         <v>4652</v>
       </c>
-      <c r="C562" s="18" t="s">
+      <c r="C562" s="17" t="s">
         <v>4653</v>
       </c>
     </row>
     <row r="563" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A563" s="18" t="s">
+      <c r="A563" s="17" t="s">
         <v>4586</v>
       </c>
-      <c r="B563" s="18" t="s">
+      <c r="B563" s="17" t="s">
         <v>4654</v>
       </c>
-      <c r="C563" s="18" t="s">
+      <c r="C563" s="17" t="s">
         <v>4655</v>
       </c>
     </row>
     <row r="564" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A564" s="18" t="s">
+      <c r="A564" s="17" t="s">
         <v>4587</v>
       </c>
-      <c r="B564" s="18" t="s">
+      <c r="B564" s="17" t="s">
         <v>4656</v>
       </c>
-      <c r="C564" s="18" t="s">
+      <c r="C564" s="17" t="s">
         <v>4657</v>
       </c>
     </row>
     <row r="565" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A565" s="18" t="s">
+      <c r="A565" s="17" t="s">
         <v>4588</v>
       </c>
-      <c r="B565" s="18" t="s">
+      <c r="B565" s="17" t="s">
         <v>4658</v>
       </c>
-      <c r="C565" s="18" t="s">
+      <c r="C565" s="17" t="s">
         <v>4659</v>
       </c>
     </row>
     <row r="566" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A566" s="18" t="s">
+      <c r="A566" s="17" t="s">
         <v>4589</v>
       </c>
-      <c r="B566" s="18" t="s">
+      <c r="B566" s="17" t="s">
         <v>4660</v>
       </c>
-      <c r="C566" s="18" t="s">
+      <c r="C566" s="17" t="s">
         <v>4661</v>
       </c>
     </row>
     <row r="567" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A567" s="18" t="s">
+      <c r="A567" s="17" t="s">
         <v>4590</v>
       </c>
-      <c r="B567" s="18" t="s">
+      <c r="B567" s="17" t="s">
         <v>4662</v>
       </c>
-      <c r="C567" s="18" t="s">
+      <c r="C567" s="17" t="s">
         <v>4663</v>
       </c>
     </row>
     <row r="568" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A568" s="18" t="s">
+      <c r="A568" s="17" t="s">
         <v>4591</v>
       </c>
-      <c r="B568" s="18" t="s">
+      <c r="B568" s="17" t="s">
         <v>4664</v>
       </c>
-      <c r="C568" s="18" t="s">
+      <c r="C568" s="17" t="s">
         <v>4665</v>
       </c>
     </row>
     <row r="569" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A569" s="18" t="s">
+      <c r="A569" s="17" t="s">
         <v>4592</v>
       </c>
-      <c r="B569" s="18" t="s">
+      <c r="B569" s="17" t="s">
         <v>4666</v>
       </c>
-      <c r="C569" s="18" t="s">
+      <c r="C569" s="17" t="s">
         <v>4667</v>
       </c>
     </row>
     <row r="570" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A570" s="18" t="s">
+      <c r="A570" s="17" t="s">
         <v>4593</v>
       </c>
-      <c r="B570" s="18" t="s">
+      <c r="B570" s="17" t="s">
         <v>4668</v>
       </c>
-      <c r="C570" s="18" t="s">
+      <c r="C570" s="17" t="s">
         <v>4669</v>
       </c>
     </row>
     <row r="571" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A571" s="18" t="s">
+      <c r="A571" s="17" t="s">
         <v>4594</v>
       </c>
-      <c r="B571" s="18" t="s">
+      <c r="B571" s="17" t="s">
         <v>4670</v>
       </c>
-      <c r="C571" s="18" t="s">
+      <c r="C571" s="17" t="s">
         <v>4671</v>
       </c>
     </row>
     <row r="572" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A572" s="18" t="s">
+      <c r="A572" s="17" t="s">
         <v>4595</v>
       </c>
-      <c r="B572" s="18" t="s">
+      <c r="B572" s="17" t="s">
         <v>4672</v>
       </c>
-      <c r="C572" s="18" t="s">
+      <c r="C572" s="17" t="s">
         <v>4673</v>
       </c>
     </row>
     <row r="573" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A573" s="18" t="s">
+      <c r="A573" s="17" t="s">
         <v>4596</v>
       </c>
-      <c r="B573" s="18" t="s">
+      <c r="B573" s="17" t="s">
         <v>4674</v>
       </c>
-      <c r="C573" s="18" t="s">
+      <c r="C573" s="17" t="s">
         <v>4675</v>
       </c>
     </row>
     <row r="574" spans="1:3" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A574" s="18" t="s">
+      <c r="A574" s="17" t="s">
         <v>4597</v>
       </c>
-      <c r="B574" s="18" t="s">
+      <c r="B574" s="17" t="s">
         <v>4676</v>
       </c>
-      <c r="C574" s="18" t="s">
+      <c r="C574" s="17" t="s">
         <v>4677</v>
       </c>
     </row>
     <row r="575" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A575" s="18" t="s">
+      <c r="A575" s="17" t="s">
         <v>4598</v>
       </c>
-      <c r="B575" s="18" t="s">
+      <c r="B575" s="17" t="s">
         <v>4678</v>
       </c>
-      <c r="C575" s="18" t="s">
+      <c r="C575" s="17" t="s">
         <v>4679</v>
       </c>
     </row>
     <row r="576" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A576" s="18" t="s">
+      <c r="A576" s="17" t="s">
         <v>4599</v>
       </c>
-      <c r="B576" s="18" t="s">
+      <c r="B576" s="17" t="s">
         <v>4680</v>
       </c>
-      <c r="C576" s="18" t="s">
+      <c r="C576" s="17" t="s">
         <v>4681</v>
       </c>
     </row>
     <row r="577" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A577" s="18" t="s">
+      <c r="A577" s="17" t="s">
         <v>4600</v>
       </c>
-      <c r="B577" s="18" t="s">
+      <c r="B577" s="17" t="s">
         <v>4682</v>
       </c>
-      <c r="C577" s="18" t="s">
+      <c r="C577" s="17" t="s">
         <v>4683</v>
       </c>
     </row>
     <row r="578" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A578" s="18" t="s">
+      <c r="A578" s="17" t="s">
         <v>4601</v>
       </c>
-      <c r="B578" s="18" t="s">
+      <c r="B578" s="17" t="s">
         <v>4684</v>
       </c>
-      <c r="C578" s="18" t="s">
+      <c r="C578" s="17" t="s">
         <v>4685</v>
       </c>
     </row>
     <row r="579" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A579" s="18" t="s">
+      <c r="A579" s="17" t="s">
         <v>4602</v>
       </c>
-      <c r="B579" s="18" t="s">
+      <c r="B579" s="17" t="s">
         <v>4686</v>
       </c>
-      <c r="C579" s="18" t="s">
+      <c r="C579" s="17" t="s">
         <v>4687</v>
       </c>
     </row>
     <row r="580" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A580" s="18" t="s">
+      <c r="A580" s="17" t="s">
         <v>4603</v>
       </c>
-      <c r="B580" s="18" t="s">
+      <c r="B580" s="17" t="s">
         <v>4688</v>
       </c>
-      <c r="C580" s="18" t="s">
+      <c r="C580" s="17" t="s">
         <v>4689</v>
       </c>
     </row>
     <row r="581" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A581" s="18" t="s">
+      <c r="A581" s="17" t="s">
         <v>4604</v>
       </c>
-      <c r="B581" s="18" t="s">
+      <c r="B581" s="17" t="s">
         <v>4690</v>
       </c>
-      <c r="C581" s="18" t="s">
+      <c r="C581" s="17" t="s">
         <v>4691</v>
       </c>
     </row>
     <row r="582" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A582" s="18" t="s">
+      <c r="A582" s="17" t="s">
         <v>4605</v>
       </c>
-      <c r="B582" s="18" t="s">
+      <c r="B582" s="17" t="s">
         <v>4692</v>
       </c>
-      <c r="C582" s="18" t="s">
+      <c r="C582" s="17" t="s">
         <v>4693</v>
       </c>
     </row>
     <row r="583" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A583" s="18" t="s">
+      <c r="A583" s="17" t="s">
         <v>4606</v>
       </c>
-      <c r="B583" s="18" t="s">
+      <c r="B583" s="17" t="s">
         <v>4694</v>
       </c>
-      <c r="C583" s="18" t="s">
+      <c r="C583" s="17" t="s">
         <v>4695</v>
       </c>
     </row>
     <row r="584" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A584" s="18" t="s">
+      <c r="A584" s="17" t="s">
         <v>4607</v>
       </c>
-      <c r="B584" s="18" t="s">
+      <c r="B584" s="17" t="s">
         <v>4696</v>
       </c>
-      <c r="C584" s="18" t="s">
+      <c r="C584" s="17" t="s">
         <v>4697</v>
       </c>
     </row>
     <row r="585" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A585" s="18" t="s">
+      <c r="A585" s="17" t="s">
         <v>4608</v>
       </c>
-      <c r="B585" s="18" t="s">
+      <c r="B585" s="17" t="s">
         <v>4698</v>
       </c>
-      <c r="C585" s="18" t="s">
+      <c r="C585" s="17" t="s">
         <v>4699</v>
       </c>
     </row>
     <row r="586" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A586" s="18" t="s">
+      <c r="A586" s="17" t="s">
         <v>4609</v>
       </c>
-      <c r="B586" s="18" t="s">
+      <c r="B586" s="17" t="s">
         <v>4700</v>
       </c>
-      <c r="C586" s="18" t="s">
+      <c r="C586" s="17" t="s">
         <v>4701</v>
       </c>
     </row>
     <row r="587" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A587" s="18" t="s">
+      <c r="A587" s="17" t="s">
         <v>4610</v>
       </c>
-      <c r="B587" s="18" t="s">
+      <c r="B587" s="17" t="s">
         <v>4702</v>
       </c>
-      <c r="C587" s="18" t="s">
+      <c r="C587" s="17" t="s">
         <v>4703</v>
       </c>
     </row>
     <row r="588" spans="1:3" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A588" s="16" t="s">
+      <c r="A588" s="18" t="s">
         <v>5029</v>
       </c>
-      <c r="B588" s="16"/>
-      <c r="C588" s="16"/>
+      <c r="B588" s="18"/>
+      <c r="C588" s="18"/>
     </row>
     <row r="589" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A589" s="17" t="s">
+      <c r="A589" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B589" s="17" t="s">
+      <c r="B589" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C589" s="17" t="s">
+      <c r="C589" s="16" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="590" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A590" s="18" t="s">
+      <c r="A590" s="17" t="s">
         <v>4704</v>
       </c>
-      <c r="B590" s="18" t="s">
+      <c r="B590" s="17" t="s">
         <v>4809</v>
       </c>
-      <c r="C590" s="18" t="s">
+      <c r="C590" s="17" t="s">
         <v>4810</v>
       </c>
     </row>
     <row r="591" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A591" s="18" t="s">
+      <c r="A591" s="17" t="s">
         <v>4705</v>
       </c>
-      <c r="B591" s="18" t="s">
+      <c r="B591" s="17" t="s">
         <v>4811</v>
       </c>
-      <c r="C591" s="18" t="s">
+      <c r="C591" s="17" t="s">
         <v>4812</v>
       </c>
     </row>
     <row r="592" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A592" s="18" t="s">
+      <c r="A592" s="17" t="s">
         <v>4706</v>
       </c>
-      <c r="B592" s="18" t="s">
+      <c r="B592" s="17" t="s">
         <v>4813</v>
       </c>
-      <c r="C592" s="18" t="s">
+      <c r="C592" s="17" t="s">
         <v>4814</v>
       </c>
     </row>
     <row r="593" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A593" s="18" t="s">
+      <c r="A593" s="17" t="s">
         <v>4707</v>
       </c>
-      <c r="B593" s="18" t="s">
+      <c r="B593" s="17" t="s">
         <v>4815</v>
       </c>
-      <c r="C593" s="18" t="s">
+      <c r="C593" s="17" t="s">
         <v>4816</v>
       </c>
     </row>
     <row r="594" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A594" s="18" t="s">
+      <c r="A594" s="17" t="s">
         <v>4708</v>
       </c>
-      <c r="B594" s="18" t="s">
+      <c r="B594" s="17" t="s">
         <v>4817</v>
       </c>
-      <c r="C594" s="18" t="s">
+      <c r="C594" s="17" t="s">
         <v>4818</v>
       </c>
     </row>
     <row r="595" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A595" s="18" t="s">
+      <c r="A595" s="17" t="s">
         <v>4709</v>
       </c>
-      <c r="B595" s="18" t="s">
+      <c r="B595" s="17" t="s">
         <v>4819</v>
       </c>
-      <c r="C595" s="18" t="s">
+      <c r="C595" s="17" t="s">
         <v>4820</v>
       </c>
     </row>
     <row r="596" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A596" s="18" t="s">
+      <c r="A596" s="17" t="s">
         <v>4710</v>
       </c>
-      <c r="B596" s="18" t="s">
+      <c r="B596" s="17" t="s">
         <v>4821</v>
       </c>
-      <c r="C596" s="18" t="s">
+      <c r="C596" s="17" t="s">
         <v>4822</v>
       </c>
     </row>
     <row r="597" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A597" s="18" t="s">
+      <c r="A597" s="17" t="s">
         <v>4711</v>
       </c>
-      <c r="B597" s="18" t="s">
+      <c r="B597" s="17" t="s">
         <v>4823</v>
       </c>
-      <c r="C597" s="18" t="s">
+      <c r="C597" s="17" t="s">
         <v>4824</v>
       </c>
     </row>
     <row r="598" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A598" s="18" t="s">
+      <c r="A598" s="17" t="s">
         <v>4712</v>
       </c>
-      <c r="B598" s="18" t="s">
+      <c r="B598" s="17" t="s">
         <v>4825</v>
       </c>
-      <c r="C598" s="18" t="s">
+      <c r="C598" s="17" t="s">
         <v>4826</v>
       </c>
     </row>
     <row r="599" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A599" s="18" t="s">
+      <c r="A599" s="17" t="s">
         <v>4713</v>
       </c>
-      <c r="B599" s="18" t="s">
+      <c r="B599" s="17" t="s">
         <v>4827</v>
       </c>
-      <c r="C599" s="18" t="s">
+      <c r="C599" s="17" t="s">
         <v>4828</v>
       </c>
     </row>
     <row r="600" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A600" s="18" t="s">
+      <c r="A600" s="17" t="s">
         <v>4714</v>
       </c>
-      <c r="B600" s="18" t="s">
+      <c r="B600" s="17" t="s">
         <v>4829</v>
       </c>
-      <c r="C600" s="18" t="s">
+      <c r="C600" s="17" t="s">
         <v>4830</v>
       </c>
     </row>
     <row r="601" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A601" s="18" t="s">
+      <c r="A601" s="17" t="s">
         <v>4715</v>
       </c>
-      <c r="B601" s="18" t="s">
+      <c r="B601" s="17" t="s">
         <v>4831</v>
       </c>
-      <c r="C601" s="18" t="s">
+      <c r="C601" s="17" t="s">
         <v>4832</v>
       </c>
     </row>
     <row r="602" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A602" s="18" t="s">
+      <c r="A602" s="17" t="s">
         <v>4716</v>
       </c>
-      <c r="B602" s="18" t="s">
+      <c r="B602" s="17" t="s">
         <v>4833</v>
       </c>
-      <c r="C602" s="18" t="s">
+      <c r="C602" s="17" t="s">
         <v>4834</v>
       </c>
     </row>
     <row r="603" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A603" s="18" t="s">
+      <c r="A603" s="17" t="s">
         <v>4717</v>
       </c>
-      <c r="B603" s="18" t="s">
+      <c r="B603" s="17" t="s">
         <v>4835</v>
       </c>
-      <c r="C603" s="18" t="s">
+      <c r="C603" s="17" t="s">
         <v>4836</v>
       </c>
     </row>
     <row r="604" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A604" s="18" t="s">
+      <c r="A604" s="17" t="s">
         <v>4718</v>
       </c>
-      <c r="B604" s="18" t="s">
+      <c r="B604" s="17" t="s">
         <v>4837</v>
       </c>
-      <c r="C604" s="18" t="s">
+      <c r="C604" s="17" t="s">
         <v>4838</v>
       </c>
     </row>
     <row r="605" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A605" s="18" t="s">
+      <c r="A605" s="17" t="s">
         <v>4719</v>
       </c>
-      <c r="B605" s="18" t="s">
+      <c r="B605" s="17" t="s">
         <v>4839</v>
       </c>
-      <c r="C605" s="18" t="s">
+      <c r="C605" s="17" t="s">
         <v>4840</v>
       </c>
     </row>
     <row r="606" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A606" s="18" t="s">
+      <c r="A606" s="17" t="s">
         <v>4720</v>
       </c>
-      <c r="B606" s="18" t="s">
+      <c r="B606" s="17" t="s">
         <v>4841</v>
       </c>
-      <c r="C606" s="18" t="s">
+      <c r="C606" s="17" t="s">
         <v>4842</v>
       </c>
     </row>
     <row r="607" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A607" s="18" t="s">
+      <c r="A607" s="17" t="s">
         <v>4721</v>
       </c>
-      <c r="B607" s="18" t="s">
+      <c r="B607" s="17" t="s">
         <v>4843</v>
       </c>
-      <c r="C607" s="18" t="s">
+      <c r="C607" s="17" t="s">
         <v>4844</v>
       </c>
     </row>
     <row r="608" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A608" s="18" t="s">
+      <c r="A608" s="17" t="s">
         <v>4722</v>
       </c>
-      <c r="B608" s="18" t="s">
+      <c r="B608" s="17" t="s">
         <v>4845</v>
       </c>
-      <c r="C608" s="18" t="s">
+      <c r="C608" s="17" t="s">
         <v>4846</v>
       </c>
     </row>
     <row r="609" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A609" s="18" t="s">
+      <c r="A609" s="17" t="s">
         <v>4723</v>
       </c>
-      <c r="B609" s="18" t="s">
+      <c r="B609" s="17" t="s">
         <v>4847</v>
       </c>
-      <c r="C609" s="18" t="s">
+      <c r="C609" s="17" t="s">
         <v>4848</v>
       </c>
     </row>
     <row r="610" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A610" s="18" t="s">
+      <c r="A610" s="17" t="s">
         <v>4724</v>
       </c>
-      <c r="B610" s="18" t="s">
+      <c r="B610" s="17" t="s">
         <v>4849</v>
       </c>
-      <c r="C610" s="18" t="s">
+      <c r="C610" s="17" t="s">
         <v>4850</v>
       </c>
     </row>
     <row r="611" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A611" s="18" t="s">
+      <c r="A611" s="17" t="s">
         <v>4725</v>
       </c>
-      <c r="B611" s="18" t="s">
+      <c r="B611" s="17" t="s">
         <v>4851</v>
       </c>
-      <c r="C611" s="18" t="s">
+      <c r="C611" s="17" t="s">
         <v>4852</v>
       </c>
     </row>
     <row r="612" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A612" s="18" t="s">
+      <c r="A612" s="17" t="s">
         <v>4726</v>
       </c>
-      <c r="B612" s="18" t="s">
+      <c r="B612" s="17" t="s">
         <v>4853</v>
       </c>
-      <c r="C612" s="18" t="s">
+      <c r="C612" s="17" t="s">
         <v>4854</v>
       </c>
     </row>
     <row r="613" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A613" s="18" t="s">
+      <c r="A613" s="17" t="s">
         <v>4727</v>
       </c>
-      <c r="B613" s="18" t="s">
+      <c r="B613" s="17" t="s">
         <v>4855</v>
       </c>
-      <c r="C613" s="18" t="s">
+      <c r="C613" s="17" t="s">
         <v>4856</v>
       </c>
     </row>
     <row r="614" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A614" s="18" t="s">
+      <c r="A614" s="17" t="s">
         <v>4728</v>
       </c>
-      <c r="B614" s="18" t="s">
+      <c r="B614" s="17" t="s">
         <v>4857</v>
       </c>
-      <c r="C614" s="18" t="s">
+      <c r="C614" s="17" t="s">
         <v>4858</v>
       </c>
     </row>
     <row r="615" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A615" s="18" t="s">
+      <c r="A615" s="17" t="s">
         <v>4729</v>
       </c>
-      <c r="B615" s="18" t="s">
+      <c r="B615" s="17" t="s">
         <v>4859</v>
       </c>
-      <c r="C615" s="18" t="s">
+      <c r="C615" s="17" t="s">
         <v>4860</v>
       </c>
     </row>
     <row r="616" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A616" s="18" t="s">
+      <c r="A616" s="17" t="s">
         <v>4730</v>
       </c>
-      <c r="B616" s="18" t="s">
+      <c r="B616" s="17" t="s">
         <v>4861</v>
       </c>
-      <c r="C616" s="18" t="s">
+      <c r="C616" s="17" t="s">
         <v>4862</v>
       </c>
     </row>
     <row r="617" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A617" s="18" t="s">
+      <c r="A617" s="17" t="s">
         <v>4731</v>
       </c>
-      <c r="B617" s="18" t="s">
+      <c r="B617" s="17" t="s">
         <v>4863</v>
       </c>
-      <c r="C617" s="18" t="s">
+      <c r="C617" s="17" t="s">
         <v>4864</v>
       </c>
     </row>
     <row r="618" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A618" s="18" t="s">
+      <c r="A618" s="17" t="s">
         <v>4732</v>
       </c>
-      <c r="B618" s="18" t="s">
+      <c r="B618" s="17" t="s">
         <v>4865</v>
       </c>
-      <c r="C618" s="18" t="s">
+      <c r="C618" s="17" t="s">
         <v>4866</v>
       </c>
     </row>
     <row r="619" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A619" s="18" t="s">
+      <c r="A619" s="17" t="s">
         <v>4733</v>
       </c>
-      <c r="B619" s="18" t="s">
+      <c r="B619" s="17" t="s">
         <v>4867</v>
       </c>
-      <c r="C619" s="18" t="s">
+      <c r="C619" s="17" t="s">
         <v>4868</v>
       </c>
     </row>
     <row r="620" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A620" s="18" t="s">
+      <c r="A620" s="17" t="s">
         <v>4734</v>
       </c>
-      <c r="B620" s="18" t="s">
+      <c r="B620" s="17" t="s">
         <v>4869</v>
       </c>
-      <c r="C620" s="18" t="s">
+      <c r="C620" s="17" t="s">
         <v>4870</v>
       </c>
     </row>
     <row r="621" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A621" s="18" t="s">
+      <c r="A621" s="17" t="s">
         <v>4735</v>
       </c>
-      <c r="B621" s="18" t="s">
+      <c r="B621" s="17" t="s">
         <v>4871</v>
       </c>
-      <c r="C621" s="18" t="s">
+      <c r="C621" s="17" t="s">
         <v>4872</v>
       </c>
     </row>
     <row r="622" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A622" s="18" t="s">
+      <c r="A622" s="17" t="s">
         <v>4736</v>
       </c>
-      <c r="B622" s="18" t="s">
+      <c r="B622" s="17" t="s">
         <v>4873</v>
       </c>
-      <c r="C622" s="18" t="s">
+      <c r="C622" s="17" t="s">
         <v>4874</v>
       </c>
     </row>
     <row r="623" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A623" s="18" t="s">
+      <c r="A623" s="17" t="s">
         <v>4737</v>
       </c>
-      <c r="B623" s="18" t="s">
+      <c r="B623" s="17" t="s">
         <v>4875</v>
       </c>
-      <c r="C623" s="18" t="s">
+      <c r="C623" s="17" t="s">
         <v>4876</v>
       </c>
     </row>
     <row r="624" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A624" s="18" t="s">
+      <c r="A624" s="17" t="s">
         <v>4738</v>
       </c>
-      <c r="B624" s="18" t="s">
+      <c r="B624" s="17" t="s">
         <v>4877</v>
       </c>
-      <c r="C624" s="18" t="s">
+      <c r="C624" s="17" t="s">
         <v>4878</v>
       </c>
     </row>
     <row r="625" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A625" s="18" t="s">
+      <c r="A625" s="17" t="s">
         <v>4739</v>
       </c>
-      <c r="B625" s="18" t="s">
+      <c r="B625" s="17" t="s">
         <v>4879</v>
       </c>
-      <c r="C625" s="18" t="s">
+      <c r="C625" s="17" t="s">
         <v>4880</v>
       </c>
     </row>
     <row r="626" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A626" s="18" t="s">
+      <c r="A626" s="17" t="s">
         <v>4740</v>
       </c>
-      <c r="B626" s="18" t="s">
+      <c r="B626" s="17" t="s">
         <v>4881</v>
       </c>
-      <c r="C626" s="18" t="s">
+      <c r="C626" s="17" t="s">
         <v>4882</v>
       </c>
     </row>
     <row r="627" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A627" s="18" t="s">
+      <c r="A627" s="17" t="s">
         <v>4741</v>
       </c>
-      <c r="B627" s="18" t="s">
+      <c r="B627" s="17" t="s">
         <v>4883</v>
       </c>
-      <c r="C627" s="18" t="s">
+      <c r="C627" s="17" t="s">
         <v>4884</v>
       </c>
     </row>
     <row r="628" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A628" s="18" t="s">
+      <c r="A628" s="17" t="s">
         <v>4742</v>
       </c>
-      <c r="B628" s="18" t="s">
+      <c r="B628" s="17" t="s">
         <v>4885</v>
       </c>
-      <c r="C628" s="18" t="s">
+      <c r="C628" s="17" t="s">
         <v>4886</v>
       </c>
     </row>
     <row r="629" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A629" s="18" t="s">
+      <c r="A629" s="17" t="s">
         <v>4743</v>
       </c>
-      <c r="B629" s="18" t="s">
+      <c r="B629" s="17" t="s">
         <v>4887</v>
       </c>
-      <c r="C629" s="18" t="s">
+      <c r="C629" s="17" t="s">
         <v>4888</v>
       </c>
     </row>
     <row r="630" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A630" s="18" t="s">
+      <c r="A630" s="17" t="s">
         <v>4744</v>
       </c>
-      <c r="B630" s="18" t="s">
+      <c r="B630" s="17" t="s">
         <v>4889</v>
       </c>
-      <c r="C630" s="18" t="s">
+      <c r="C630" s="17" t="s">
         <v>4890</v>
       </c>
     </row>
     <row r="631" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A631" s="18" t="s">
+      <c r="A631" s="17" t="s">
         <v>4745</v>
       </c>
-      <c r="B631" s="18" t="s">
+      <c r="B631" s="17" t="s">
         <v>4891</v>
       </c>
-      <c r="C631" s="18" t="s">
+      <c r="C631" s="17" t="s">
         <v>4892</v>
       </c>
     </row>
     <row r="632" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A632" s="18" t="s">
+      <c r="A632" s="17" t="s">
         <v>4746</v>
       </c>
-      <c r="B632" s="18" t="s">
+      <c r="B632" s="17" t="s">
         <v>4893</v>
       </c>
-      <c r="C632" s="18" t="s">
+      <c r="C632" s="17" t="s">
         <v>4894</v>
       </c>
     </row>
     <row r="633" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A633" s="18" t="s">
+      <c r="A633" s="17" t="s">
         <v>4747</v>
       </c>
-      <c r="B633" s="18" t="s">
+      <c r="B633" s="17" t="s">
         <v>4895</v>
       </c>
-      <c r="C633" s="18" t="s">
+      <c r="C633" s="17" t="s">
         <v>4896</v>
       </c>
     </row>
     <row r="634" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A634" s="18" t="s">
+      <c r="A634" s="17" t="s">
         <v>4748</v>
       </c>
-      <c r="B634" s="18" t="s">
+      <c r="B634" s="17" t="s">
         <v>4897</v>
       </c>
-      <c r="C634" s="18" t="s">
+      <c r="C634" s="17" t="s">
         <v>4898</v>
       </c>
     </row>
     <row r="635" spans="1:3" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A635" s="18" t="s">
+      <c r="A635" s="17" t="s">
         <v>4749</v>
       </c>
-      <c r="B635" s="18" t="s">
+      <c r="B635" s="17" t="s">
         <v>4899</v>
       </c>
-      <c r="C635" s="18" t="s">
+      <c r="C635" s="17" t="s">
         <v>4900</v>
       </c>
     </row>
     <row r="636" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A636" s="18" t="s">
+      <c r="A636" s="17" t="s">
         <v>4750</v>
       </c>
-      <c r="B636" s="18" t="s">
+      <c r="B636" s="17" t="s">
         <v>4901</v>
       </c>
-      <c r="C636" s="18" t="s">
+      <c r="C636" s="17" t="s">
         <v>4902</v>
       </c>
     </row>
     <row r="637" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A637" s="18" t="s">
+      <c r="A637" s="17" t="s">
         <v>4751</v>
       </c>
-      <c r="B637" s="18" t="s">
+      <c r="B637" s="17" t="s">
         <v>4903</v>
       </c>
-      <c r="C637" s="18" t="s">
+      <c r="C637" s="17" t="s">
         <v>4904</v>
       </c>
     </row>
     <row r="638" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A638" s="18" t="s">
+      <c r="A638" s="17" t="s">
         <v>4752</v>
       </c>
-      <c r="B638" s="18" t="s">
+      <c r="B638" s="17" t="s">
         <v>4905</v>
       </c>
-      <c r="C638" s="18" t="s">
+      <c r="C638" s="17" t="s">
         <v>4906</v>
       </c>
     </row>
     <row r="639" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A639" s="18" t="s">
+      <c r="A639" s="17" t="s">
         <v>4753</v>
       </c>
-      <c r="B639" s="18" t="s">
+      <c r="B639" s="17" t="s">
         <v>4907</v>
       </c>
-      <c r="C639" s="18" t="s">
+      <c r="C639" s="17" t="s">
         <v>4908</v>
       </c>
     </row>
     <row r="640" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A640" s="18" t="s">
+      <c r="A640" s="17" t="s">
         <v>4754</v>
       </c>
-      <c r="B640" s="18" t="s">
+      <c r="B640" s="17" t="s">
         <v>4909</v>
       </c>
-      <c r="C640" s="18" t="s">
+      <c r="C640" s="17" t="s">
         <v>4910</v>
       </c>
     </row>
     <row r="641" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A641" s="18" t="s">
+      <c r="A641" s="17" t="s">
         <v>4755</v>
       </c>
-      <c r="B641" s="18" t="s">
+      <c r="B641" s="17" t="s">
         <v>4911</v>
       </c>
-      <c r="C641" s="18" t="s">
+      <c r="C641" s="17" t="s">
         <v>4912</v>
       </c>
     </row>
     <row r="642" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A642" s="18" t="s">
+      <c r="A642" s="17" t="s">
         <v>4756</v>
       </c>
-      <c r="B642" s="18" t="s">
+      <c r="B642" s="17" t="s">
         <v>4913</v>
       </c>
-      <c r="C642" s="18" t="s">
+      <c r="C642" s="17" t="s">
         <v>4914</v>
       </c>
     </row>
     <row r="643" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A643" s="18" t="s">
+      <c r="A643" s="17" t="s">
         <v>4757</v>
       </c>
-      <c r="B643" s="18" t="s">
+      <c r="B643" s="17" t="s">
         <v>4915</v>
       </c>
-      <c r="C643" s="18" t="s">
+      <c r="C643" s="17" t="s">
         <v>4916</v>
       </c>
     </row>
     <row r="644" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A644" s="18" t="s">
+      <c r="A644" s="17" t="s">
         <v>4758</v>
       </c>
-      <c r="B644" s="18" t="s">
+      <c r="B644" s="17" t="s">
         <v>4917</v>
       </c>
-      <c r="C644" s="18" t="s">
+      <c r="C644" s="17" t="s">
         <v>4918</v>
       </c>
     </row>
     <row r="645" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A645" s="18" t="s">
+      <c r="A645" s="17" t="s">
         <v>4759</v>
       </c>
-      <c r="B645" s="18" t="s">
+      <c r="B645" s="17" t="s">
         <v>4919</v>
       </c>
-      <c r="C645" s="18" t="s">
+      <c r="C645" s="17" t="s">
         <v>4920</v>
       </c>
     </row>
     <row r="646" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A646" s="18" t="s">
+      <c r="A646" s="17" t="s">
         <v>4760</v>
       </c>
-      <c r="B646" s="18" t="s">
+      <c r="B646" s="17" t="s">
         <v>4921</v>
       </c>
-      <c r="C646" s="18" t="s">
+      <c r="C646" s="17" t="s">
         <v>4922</v>
       </c>
     </row>
     <row r="647" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A647" s="18" t="s">
+      <c r="A647" s="17" t="s">
         <v>4761</v>
       </c>
-      <c r="B647" s="18" t="s">
+      <c r="B647" s="17" t="s">
         <v>4923</v>
       </c>
-      <c r="C647" s="18" t="s">
+      <c r="C647" s="17" t="s">
         <v>4924</v>
       </c>
     </row>
     <row r="648" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A648" s="18" t="s">
+      <c r="A648" s="17" t="s">
         <v>4762</v>
       </c>
-      <c r="B648" s="18" t="s">
+      <c r="B648" s="17" t="s">
         <v>4925</v>
       </c>
-      <c r="C648" s="18" t="s">
+      <c r="C648" s="17" t="s">
         <v>4926</v>
       </c>
     </row>
     <row r="649" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A649" s="18" t="s">
+      <c r="A649" s="17" t="s">
         <v>4763</v>
       </c>
-      <c r="B649" s="18" t="s">
+      <c r="B649" s="17" t="s">
         <v>4927</v>
       </c>
-      <c r="C649" s="18" t="s">
+      <c r="C649" s="17" t="s">
         <v>4928</v>
       </c>
     </row>
     <row r="650" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A650" s="18" t="s">
+      <c r="A650" s="17" t="s">
         <v>4764</v>
       </c>
-      <c r="B650" s="18" t="s">
+      <c r="B650" s="17" t="s">
         <v>4929</v>
       </c>
-      <c r="C650" s="18" t="s">
+      <c r="C650" s="17" t="s">
         <v>4930</v>
       </c>
     </row>
     <row r="651" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A651" s="18" t="s">
+      <c r="A651" s="17" t="s">
         <v>4765</v>
       </c>
-      <c r="B651" s="18" t="s">
+      <c r="B651" s="17" t="s">
         <v>4931</v>
       </c>
-      <c r="C651" s="18" t="s">
+      <c r="C651" s="17" t="s">
         <v>4932</v>
       </c>
     </row>
     <row r="652" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A652" s="18" t="s">
+      <c r="A652" s="17" t="s">
         <v>4766</v>
       </c>
-      <c r="B652" s="18" t="s">
+      <c r="B652" s="17" t="s">
         <v>4933</v>
       </c>
-      <c r="C652" s="18" t="s">
+      <c r="C652" s="17" t="s">
         <v>4934</v>
       </c>
     </row>
     <row r="653" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A653" s="18" t="s">
+      <c r="A653" s="17" t="s">
         <v>4767</v>
       </c>
-      <c r="B653" s="18" t="s">
+      <c r="B653" s="17" t="s">
         <v>4935</v>
       </c>
-      <c r="C653" s="18" t="s">
+      <c r="C653" s="17" t="s">
         <v>4936</v>
       </c>
     </row>
     <row r="654" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A654" s="18" t="s">
+      <c r="A654" s="17" t="s">
         <v>4768</v>
       </c>
-      <c r="B654" s="18" t="s">
+      <c r="B654" s="17" t="s">
         <v>4937</v>
       </c>
-      <c r="C654" s="18" t="s">
+      <c r="C654" s="17" t="s">
         <v>4938</v>
       </c>
     </row>
     <row r="655" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A655" s="18" t="s">
+      <c r="A655" s="17" t="s">
         <v>4769</v>
       </c>
-      <c r="B655" s="18" t="s">
+      <c r="B655" s="17" t="s">
         <v>4939</v>
       </c>
-      <c r="C655" s="18" t="s">
+      <c r="C655" s="17" t="s">
         <v>4940</v>
       </c>
     </row>
     <row r="656" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A656" s="18" t="s">
+      <c r="A656" s="17" t="s">
         <v>4770</v>
       </c>
-      <c r="B656" s="18" t="s">
+      <c r="B656" s="17" t="s">
         <v>4941</v>
       </c>
-      <c r="C656" s="18" t="s">
+      <c r="C656" s="17" t="s">
         <v>4942</v>
       </c>
     </row>
     <row r="657" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A657" s="18" t="s">
+      <c r="A657" s="17" t="s">
         <v>4771</v>
       </c>
-      <c r="B657" s="18" t="s">
+      <c r="B657" s="17" t="s">
         <v>4943</v>
       </c>
-      <c r="C657" s="18" t="s">
+      <c r="C657" s="17" t="s">
         <v>4944</v>
       </c>
     </row>
     <row r="658" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A658" s="18" t="s">
+      <c r="A658" s="17" t="s">
         <v>4772</v>
       </c>
-      <c r="B658" s="18" t="s">
+      <c r="B658" s="17" t="s">
         <v>4945</v>
       </c>
-      <c r="C658" s="18" t="s">
+      <c r="C658" s="17" t="s">
         <v>4946</v>
       </c>
     </row>
     <row r="659" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A659" s="18" t="s">
+      <c r="A659" s="17" t="s">
         <v>4773</v>
       </c>
-      <c r="B659" s="18" t="s">
+      <c r="B659" s="17" t="s">
         <v>4947</v>
       </c>
-      <c r="C659" s="18" t="s">
+      <c r="C659" s="17" t="s">
         <v>4948</v>
       </c>
     </row>
     <row r="660" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A660" s="18" t="s">
+      <c r="A660" s="17" t="s">
         <v>4774</v>
       </c>
-      <c r="B660" s="18" t="s">
+      <c r="B660" s="17" t="s">
         <v>4949</v>
       </c>
-      <c r="C660" s="18" t="s">
+      <c r="C660" s="17" t="s">
         <v>4950</v>
       </c>
     </row>
     <row r="661" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A661" s="18" t="s">
+      <c r="A661" s="17" t="s">
         <v>4775</v>
       </c>
-      <c r="B661" s="18" t="s">
+      <c r="B661" s="17" t="s">
         <v>4951</v>
       </c>
-      <c r="C661" s="18" t="s">
+      <c r="C661" s="17" t="s">
         <v>4952</v>
       </c>
     </row>
     <row r="662" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A662" s="18" t="s">
+      <c r="A662" s="17" t="s">
         <v>4776</v>
       </c>
-      <c r="B662" s="18" t="s">
+      <c r="B662" s="17" t="s">
         <v>4953</v>
       </c>
-      <c r="C662" s="18" t="s">
+      <c r="C662" s="17" t="s">
         <v>4954</v>
       </c>
     </row>
     <row r="663" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A663" s="18" t="s">
+      <c r="A663" s="17" t="s">
         <v>4777</v>
       </c>
-      <c r="B663" s="18" t="s">
+      <c r="B663" s="17" t="s">
         <v>4955</v>
       </c>
-      <c r="C663" s="18" t="s">
+      <c r="C663" s="17" t="s">
         <v>4956</v>
       </c>
     </row>
     <row r="664" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A664" s="18" t="s">
+      <c r="A664" s="17" t="s">
         <v>4778</v>
       </c>
-      <c r="B664" s="18" t="s">
+      <c r="B664" s="17" t="s">
         <v>4957</v>
       </c>
-      <c r="C664" s="18" t="s">
+      <c r="C664" s="17" t="s">
         <v>4958</v>
       </c>
     </row>
     <row r="665" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A665" s="18" t="s">
+      <c r="A665" s="17" t="s">
         <v>4779</v>
       </c>
-      <c r="B665" s="18" t="s">
+      <c r="B665" s="17" t="s">
         <v>4959</v>
       </c>
-      <c r="C665" s="18" t="s">
+      <c r="C665" s="17" t="s">
         <v>4960</v>
       </c>
     </row>
     <row r="666" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A666" s="18" t="s">
+      <c r="A666" s="17" t="s">
         <v>4780</v>
       </c>
-      <c r="B666" s="18" t="s">
+      <c r="B666" s="17" t="s">
         <v>4961</v>
       </c>
-      <c r="C666" s="18" t="s">
+      <c r="C666" s="17" t="s">
         <v>4962</v>
       </c>
     </row>
     <row r="667" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A667" s="18" t="s">
+      <c r="A667" s="17" t="s">
         <v>4781</v>
       </c>
-      <c r="B667" s="18" t="s">
+      <c r="B667" s="17" t="s">
         <v>4963</v>
       </c>
-      <c r="C667" s="18" t="s">
+      <c r="C667" s="17" t="s">
         <v>4964</v>
       </c>
     </row>
     <row r="668" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A668" s="18" t="s">
+      <c r="A668" s="17" t="s">
         <v>4782</v>
       </c>
-      <c r="B668" s="18" t="s">
+      <c r="B668" s="17" t="s">
         <v>4965</v>
       </c>
-      <c r="C668" s="18" t="s">
+      <c r="C668" s="17" t="s">
         <v>4966</v>
       </c>
     </row>
     <row r="669" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A669" s="18" t="s">
+      <c r="A669" s="17" t="s">
         <v>4783</v>
       </c>
-      <c r="B669" s="18" t="s">
+      <c r="B669" s="17" t="s">
         <v>4967</v>
       </c>
-      <c r="C669" s="18" t="s">
+      <c r="C669" s="17" t="s">
         <v>4968</v>
       </c>
     </row>
     <row r="670" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A670" s="18" t="s">
+      <c r="A670" s="17" t="s">
         <v>4784</v>
       </c>
-      <c r="B670" s="18" t="s">
+      <c r="B670" s="17" t="s">
         <v>4969</v>
       </c>
-      <c r="C670" s="18" t="s">
+      <c r="C670" s="17" t="s">
         <v>4970</v>
       </c>
     </row>
     <row r="671" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A671" s="18" t="s">
+      <c r="A671" s="17" t="s">
         <v>4785</v>
       </c>
-      <c r="B671" s="18" t="s">
+      <c r="B671" s="17" t="s">
         <v>4971</v>
       </c>
-      <c r="C671" s="18" t="s">
+      <c r="C671" s="17" t="s">
         <v>4972</v>
       </c>
     </row>
     <row r="672" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A672" s="18" t="s">
+      <c r="A672" s="17" t="s">
         <v>4786</v>
       </c>
-      <c r="B672" s="18" t="s">
+      <c r="B672" s="17" t="s">
         <v>4973</v>
       </c>
-      <c r="C672" s="18" t="s">
+      <c r="C672" s="17" t="s">
         <v>4974</v>
       </c>
     </row>
     <row r="673" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A673" s="18" t="s">
+      <c r="A673" s="17" t="s">
         <v>4787</v>
       </c>
-      <c r="B673" s="18" t="s">
+      <c r="B673" s="17" t="s">
         <v>4975</v>
       </c>
-      <c r="C673" s="18" t="s">
+      <c r="C673" s="17" t="s">
         <v>4976</v>
       </c>
     </row>
     <row r="674" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A674" s="18" t="s">
+      <c r="A674" s="17" t="s">
         <v>4788</v>
       </c>
-      <c r="B674" s="18" t="s">
+      <c r="B674" s="17" t="s">
         <v>4977</v>
       </c>
-      <c r="C674" s="18" t="s">
+      <c r="C674" s="17" t="s">
         <v>4978</v>
       </c>
     </row>
     <row r="675" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A675" s="18" t="s">
+      <c r="A675" s="17" t="s">
         <v>4789</v>
       </c>
-      <c r="B675" s="18" t="s">
+      <c r="B675" s="17" t="s">
         <v>4979</v>
       </c>
-      <c r="C675" s="18" t="s">
+      <c r="C675" s="17" t="s">
         <v>4980</v>
       </c>
     </row>
     <row r="676" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A676" s="18" t="s">
+      <c r="A676" s="17" t="s">
         <v>4790</v>
       </c>
-      <c r="B676" s="18" t="s">
+      <c r="B676" s="17" t="s">
         <v>4981</v>
       </c>
-      <c r="C676" s="18" t="s">
+      <c r="C676" s="17" t="s">
         <v>4982</v>
       </c>
     </row>
     <row r="677" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A677" s="18" t="s">
+      <c r="A677" s="17" t="s">
         <v>4791</v>
       </c>
-      <c r="B677" s="18" t="s">
+      <c r="B677" s="17" t="s">
         <v>4983</v>
       </c>
-      <c r="C677" s="18" t="s">
+      <c r="C677" s="17" t="s">
         <v>4984</v>
       </c>
     </row>
     <row r="678" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A678" s="18" t="s">
+      <c r="A678" s="17" t="s">
         <v>4792</v>
       </c>
-      <c r="B678" s="18" t="s">
+      <c r="B678" s="17" t="s">
         <v>4985</v>
       </c>
-      <c r="C678" s="18" t="s">
+      <c r="C678" s="17" t="s">
         <v>4986</v>
       </c>
     </row>
     <row r="679" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A679" s="18" t="s">
+      <c r="A679" s="17" t="s">
         <v>4793</v>
       </c>
-      <c r="B679" s="18" t="s">
+      <c r="B679" s="17" t="s">
         <v>4987</v>
       </c>
-      <c r="C679" s="18" t="s">
+      <c r="C679" s="17" t="s">
         <v>4988</v>
       </c>
     </row>
     <row r="680" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A680" s="18" t="s">
+      <c r="A680" s="17" t="s">
         <v>4794</v>
       </c>
-      <c r="B680" s="18" t="s">
+      <c r="B680" s="17" t="s">
         <v>4989</v>
       </c>
-      <c r="C680" s="18" t="s">
+      <c r="C680" s="17" t="s">
         <v>4990</v>
       </c>
     </row>
     <row r="681" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A681" s="18" t="s">
+      <c r="A681" s="17" t="s">
         <v>4795</v>
       </c>
-      <c r="B681" s="18" t="s">
+      <c r="B681" s="17" t="s">
         <v>4991</v>
       </c>
-      <c r="C681" s="18" t="s">
+      <c r="C681" s="17" t="s">
         <v>4992</v>
       </c>
     </row>
     <row r="682" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A682" s="18" t="s">
+      <c r="A682" s="17" t="s">
         <v>4796</v>
       </c>
-      <c r="B682" s="18" t="s">
+      <c r="B682" s="17" t="s">
         <v>4989</v>
       </c>
-      <c r="C682" s="18" t="s">
+      <c r="C682" s="17" t="s">
         <v>4993</v>
       </c>
     </row>
     <row r="683" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A683" s="18" t="s">
+      <c r="A683" s="17" t="s">
         <v>4797</v>
       </c>
-      <c r="B683" s="18" t="s">
+      <c r="B683" s="17" t="s">
         <v>4994</v>
       </c>
-      <c r="C683" s="18" t="s">
+      <c r="C683" s="17" t="s">
         <v>4995</v>
       </c>
     </row>
     <row r="684" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A684" s="18" t="s">
+      <c r="A684" s="17" t="s">
         <v>4798</v>
       </c>
-      <c r="B684" s="18" t="s">
+      <c r="B684" s="17" t="s">
         <v>4996</v>
       </c>
-      <c r="C684" s="18" t="s">
+      <c r="C684" s="17" t="s">
         <v>4997</v>
       </c>
     </row>
     <row r="685" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A685" s="18" t="s">
+      <c r="A685" s="17" t="s">
         <v>4799</v>
       </c>
-      <c r="B685" s="18" t="s">
+      <c r="B685" s="17" t="s">
         <v>4998</v>
       </c>
-      <c r="C685" s="18" t="s">
+      <c r="C685" s="17" t="s">
         <v>4999</v>
       </c>
     </row>
     <row r="686" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A686" s="18" t="s">
+      <c r="A686" s="17" t="s">
         <v>4800</v>
       </c>
-      <c r="B686" s="18" t="s">
+      <c r="B686" s="17" t="s">
         <v>5000</v>
       </c>
-      <c r="C686" s="18" t="s">
+      <c r="C686" s="17" t="s">
         <v>5001</v>
       </c>
     </row>
     <row r="687" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A687" s="18" t="s">
+      <c r="A687" s="17" t="s">
         <v>4801</v>
       </c>
-      <c r="B687" s="18" t="s">
+      <c r="B687" s="17" t="s">
         <v>5002</v>
       </c>
-      <c r="C687" s="18" t="s">
+      <c r="C687" s="17" t="s">
         <v>5003</v>
       </c>
     </row>
     <row r="688" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A688" s="18" t="s">
+      <c r="A688" s="17" t="s">
         <v>4802</v>
       </c>
-      <c r="B688" s="18" t="s">
+      <c r="B688" s="17" t="s">
         <v>5004</v>
       </c>
-      <c r="C688" s="18" t="s">
+      <c r="C688" s="17" t="s">
         <v>5005</v>
       </c>
     </row>
     <row r="689" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A689" s="18" t="s">
+      <c r="A689" s="17" t="s">
         <v>4803</v>
       </c>
-      <c r="B689" s="18" t="s">
+      <c r="B689" s="17" t="s">
         <v>5006</v>
       </c>
-      <c r="C689" s="18" t="s">
+      <c r="C689" s="17" t="s">
         <v>5007</v>
       </c>
     </row>
     <row r="690" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A690" s="18" t="s">
+      <c r="A690" s="17" t="s">
         <v>4804</v>
       </c>
-      <c r="B690" s="18" t="s">
+      <c r="B690" s="17" t="s">
         <v>5008</v>
       </c>
-      <c r="C690" s="18" t="s">
+      <c r="C690" s="17" t="s">
         <v>5009</v>
       </c>
     </row>
     <row r="691" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A691" s="18" t="s">
+      <c r="A691" s="17" t="s">
         <v>4805</v>
       </c>
-      <c r="B691" s="18" t="s">
+      <c r="B691" s="17" t="s">
         <v>5010</v>
       </c>
-      <c r="C691" s="18" t="s">
+      <c r="C691" s="17" t="s">
         <v>5011</v>
       </c>
     </row>
     <row r="692" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A692" s="18" t="s">
+      <c r="A692" s="17" t="s">
         <v>4806</v>
       </c>
-      <c r="B692" s="18" t="s">
+      <c r="B692" s="17" t="s">
         <v>5012</v>
       </c>
-      <c r="C692" s="18" t="s">
+      <c r="C692" s="17" t="s">
         <v>5013</v>
       </c>
     </row>
     <row r="693" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A693" s="18" t="s">
+      <c r="A693" s="17" t="s">
         <v>4807</v>
       </c>
-      <c r="B693" s="18" t="s">
+      <c r="B693" s="17" t="s">
         <v>5014</v>
       </c>
-      <c r="C693" s="18" t="s">
+      <c r="C693" s="17" t="s">
         <v>5015</v>
       </c>
     </row>
     <row r="694" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A694" s="18" t="s">
+      <c r="A694" s="17" t="s">
         <v>4808</v>
       </c>
-      <c r="B694" s="18" t="s">
+      <c r="B694" s="17" t="s">
         <v>5014</v>
       </c>
-      <c r="C694" s="18" t="s">
+      <c r="C694" s="17" t="s">
         <v>5016</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A267:C267"/>
-    <mergeCell ref="A329:C329"/>
-    <mergeCell ref="A394:C394"/>
-    <mergeCell ref="A457:C457"/>
-    <mergeCell ref="A529:C529"/>
     <mergeCell ref="A588:C588"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A42:C42"/>
@@ -26906,6 +26901,11 @@
     <mergeCell ref="A138:C138"/>
     <mergeCell ref="A167:C167"/>
     <mergeCell ref="A207:C207"/>
+    <mergeCell ref="A267:C267"/>
+    <mergeCell ref="A329:C329"/>
+    <mergeCell ref="A394:C394"/>
+    <mergeCell ref="A457:C457"/>
+    <mergeCell ref="A529:C529"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
